--- a/MachineSettings/keys.xlsx
+++ b/MachineSettings/keys.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="2053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="2057">
   <si>
     <t>exposure</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -7908,10 +7908,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>alt shift y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>焦点在资源器选定文件</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -7933,6 +7929,26 @@
   </si>
   <si>
     <t>开新外部终端</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt shift  j</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt shift  k</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦点在编辑器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt shift  l</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签切换</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -12791,10 +12807,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -12966,7 +12982,7 @@
         <v>2025</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.15">
@@ -13059,26 +13075,42 @@
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C35" s="6" t="s">
+        <v>2052</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>2046</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>2047</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C36" s="6" t="s">
-        <v>2048</v>
+        <v>2055</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C37" s="6" t="s">
+        <v>2053</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C39" s="6" t="s">
+        <v>2047</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>2049</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>2051</v>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C40" s="6" t="s">
+        <v>2048</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>2050</v>
       </c>
     </row>
   </sheetData>

--- a/MachineSettings/keys.xlsx
+++ b/MachineSettings/keys.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-24570" yWindow="630" windowWidth="48780" windowHeight="16695" activeTab="4"/>
+    <workbookView xWindow="-24570" yWindow="630" windowWidth="48780" windowHeight="16695" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="AE快捷键" sheetId="2" r:id="rId1"/>
     <sheet name="PR快捷键" sheetId="3" r:id="rId2"/>
     <sheet name="AU快捷键" sheetId="8" r:id="rId3"/>
     <sheet name="PS快捷键" sheetId="4" r:id="rId4"/>
-    <sheet name="vs code" sheetId="11" r:id="rId5"/>
-    <sheet name="AI快捷键" sheetId="7" r:id="rId6"/>
+    <sheet name="AI快捷键" sheetId="7" r:id="rId5"/>
+    <sheet name="vs code" sheetId="11" r:id="rId6"/>
     <sheet name="effects" sheetId="5" r:id="rId7"/>
     <sheet name="单词" sheetId="1" r:id="rId8"/>
     <sheet name="表达式" sheetId="6" r:id="rId9"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="2057">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="2098">
   <si>
     <t>exposure</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -3985,10 +3985,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>禁用</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>删除</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -4226,10 +4222,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>禁链</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>shift F8</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -4914,26 +4906,14 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>轮廓描边</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>偏移路径</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ctrl 7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>剪切蒙版</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ctrl alt 7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>释放剪切</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -4942,10 +4922,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>变换</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ctrl alt shift 自由变换工具</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -6255,103 +6231,175 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>小键-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁定所有视频轨</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁定所有音频轨</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> alt []</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置工作区域的起始</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> enter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>渲染工作区域</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌套</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>数键5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>数键7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小键.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl 小键.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置序列开始时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>指针或剪辑到指定帧</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift z</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规轨道高 度预设</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>套子序列轨道高 度预设</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接媒体</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F11</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设为脱机</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>F8</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>素材替换</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>小键-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>锁定所有视频轨</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>锁定所有音频轨</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> alt []</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置工作区域的起始</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> enter</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>渲染工作区域</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>数键5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>数键7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>小键.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl 小键.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置序列开始时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>指针或剪辑到指定帧</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>z</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shift z</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>常规轨道高 度预设</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>套子序列轨道高 度预设</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>链接媒体</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F11</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>设为脱机</t>
+    <t>替换素材</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl alt shift home</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>渲染工作区</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>enter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>渲染工作区效果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>波纹删除</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>剪辑启用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除剪辑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl home</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在浏览器显示源</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt ctrl home</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt shift home</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F5-7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift F5-7</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -6359,15 +6407,87 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>替换素材</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl alt shift home</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>渲染工作区</t>
+    <t>图层控件隐藏</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>伸缩与变调</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲线</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并图层</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除当前描边/填色</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>色板交换描边/填色</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像交换描边/填色</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl F1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制当前图层</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>平铺</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中选项卡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>USM锐化</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选区羽化</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl F2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高斯模糊</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl del</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl b</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -6375,170 +6495,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>渲染工作区效果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>波纹删除</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>剪辑启用</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除剪辑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl home</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>在浏览器显示源</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt ctrl home</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt shift home</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F5-7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shift F5-7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>图层控件隐藏</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F12</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>伸缩与变调</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲线</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>合并图层</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除当前描边/填色</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>色板交换描边/填色</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>W</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>图像交换描边/填色</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl F1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl B</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制当前图层</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>平铺</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>集中选项卡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>USM锐化</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>选区羽化</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl F2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>高斯模糊</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl del</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl b</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>enter</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>描边路径 画笔画出路径</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>创建剪切蒙版</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>3key 0</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -7500,19 +7460,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>重新链接到文件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ctrl F12</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>在资源管理器中显示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>置入链接对象</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -7592,10 +7544,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>伸缩变调</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>D</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -7940,15 +7888,231 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>焦点在编辑器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt shift  l</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>标签切换</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl shift [ ]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码折叠</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3key j</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件夹折叠</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl &lt;&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳出括号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新所有更改链接</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接对象</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新链接到新文件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3key 0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3key -</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3key =</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩小选区</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩大选区</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift F3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮廓描边</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>变换</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择相同色边</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏边缘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏画板</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift F1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift F7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift F8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl F8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift F6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl F6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>置入</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>画板</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl F1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏参考线</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦点在终端</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt shift  m</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3key /</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容识别填充</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接媒体</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>guide layer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl alt g</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出选中的剪辑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列化图层</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOLO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">alt shift </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中多行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ctrl shift e</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源管理器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦点在编辑器(聚焦)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctl k i</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -7956,7 +8120,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8010,6 +8174,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="萍方0"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="萍方0"/>
       <family val="2"/>
       <charset val="134"/>
@@ -8091,7 +8262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8174,6 +8345,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8480,7 +8654,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView showFormulas="1" defaultGridColor="0" colorId="49" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -8508,10 +8682,10 @@
         <v>95</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -8534,16 +8708,16 @@
         <v>83</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>69</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -8554,7 +8728,7 @@
         <v>70</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>64</v>
@@ -8566,7 +8740,7 @@
         <v>84</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>79</v>
@@ -8586,10 +8760,10 @@
         <v>67</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -8612,16 +8786,16 @@
         <v>85</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>86</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -8632,10 +8806,10 @@
         <v>73</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>57</v>
@@ -8644,10 +8818,10 @@
         <v>90</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -8658,10 +8832,10 @@
         <v>78</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>58</v>
@@ -8670,16 +8844,16 @@
         <v>89</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -8702,10 +8876,10 @@
         <v>91</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -8722,22 +8896,22 @@
         <v>74</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>156</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -8760,10 +8934,10 @@
         <v>80</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -8777,25 +8951,25 @@
         <v>54</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>1602</v>
+        <v>1594</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -8806,22 +8980,22 @@
         <v>92</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>1601</v>
+        <v>1593</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -8829,7 +9003,7 @@
         <v>61</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>1604</v>
+        <v>1596</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>46</v>
@@ -8838,13 +9012,19 @@
         <v>76</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>2089</v>
+      </c>
       <c r="C14" s="7" t="s">
         <v>35</v>
       </c>
@@ -8852,30 +9032,30 @@
         <v>65</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>1128</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>1130</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>1599</v>
+        <v>1591</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>36</v>
@@ -8884,116 +9064,116 @@
         <v>66</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>1129</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>1131</v>
-      </c>
       <c r="G15" s="7" t="s">
-        <v>1600</v>
+        <v>1592</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>1473</v>
+        <v>1467</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C17" s="7" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1972</v>
+        <v>1959</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C20" s="7" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>660</v>
@@ -9002,189 +9182,189 @@
         <v>661</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>1597</v>
+        <v>1589</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>1631</v>
+        <v>1621</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>1633</v>
+        <v>1623</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>1632</v>
+        <v>1622</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>1598</v>
+        <v>1590</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>1629</v>
+        <v>1619</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>1630</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>1603</v>
+        <v>1595</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>1951</v>
+        <v>1939</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>1975</v>
+        <v>1962</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>1976</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>1952</v>
+        <v>1940</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1953</v>
+        <v>1941</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>1167</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>1169</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>1977</v>
+        <v>1964</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>1978</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E27" s="7" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>1168</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>1170</v>
-      </c>
       <c r="G27" s="7" t="s">
-        <v>1982</v>
+        <v>1969</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>1981</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
-        <v>1964</v>
+        <v>1952</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>1970</v>
+        <v>1957</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>1979</v>
+        <v>1966</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>1980</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
-        <v>1971</v>
+        <v>1958</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1965</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
-        <v>1973</v>
+        <v>1960</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1974</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" s="6" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
     </row>
   </sheetData>
@@ -9210,1557 +9390,1557 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>1634</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>1635</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>1636</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>1637</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>1638</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>1639</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>1640</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>1641</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>1642</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>1643</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>1644</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>1645</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>1646</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>1647</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>1648</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>1649</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>1650</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>1651</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>1652</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>1653</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>1654</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>1655</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>1656</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>1657</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>1658</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>1659</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>1660</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>1661</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>1662</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>1663</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>1664</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>1665</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>1666</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>1667</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>1668</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>1669</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>1670</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>1671</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>1672</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>1673</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>1674</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>1675</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>1676</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>1677</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>1678</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>1679</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>1680</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>1681</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
-        <v>1682</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
-        <v>1683</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
-        <v>1684</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>1685</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>1686</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
-        <v>1687</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
-        <v>1688</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
-        <v>1689</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
-        <v>1690</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
-        <v>1691</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
-        <v>1692</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
-        <v>1693</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
-        <v>1697</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
-        <v>1698</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="3" t="s">
-        <v>1699</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
-        <v>1700</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
-        <v>1701</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
-        <v>1702</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
-        <v>1703</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
-        <v>1705</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
-        <v>1707</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
-        <v>1708</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
-        <v>1709</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="3" t="s">
-        <v>1710</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" s="3" t="s">
-        <v>1711</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="3" t="s">
-        <v>1712</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" s="3" t="s">
-        <v>1713</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" s="3" t="s">
-        <v>1714</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" s="3" t="s">
-        <v>1715</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" s="3" t="s">
-        <v>1716</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" s="3" t="s">
-        <v>1717</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" s="3" t="s">
-        <v>1718</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" s="3" t="s">
-        <v>1719</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" s="3" t="s">
-        <v>1720</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" s="3" t="s">
-        <v>1721</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A96" s="3" t="s">
-        <v>1722</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A97" s="3" t="s">
-        <v>1723</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A98" s="3" t="s">
-        <v>1724</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A99" s="3" t="s">
-        <v>1725</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A100" s="3" t="s">
-        <v>1726</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A101" s="3" t="s">
-        <v>1727</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A102" s="3" t="s">
-        <v>1728</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A103" s="3" t="s">
-        <v>1729</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A104" s="3" t="s">
-        <v>1730</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A105" s="3" t="s">
-        <v>1731</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A106" s="3" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A107" s="3" t="s">
-        <v>1733</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A108" s="3" t="s">
-        <v>1734</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A109" s="3" t="s">
-        <v>1735</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A110" s="3" t="s">
-        <v>1736</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A111" s="3" t="s">
-        <v>1737</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A112" s="3" t="s">
-        <v>1738</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A113" s="3" t="s">
-        <v>1739</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A114" s="3" t="s">
-        <v>1740</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A115" s="3" t="s">
-        <v>1741</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A116" s="3" t="s">
-        <v>1742</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A117" s="3" t="s">
-        <v>1743</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A118" s="3" t="s">
-        <v>1744</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A119" s="3" t="s">
-        <v>1745</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A120" s="3" t="s">
-        <v>1746</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A121" s="3" t="s">
-        <v>1747</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A122" s="3" t="s">
-        <v>1748</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A123" s="3" t="s">
-        <v>1749</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A124" s="3" t="s">
-        <v>1750</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A125" s="3" t="s">
-        <v>1751</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A126" s="3" t="s">
-        <v>1752</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A127" s="3" t="s">
-        <v>1753</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A128" s="3" t="s">
-        <v>1754</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A129" s="3" t="s">
-        <v>1755</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A130" s="3" t="s">
-        <v>1756</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A131" s="3" t="s">
-        <v>1757</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A132" s="3" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A134" s="3" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A135" s="3" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A136" s="3" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A137" s="3" t="s">
-        <v>1762</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A138" s="3" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A139" s="3" t="s">
-        <v>1764</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A140" s="3" t="s">
-        <v>1765</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A141" s="3" t="s">
-        <v>1766</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A143" s="3" t="s">
-        <v>1767</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A144" s="3" t="s">
-        <v>1768</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A145" s="3" t="s">
-        <v>1769</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A146" s="3" t="s">
-        <v>1770</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A147" s="3" t="s">
-        <v>1771</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A148" s="3" t="s">
-        <v>1772</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A149" s="3" t="s">
-        <v>1773</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A150" s="3" t="s">
-        <v>1774</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A151" s="3" t="s">
-        <v>1775</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A152" s="3" t="s">
-        <v>1776</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A153" s="3" t="s">
-        <v>1777</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A154" s="3" t="s">
-        <v>1778</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A155" s="3" t="s">
-        <v>1779</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A156" s="3" t="s">
-        <v>1780</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A157" s="3" t="s">
-        <v>1781</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A158" s="3" t="s">
-        <v>1782</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A159" s="3" t="s">
-        <v>1783</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A160" s="3" t="s">
-        <v>1784</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A161" s="3" t="s">
-        <v>1785</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A162" s="3" t="s">
-        <v>1786</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A163" s="3" t="s">
-        <v>1787</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A164" s="3" t="s">
-        <v>1788</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A165" s="3" t="s">
-        <v>1789</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A166" s="3" t="s">
-        <v>1790</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A167" s="3" t="s">
-        <v>1791</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A168" s="3" t="s">
-        <v>1792</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A169" s="3" t="s">
-        <v>1793</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A171" s="3" t="s">
-        <v>1794</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A172" s="3" t="s">
-        <v>1795</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A173" s="3" t="s">
-        <v>1796</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A174" s="3" t="s">
-        <v>1797</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A175" s="3" t="s">
-        <v>1798</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A176" s="3" t="s">
-        <v>1799</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A177" s="3" t="s">
-        <v>1800</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A178" s="3" t="s">
-        <v>1801</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A179" s="3" t="s">
-        <v>1802</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A180" s="3" t="s">
-        <v>1803</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A181" s="3" t="s">
-        <v>1804</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A182" s="3" t="s">
-        <v>1805</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A183" s="3" t="s">
-        <v>1806</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A185" s="3" t="s">
-        <v>1807</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A186" s="3" t="s">
-        <v>1808</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A187" s="3" t="s">
-        <v>1809</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A188" s="3" t="s">
-        <v>1810</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A189" s="3" t="s">
-        <v>1811</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A190" s="3" t="s">
-        <v>1812</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A191" s="3" t="s">
-        <v>1813</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A192" s="3" t="s">
-        <v>1814</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A193" s="3" t="s">
-        <v>1815</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A194" s="3" t="s">
-        <v>1816</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A195" s="3" t="s">
-        <v>1817</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A197" s="3" t="s">
-        <v>1818</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A198" s="3" t="s">
-        <v>1819</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A199" s="3" t="s">
-        <v>1820</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A200" s="3" t="s">
-        <v>1821</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A201" s="3" t="s">
-        <v>1822</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A202" s="3" t="s">
-        <v>1823</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A204" s="3" t="s">
-        <v>1824</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A205" s="3" t="s">
-        <v>1825</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A206" s="3" t="s">
-        <v>1826</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A207" s="3" t="s">
-        <v>1827</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A208" s="3" t="s">
-        <v>1828</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A209" s="3" t="s">
-        <v>1829</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A210" s="3" t="s">
-        <v>1830</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A211" s="3" t="s">
-        <v>1831</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A212" s="3" t="s">
-        <v>1832</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A213" s="3" t="s">
-        <v>1833</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A214" s="3" t="s">
-        <v>1834</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A215" s="3" t="s">
-        <v>1835</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A217" s="3" t="s">
-        <v>1836</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A218" s="3" t="s">
-        <v>1837</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A219" s="3" t="s">
-        <v>1838</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A220" s="3" t="s">
-        <v>1839</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A221" s="3" t="s">
-        <v>1840</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A222" s="3" t="s">
-        <v>1841</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A223" s="3" t="s">
-        <v>1842</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A224" s="3" t="s">
-        <v>1843</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A225" s="3" t="s">
-        <v>1844</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A226" s="3" t="s">
-        <v>1845</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A227" s="3" t="s">
-        <v>1846</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A229" s="3" t="s">
-        <v>1847</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A230" s="3" t="s">
-        <v>1848</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A231" s="3" t="s">
-        <v>1849</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A232" s="3" t="s">
-        <v>1850</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A233" s="3" t="s">
-        <v>1851</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A234" s="3" t="s">
-        <v>1852</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A235" s="3" t="s">
-        <v>1853</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A236" s="3" t="s">
-        <v>1854</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A237" s="3" t="s">
-        <v>1855</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A238" s="3" t="s">
-        <v>1856</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A239" s="3" t="s">
-        <v>1857</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A241" s="3" t="s">
-        <v>1858</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A242" s="3" t="s">
-        <v>1859</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A243" s="3" t="s">
-        <v>1860</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A244" s="3" t="s">
-        <v>1861</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A245" s="3" t="s">
-        <v>1862</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A246" s="3" t="s">
-        <v>1863</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A247" s="3" t="s">
-        <v>1864</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A248" s="3" t="s">
-        <v>1865</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A249" s="3" t="s">
-        <v>1866</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A250" s="3" t="s">
-        <v>1867</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A251" s="3" t="s">
-        <v>1868</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A252" s="3" t="s">
-        <v>1869</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A253" s="3" t="s">
-        <v>1870</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A254" s="3" t="s">
-        <v>1871</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A255" s="3" t="s">
-        <v>1872</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A256" s="3" t="s">
-        <v>1873</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A257" s="3" t="s">
-        <v>1874</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A258" s="3" t="s">
-        <v>1875</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A259" s="3" t="s">
-        <v>1876</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A261" s="3" t="s">
-        <v>1877</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A262" s="3" t="s">
-        <v>1878</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A263" s="3" t="s">
-        <v>1879</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A264" s="3" t="s">
-        <v>1880</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A265" s="3" t="s">
-        <v>1881</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A266" s="3" t="s">
-        <v>1882</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A267" s="3" t="s">
-        <v>1883</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A268" s="3" t="s">
-        <v>1884</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A269" s="3" t="s">
-        <v>1885</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A270" s="3" t="s">
-        <v>1886</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A271" s="3" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A272" s="3" t="s">
-        <v>1888</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A273" s="3" t="s">
-        <v>1889</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A274" s="3" t="s">
-        <v>1890</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A275" s="3" t="s">
-        <v>1891</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A276" s="3" t="s">
-        <v>1892</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A277" s="3" t="s">
-        <v>1893</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A278" s="3" t="s">
-        <v>1894</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A279" s="3" t="s">
-        <v>1895</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A280" s="3" t="s">
-        <v>1896</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A281" s="3" t="s">
-        <v>1897</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A282" s="3" t="s">
-        <v>1898</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A283" s="3" t="s">
-        <v>1899</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A284" s="3" t="s">
-        <v>1900</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A285" s="3" t="s">
-        <v>1901</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A286" s="3" t="s">
-        <v>1902</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A288" s="3" t="s">
-        <v>1903</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A289" s="3" t="s">
-        <v>1904</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A290" s="3" t="s">
-        <v>1905</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A292" s="3" t="s">
-        <v>1906</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A293" s="3" t="s">
-        <v>1907</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A294" s="3" t="s">
-        <v>1908</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A295" s="3" t="s">
-        <v>1909</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A296" s="3" t="s">
-        <v>1910</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A297" s="3" t="s">
-        <v>1911</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A298" s="3" t="s">
-        <v>1912</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A299" s="3" t="s">
-        <v>1913</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A300" s="3" t="s">
-        <v>1914</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A302" s="3" t="s">
-        <v>1915</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A303" s="3" t="s">
-        <v>1916</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A304" s="3" t="s">
-        <v>1917</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A305" s="3" t="s">
-        <v>1918</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A306" s="3" t="s">
-        <v>1919</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A307" s="3" t="s">
-        <v>1920</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A308" s="3" t="s">
-        <v>1921</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A309" s="3" t="s">
-        <v>1922</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A310" s="3" t="s">
-        <v>1923</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A311" s="3" t="s">
-        <v>1924</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A312" s="3" t="s">
-        <v>1925</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A313" s="3" t="s">
-        <v>1926</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A314" s="3" t="s">
-        <v>1927</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A315" s="3" t="s">
-        <v>1928</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A316" s="3" t="s">
-        <v>1929</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A317" s="3" t="s">
-        <v>1930</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A318" s="3" t="s">
-        <v>1931</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A320" s="3" t="s">
-        <v>1932</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A321" s="3" t="s">
-        <v>1933</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A322" s="3" t="s">
-        <v>1934</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A323" s="3" t="s">
-        <v>1935</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A324" s="3" t="s">
-        <v>1936</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A325" s="3" t="s">
-        <v>1937</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A326" s="3" t="s">
-        <v>1938</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A327" s="3" t="s">
-        <v>1939</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A328" s="3" t="s">
-        <v>1940</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A332" s="3" t="s">
-        <v>1941</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A333" s="3" t="s">
-        <v>1942</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A334" s="3" t="s">
-        <v>1943</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A335" s="3" t="s">
-        <v>1944</v>
+        <v>1934</v>
       </c>
     </row>
   </sheetData>
@@ -10785,7 +10965,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="26" t="s">
-        <v>1954</v>
+        <v>1942</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -10795,19 +10975,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="26" t="s">
-        <v>1956</v>
+        <v>1944</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
       <c r="E2" s="26" t="s">
-        <v>1957</v>
+        <v>1945</v>
       </c>
       <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
-        <v>1958</v>
+        <v>1946</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -10826,7 +11006,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="26"/>
       <c r="B5" s="26" t="s">
-        <v>1959</v>
+        <v>1947</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
@@ -10899,27 +11079,27 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="25" t="s">
-        <v>1955</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="27" t="s">
-        <v>1963</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="25" t="s">
-        <v>1961</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="25" t="s">
-        <v>1960</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="27" t="s">
-        <v>1962</v>
+        <v>1950</v>
       </c>
     </row>
   </sheetData>
@@ -10934,7 +11114,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView defaultGridColor="0" colorId="49" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -10956,114 +11136,114 @@
   <sheetData>
     <row r="1" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>1499</v>
+        <v>1493</v>
       </c>
       <c r="J1" s="11"/>
       <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>1479</v>
+        <v>1473</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>34</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>1408</v>
+        <v>1402</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>1550</v>
+        <v>1544</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>1521</v>
+        <v>1515</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>1520</v>
+        <v>1514</v>
       </c>
       <c r="I4" s="20" t="s">
         <v>34</v>
@@ -11072,36 +11252,36 @@
         <v>63</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>64</v>
@@ -11109,16 +11289,16 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C6" s="7" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>37</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
@@ -11126,418 +11306,418 @@
         <v>33</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>1450</v>
+        <v>1444</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C9" s="7" t="s">
-        <v>1551</v>
+        <v>1545</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>1586</v>
+        <v>1578</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>1587</v>
+        <v>1579</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>1588</v>
+        <v>1580</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="F13" s="14"/>
       <c r="I13" s="7" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C14" s="7" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="E15" s="6" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>1362</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>1368</v>
-      </c>
       <c r="I15" s="7" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C16" s="7" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>1481</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>1360</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>1330</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>1331</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>1366</v>
-      </c>
       <c r="F17" s="6" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="G18" s="14" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="7" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>1545</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C19" s="7" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>984</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>1470</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
-        <v>1594</v>
+        <v>1586</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E21" s="7" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>1443</v>
+        <v>1437</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>1567</v>
+        <v>1559</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>1469</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C22" s="7" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>1442</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C23" s="7" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C24" s="7" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>1590</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
-        <v>1585</v>
+        <v>1577</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>1552</v>
+        <v>1546</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>1557</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
-        <v>1589</v>
+        <v>1581</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>1349</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>1355</v>
-      </c>
       <c r="E27" s="7" t="s">
-        <v>1553</v>
+        <v>1547</v>
       </c>
       <c r="F27" s="18">
         <v>100</v>
@@ -11545,19 +11725,19 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
-        <v>1595</v>
+        <v>1587</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>1596</v>
+        <v>1588</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>1554</v>
+        <v>1548</v>
       </c>
       <c r="F28" s="18">
         <v>150</v>
@@ -11565,19 +11745,19 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
-        <v>1592</v>
+        <v>1584</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1593</v>
+        <v>1585</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>1555</v>
+        <v>1549</v>
       </c>
       <c r="F29" s="18">
         <v>200</v>
@@ -11585,13 +11765,13 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C30" s="7" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>1556</v>
+        <v>1550</v>
       </c>
       <c r="F30" s="18">
         <v>400</v>
@@ -11599,19 +11779,19 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
-        <v>1624</v>
+        <v>1615</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1591</v>
+        <v>1583</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>1570</v>
+        <v>1562</v>
       </c>
       <c r="F31" s="18">
         <v>50</v>
@@ -11619,7 +11799,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E32" s="7" t="s">
-        <v>1571</v>
+        <v>1563</v>
       </c>
       <c r="F32" s="18">
         <v>75</v>
@@ -11627,114 +11807,114 @@
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C33" s="7" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C34" s="7" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C35" s="7" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>1568</v>
+        <v>1560</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>1569</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.15">
       <c r="E36" s="7" t="s">
-        <v>1583</v>
+        <v>1575</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>1584</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C37" s="7" t="s">
-        <v>1560</v>
+        <v>1552</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>1561</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C38" s="7" t="s">
-        <v>1560</v>
+        <v>1552</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>1562</v>
+        <v>1554</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>1580</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C39" s="7" t="s">
-        <v>1563</v>
+        <v>1555</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>1564</v>
+        <v>1556</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>1581</v>
+        <v>1573</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>1582</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C40" s="7" t="s">
-        <v>1565</v>
+        <v>1557</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C41" s="7" t="s">
-        <v>1572</v>
+        <v>1564</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>1575</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C42" s="7" t="s">
-        <v>1573</v>
+        <v>1565</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>1574</v>
+        <v>1566</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>1576</v>
+        <v>1568</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>1578</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.15">
       <c r="E43" s="7" t="s">
-        <v>1577</v>
+        <v>1569</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>1579</v>
+        <v>1571</v>
       </c>
     </row>
   </sheetData>
@@ -11745,10 +11925,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView defaultGridColor="0" colorId="49" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -11775,307 +11955,307 @@
         <v>94</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>1487</v>
+        <v>1481</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="14" t="s">
-        <v>1468</v>
+        <v>1462</v>
       </c>
       <c r="H1" s="15"/>
       <c r="I1" s="16" t="s">
-        <v>1484</v>
+        <v>1478</v>
       </c>
       <c r="J1" s="17"/>
       <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>1459</v>
+        <v>1453</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>1545</v>
+        <v>1539</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>1486</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>1457</v>
+        <v>1451</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>1466</v>
+        <v>1460</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="G4" s="19" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
-        <v>1446</v>
+        <v>1440</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>1396</v>
+        <v>1390</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>1482</v>
+        <v>1476</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
-        <v>1452</v>
+        <v>1446</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>1448</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>1454</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>1456</v>
+        <v>1450</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1503</v>
+        <v>1497</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>1445</v>
+        <v>1439</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>1447</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>1451</v>
+        <v>1445</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>1450</v>
+        <v>1444</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1504</v>
+        <v>1498</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C8" s="19" t="s">
-        <v>1460</v>
+        <v>1454</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>1461</v>
+        <v>1455</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>1463</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>1522</v>
+        <v>1516</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>1523</v>
+        <v>1517</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>1543</v>
+        <v>1537</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>1544</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C11" s="19" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>51</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="18" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>1530</v>
+        <v>1524</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>1458</v>
+        <v>1452</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1524</v>
+        <v>1518</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>1525</v>
+        <v>1519</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>1531</v>
+        <v>1525</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>1508</v>
+        <v>1502</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>1517</v>
+        <v>1511</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>1408</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C14" s="18" t="s">
-        <v>1471</v>
+        <v>1465</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>1472</v>
+        <v>1466</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>1509</v>
+        <v>1503</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>1510</v>
+        <v>1504</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>1488</v>
+        <v>1482</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>1492</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
@@ -12083,39 +12263,39 @@
         <v>1</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>1535</v>
+        <v>1529</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>1518</v>
+        <v>1512</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>1455</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="19" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>1438</v>
+        <v>1432</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -12123,25 +12303,25 @@
         <v>2</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>1489</v>
+        <v>1483</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>1493</v>
+        <v>1487</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>1519</v>
+        <v>1513</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>1520</v>
+        <v>1514</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -12149,13 +12329,13 @@
         <v>3</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>1404</v>
+        <v>1398</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>1491</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -12163,13 +12343,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>1402</v>
+        <v>1396</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>1968</v>
+        <v>1955</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>1436</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -12177,41 +12357,41 @@
         <v>5</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>1405</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>1410</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>1411</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>982</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>1969</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="19" t="s">
-        <v>1534</v>
+        <v>1528</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>1406</v>
+        <v>1400</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C22" s="19" t="s">
-        <v>1412</v>
+        <v>1406</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -12219,131 +12399,150 @@
         <v>6</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>1540</v>
+        <v>1534</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="18" t="s">
-        <v>1541</v>
+        <v>1535</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>1464</v>
+        <v>1458</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>1465</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="19" t="s">
-        <v>1527</v>
+        <v>1521</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1439</v>
+        <v>1433</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="19" t="s">
-        <v>1528</v>
+        <v>1522</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1494</v>
+        <v>1488</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="19" t="s">
-        <v>1416</v>
+        <v>1410</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>1501</v>
+        <v>1495</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>1502</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C30" s="18" t="s">
-        <v>1514</v>
+        <v>1508</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="18" t="s">
-        <v>1515</v>
+        <v>1509</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1516</v>
+        <v>1510</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>1533</v>
+        <v>1527</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>1526</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="18" t="s">
-        <v>1546</v>
+        <v>1540</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
       <c r="C33" s="19">
         <v>0</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>1529</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="18" t="s">
-        <v>1558</v>
+        <v>2082</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>1559</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="18" t="s">
-        <v>1605</v>
+        <v>2087</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>1606</v>
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="18" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>2086</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="18" t="s">
+        <v>2083</v>
+      </c>
       <c r="B38" s="6" t="s">
-        <v>1966</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B39" s="6" t="s">
-        <v>1967</v>
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="18" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>2084</v>
       </c>
     </row>
   </sheetData>
@@ -12358,7 +12557,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView defaultGridColor="0" colorId="49" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -12371,7 +12570,8 @@
     <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
     <col min="7" max="7" width="7.375" style="4" customWidth="1"/>
     <col min="8" max="8" width="16.375" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="3"/>
+    <col min="9" max="9" width="11.375" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -12385,19 +12585,19 @@
         <v>977</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>1615</v>
+        <v>1606</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>1620</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -12414,16 +12614,16 @@
         <v>986</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>1622</v>
+        <v>1613</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>1623</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -12431,7 +12631,7 @@
         <v>954</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>979</v>
@@ -12440,20 +12640,20 @@
         <v>987</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>1626</v>
+        <v>1617</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1627</v>
+        <v>1618</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>980</v>
@@ -12462,9 +12662,11 @@
         <v>988</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>999</v>
-      </c>
-      <c r="F4" s="6"/>
+        <v>998</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>989</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="6"/>
     </row>
@@ -12478,11 +12680,11 @@
       <c r="C5" s="7" t="s">
         <v>981</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>1050</v>
+      <c r="D5" s="3" t="s">
+        <v>2048</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="7"/>
@@ -12495,20 +12697,20 @@
         <v>982</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>989</v>
+        <v>2049</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>1621</v>
+        <v>2050</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>1625</v>
+        <v>1616</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>972</v>
@@ -12516,20 +12718,11 @@
       <c r="C7" s="7" t="s">
         <v>983</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>990</v>
-      </c>
       <c r="E7" s="7" t="s">
-        <v>1020</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>1628</v>
+        <v>1019</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>1945</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>1950</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -12540,20 +12733,17 @@
         <v>973</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>1049</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>1608</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>1051</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="7" t="s">
-        <v>1946</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>1947</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -12563,10 +12753,10 @@
         <v>984</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>1607</v>
+        <v>1598</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="7"/>
@@ -12583,13 +12773,13 @@
         <v>985</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>1618</v>
+        <v>1609</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>1619</v>
+        <v>1610</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="6"/>
@@ -12598,13 +12788,13 @@
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>993</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>994</v>
-      </c>
       <c r="E11" s="7" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="7"/>
@@ -12618,20 +12808,20 @@
         <v>174</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="7" t="s">
-        <v>1948</v>
+        <v>1937</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>1949</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -12655,8 +12845,12 @@
       <c r="B14" s="6" t="s">
         <v>975</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="6"/>
+      <c r="C14" s="3" t="s">
+        <v>2051</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>1612</v>
+      </c>
       <c r="E14" s="7"/>
       <c r="F14" s="6"/>
       <c r="G14" s="7"/>
@@ -12669,8 +12863,12 @@
       <c r="B15" s="6" t="s">
         <v>976</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="6"/>
+      <c r="C15" s="3" t="s">
+        <v>2052</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>2054</v>
+      </c>
       <c r="E15" s="7"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
@@ -12683,8 +12881,12 @@
       <c r="B16" s="6" t="s">
         <v>963</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="6"/>
+      <c r="C16" s="3" t="s">
+        <v>2053</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>2055</v>
+      </c>
       <c r="E16" s="7"/>
       <c r="F16" s="6"/>
       <c r="G16" s="7"/>
@@ -12697,8 +12899,12 @@
       <c r="B17" s="6" t="s">
         <v>968</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="6"/>
+      <c r="C17" s="3" t="s">
+        <v>2079</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>2080</v>
+      </c>
       <c r="E17" s="7"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7"/>
@@ -12720,82 +12926,82 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>1000</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>1003</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>1015</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>1007</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>1011</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>1616</v>
+        <v>1607</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1617</v>
+        <v>1608</v>
       </c>
     </row>
   </sheetData>
@@ -12807,10 +13013,193 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView defaultGridColor="0" colorId="49" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.25" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9" style="7"/>
+    <col min="4" max="4" width="11" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2062</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>2064</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>2063</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>2075</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C2" s="7" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C3" s="7" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2060</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C4" s="7" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C5" s="7" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>2057</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>2071</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>2069</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C7" s="6" t="s">
+        <v>2056</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C8" s="7" t="s">
+        <v>2065</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>2059</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>2067</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>2068</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -12824,404 +13213,341 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>2006</v>
+        <v>1993</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>1992</v>
+        <v>1979</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>1999</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>1985</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>1986</v>
+      <c r="A2" s="28" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>1973</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1993</v>
+        <v>1980</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>1994</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>1990</v>
+        <v>1977</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1991</v>
+        <v>1978</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>2030</v>
+        <v>2017</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>2031</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>1983</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>1984</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>1995</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>1996</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1987</v>
+        <v>1974</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1997</v>
+        <v>1984</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1998</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>1988</v>
+        <v>1975</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1989</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C7" s="6" t="s">
-        <v>2002</v>
+        <v>1989</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>2003</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C8" s="6" t="s">
-        <v>2004</v>
+        <v>1991</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>2005</v>
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>2043</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C10" s="6" t="s">
-        <v>2037</v>
+        <v>2024</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>2007</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C12" s="6" t="s">
-        <v>2010</v>
+        <v>1997</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>2011</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C13" s="6" t="s">
-        <v>2012</v>
+        <v>1999</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>2013</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C15" s="6" t="s">
-        <v>2017</v>
+        <v>2004</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>2018</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C16" s="6" t="s">
-        <v>2008</v>
+        <v>1995</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>2009</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C17" s="6" t="s">
-        <v>2019</v>
+        <v>2006</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>2020</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C18" s="6" t="s">
-        <v>2021</v>
+        <v>2008</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>2022</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C19" s="6" t="s">
-        <v>2024</v>
+        <v>2011</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>2023</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C20" s="6" t="s">
-        <v>2025</v>
+        <v>2012</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>2051</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C22" s="6" t="s">
-        <v>2029</v>
+        <v>2016</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>2026</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C23" s="6" t="s">
-        <v>2027</v>
+        <v>2014</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>2028</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C25" s="6" t="s">
-        <v>2014</v>
+        <v>2001</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>2038</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C26" s="6" t="s">
-        <v>2039</v>
+        <v>2026</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>2036</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C27" s="6" t="s">
-        <v>2015</v>
+        <v>2002</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>2016</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C29" s="6" t="s">
-        <v>2032</v>
+        <v>2019</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>2040</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C30" s="6" t="s">
-        <v>2033</v>
+        <v>2020</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>2041</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C31" s="6" t="s">
-        <v>2034</v>
+        <v>2021</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>2001</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C32" s="6" t="s">
-        <v>2035</v>
+        <v>2022</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>2000</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C33" s="6" t="s">
-        <v>2042</v>
+        <v>2029</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>2044</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C34" s="6" t="s">
-        <v>2043</v>
+        <v>2030</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C35" s="6" t="s">
-        <v>2052</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>2046</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C36" s="6" t="s">
-        <v>2055</v>
+        <v>2039</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>2054</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C37" s="6" t="s">
-        <v>2053</v>
+        <v>2097</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>2056</v>
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C38" s="6" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>2077</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C39" s="6" t="s">
+        <v>2040</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C41" s="6" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C42" s="6" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C43" s="6" t="s">
+        <v>2044</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C45" s="28" t="s">
+        <v>2046</v>
+      </c>
+      <c r="D45" s="28" t="s">
         <v>2047</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>2049</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C40" s="6" t="s">
-        <v>2048</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>2050</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView defaultGridColor="0" colorId="49" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="18" style="6" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9" style="7"/>
-    <col min="4" max="16384" width="9" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C2" s="7" t="s">
-        <v>1536</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>1224</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>1225</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>1537</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>1226</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>1538</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>1539</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>1611</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>1613</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>1614</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
-        <v>1609</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>1610</v>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C47" s="6" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C49" s="6" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>2095</v>
       </c>
     </row>
   </sheetData>
@@ -14868,10 +15194,10 @@
         <v>915</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -14906,10 +15232,10 @@
         <v>917</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -14944,10 +15270,10 @@
         <v>918</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -14982,10 +15308,10 @@
         <v>920</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -15020,10 +15346,10 @@
         <v>922</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>1548</v>
+        <v>1542</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>1549</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
@@ -15404,10 +15730,10 @@
         <v>822</v>
       </c>
       <c r="I17" s="6" t="s">
+        <v>1023</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>1024</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
@@ -15436,10 +15762,10 @@
         <v>824</v>
       </c>
       <c r="I18" s="6" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>1026</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
@@ -15453,7 +15779,7 @@
         <v>218</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>716</v>
@@ -15468,10 +15794,10 @@
         <v>827</v>
       </c>
       <c r="I19" s="6" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>1028</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
@@ -15500,10 +15826,10 @@
         <v>829</v>
       </c>
       <c r="I20" s="6" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J20" s="6" t="s">
         <v>1030</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
@@ -15532,10 +15858,10 @@
         <v>831</v>
       </c>
       <c r="I21" s="6" t="s">
+        <v>1031</v>
+      </c>
+      <c r="J21" s="6" t="s">
         <v>1032</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
@@ -15564,10 +15890,10 @@
         <v>832</v>
       </c>
       <c r="I22" s="6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J22" s="6" t="s">
         <v>1034</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
@@ -15596,10 +15922,10 @@
         <v>835</v>
       </c>
       <c r="I23" s="6" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J23" s="6" t="s">
         <v>1036</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
@@ -15628,10 +15954,10 @@
         <v>837</v>
       </c>
       <c r="I24" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J24" s="6" t="s">
         <v>1043</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
@@ -15660,10 +15986,10 @@
         <v>839</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
@@ -15692,10 +16018,10 @@
         <v>841</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
@@ -15724,10 +16050,10 @@
         <v>843</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
@@ -15756,10 +16082,10 @@
         <v>845</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
@@ -15788,10 +16114,10 @@
         <v>847</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
@@ -15820,10 +16146,10 @@
         <v>849</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
@@ -15852,10 +16178,10 @@
         <v>851</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
@@ -15884,10 +16210,10 @@
         <v>853</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
@@ -15916,10 +16242,10 @@
         <v>855</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
@@ -15948,10 +16274,10 @@
         <v>857</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
@@ -15980,10 +16306,10 @@
         <v>859</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
@@ -16012,10 +16338,10 @@
         <v>861</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
@@ -16044,10 +16370,10 @@
         <v>863</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
@@ -16076,10 +16402,10 @@
         <v>865</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
@@ -16108,10 +16434,10 @@
         <v>867</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
@@ -16140,10 +16466,10 @@
         <v>869</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
@@ -16172,10 +16498,10 @@
         <v>871</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
@@ -16204,10 +16530,10 @@
         <v>873</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
@@ -16236,10 +16562,10 @@
         <v>875</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
@@ -16268,10 +16594,10 @@
         <v>877</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
@@ -16300,10 +16626,10 @@
         <v>879</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
@@ -16332,10 +16658,10 @@
         <v>881</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
@@ -16364,10 +16690,10 @@
         <v>883</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
@@ -16396,10 +16722,10 @@
         <v>885</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
@@ -16428,10 +16754,10 @@
         <v>887</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
@@ -16460,10 +16786,10 @@
         <v>889</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
@@ -16492,10 +16818,10 @@
         <v>891</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
@@ -16524,10 +16850,10 @@
         <v>893</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
@@ -16556,10 +16882,10 @@
         <v>895</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
@@ -16588,10 +16914,10 @@
         <v>940</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
@@ -16620,10 +16946,10 @@
         <v>904</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
@@ -16652,10 +16978,10 @@
         <v>906</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
@@ -16684,10 +17010,10 @@
         <v>910</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
@@ -16716,10 +17042,10 @@
         <v>912</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
@@ -16748,10 +17074,10 @@
         <v>941</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
   </sheetData>

--- a/MachineSettings/keys.xlsx
+++ b/MachineSettings/keys.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="2098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="2099">
   <si>
     <t>exposure</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -7904,18 +7904,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>文件夹折叠</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl &lt;&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳出括号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>刷新所有更改链接</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -8036,83 +8024,99 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>3key /</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容识别填充</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接媒体</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>guide layer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl alt g</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出选中的剪辑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列化图层</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOLO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">alt shift </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中多行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦点在编辑器(聚焦)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>栅格图层</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ctrl alt shift e </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源管理器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭侧栏(资源管理器)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl shift e</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>禅模式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>alt shift  m</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3key /</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容识别填充</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>链接媒体</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>guide layer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl alt g</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出选中的剪辑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>序列化图层</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOLO</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">alt shift </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>选中多行</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ctrl shift e</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源管理器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦点在编辑器(聚焦)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctl k i</t>
+    <t>alt shift l</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -9020,10 +9024,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>2088</v>
+        <v>2084</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>2089</v>
+        <v>2085</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>35</v>
@@ -12502,31 +12506,31 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="18" t="s">
-        <v>2082</v>
+        <v>2078</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>2091</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="18" t="s">
-        <v>2087</v>
+        <v>2083</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>2081</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="18" t="s">
-        <v>2090</v>
+        <v>2086</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>2086</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="18" t="s">
-        <v>2083</v>
+        <v>2079</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>1597</v>
@@ -12539,10 +12543,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="18" t="s">
-        <v>2085</v>
+        <v>2081</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>2084</v>
+        <v>2080</v>
       </c>
     </row>
   </sheetData>
@@ -12557,7 +12561,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView defaultGridColor="0" colorId="49" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -12681,12 +12685,14 @@
         <v>981</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>2048</v>
+        <v>2045</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>1017</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>2091</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="6"/>
     </row>
@@ -12697,13 +12703,13 @@
         <v>982</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>2049</v>
+        <v>2046</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>1018</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>2050</v>
+        <v>2047</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="6"/>
@@ -12846,7 +12852,7 @@
         <v>975</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>2051</v>
+        <v>2048</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>1612</v>
@@ -12864,10 +12870,10 @@
         <v>976</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>2052</v>
+        <v>2049</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="6"/>
@@ -12882,10 +12888,10 @@
         <v>963</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>2053</v>
+        <v>2050</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>2055</v>
+        <v>2052</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="6"/>
@@ -12900,10 +12906,10 @@
         <v>968</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>2079</v>
+        <v>2075</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>2080</v>
+        <v>2076</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="6"/>
@@ -13039,19 +13045,19 @@
         <v>1223</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>2062</v>
+        <v>2059</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>2064</v>
+        <v>2061</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>2063</v>
+        <v>2060</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>2075</v>
+        <v>2072</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>2076</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -13059,7 +13065,7 @@
         <v>1530</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>2061</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -13067,10 +13073,10 @@
         <v>1531</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>2058</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -13091,27 +13097,27 @@
         <v>1225</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>2057</v>
+        <v>2054</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>2071</v>
+        <v>2068</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>2069</v>
+        <v>2066</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>2070</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C7" s="6" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>1221</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>1222</v>
@@ -13119,19 +13125,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C8" s="7" t="s">
-        <v>2065</v>
+        <v>2062</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>2059</v>
+        <v>2056</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>1217</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>1218</v>
@@ -13145,7 +13151,7 @@
         <v>1603</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>2072</v>
+        <v>2069</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>1220</v>
@@ -13181,10 +13187,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>2073</v>
+        <v>2070</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>2074</v>
+        <v>2071</v>
       </c>
     </row>
   </sheetData>
@@ -13196,10 +13202,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -13470,84 +13476,84 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C36" s="6" t="s">
-        <v>2039</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>2033</v>
-      </c>
-    </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C37" s="6" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>2096</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C38" s="6" t="s">
-        <v>2078</v>
+        <v>2097</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>2077</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C39" s="6" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C40" s="6" t="s">
         <v>2040</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>2041</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C41" s="6" t="s">
-        <v>2034</v>
+        <v>2039</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>2036</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C42" s="6" t="s">
-        <v>2035</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C43" s="6" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C44" s="6" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C45" s="6" t="s">
         <v>2044</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C45" s="28" t="s">
-        <v>2046</v>
-      </c>
-      <c r="D45" s="28" t="s">
-        <v>2047</v>
+      <c r="D45" s="6" t="s">
+        <v>2096</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C47" s="6" t="s">
-        <v>2092</v>
+        <v>2088</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>2093</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C49" s="6" t="s">
+        <v>2095</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C50" s="6" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>2094</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>2095</v>
       </c>
     </row>
   </sheetData>

--- a/MachineSettings/keys.xlsx
+++ b/MachineSettings/keys.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-24570" yWindow="630" windowWidth="48780" windowHeight="16695" activeTab="5"/>
+    <workbookView xWindow="-24570" yWindow="630" windowWidth="48780" windowHeight="16695" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="AE快捷键" sheetId="2" r:id="rId1"/>
@@ -13,18 +13,19 @@
     <sheet name="PS快捷键" sheetId="4" r:id="rId4"/>
     <sheet name="AI快捷键" sheetId="7" r:id="rId5"/>
     <sheet name="vs code" sheetId="11" r:id="rId6"/>
-    <sheet name="effects" sheetId="5" r:id="rId7"/>
-    <sheet name="单词" sheetId="1" r:id="rId8"/>
-    <sheet name="表达式" sheetId="6" r:id="rId9"/>
-    <sheet name="特效翻译" sheetId="9" r:id="rId10"/>
-    <sheet name="数据引用" sheetId="10" r:id="rId11"/>
+    <sheet name="jupyter" sheetId="12" r:id="rId7"/>
+    <sheet name="effects" sheetId="5" r:id="rId8"/>
+    <sheet name="单词" sheetId="1" r:id="rId9"/>
+    <sheet name="表达式" sheetId="6" r:id="rId10"/>
+    <sheet name="特效翻译" sheetId="9" r:id="rId11"/>
+    <sheet name="数据引用" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="2099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="2173">
   <si>
     <t>exposure</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -8119,12 +8120,234 @@
     <t>alt shift l</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>一旦选定cell，可以批量删除/拷贝/剪切/粘贴/运行。当你需要移动notebook的一部分时这个很有用。</t>
+  </si>
+  <si>
+    <t>Esc + F 在代码中查找、替换，忽略输出。</t>
+  </si>
+  <si>
+    <t>Esc + O 在cell和输出结果间切换。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">选择多个cell: </t>
+  </si>
+  <si>
+    <t>Shift + J 或 Shift + Down 选择下一个cell。</t>
+  </si>
+  <si>
+    <t>Shift + K 或 Shift + Up 选择上一个cell。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shift + M 合并cell. </t>
+  </si>
+  <si>
+    <t>命令模式 (按键 Esc 开启)</t>
+  </si>
+  <si>
+    <t>Enter : 转入编辑模式</t>
+  </si>
+  <si>
+    <t>Shift-Enter : 运行本单元，选中下个单元</t>
+  </si>
+  <si>
+    <t>Ctrl-Enter : 运行本单元</t>
+  </si>
+  <si>
+    <t>Alt-Enter : 运行本单元，在其下插入新单元</t>
+  </si>
+  <si>
+    <t>Y : 单元转入代码状态</t>
+  </si>
+  <si>
+    <t>M :单元转入markdown状态</t>
+  </si>
+  <si>
+    <t>R : 单元转入raw状态</t>
+  </si>
+  <si>
+    <t>1 : 设定 1 级标题</t>
+  </si>
+  <si>
+    <t>2 : 设定 2 级标题</t>
+  </si>
+  <si>
+    <t>3 : 设定 3 级标题</t>
+  </si>
+  <si>
+    <t>4 : 设定 4 级标题</t>
+  </si>
+  <si>
+    <t>5 : 设定 5 级标题</t>
+  </si>
+  <si>
+    <t>6 : 设定 6 级标题</t>
+  </si>
+  <si>
+    <t>Up : 选中上方单元</t>
+  </si>
+  <si>
+    <t>K : 选中上方单元</t>
+  </si>
+  <si>
+    <t>Down : 选中下方单元</t>
+  </si>
+  <si>
+    <t>J : 选中下方单元</t>
+  </si>
+  <si>
+    <t>Shift-K : 扩大选中上方单元</t>
+  </si>
+  <si>
+    <t>Shift-J : 扩大选中下方单元</t>
+  </si>
+  <si>
+    <t>A : 在上方插入新单元</t>
+  </si>
+  <si>
+    <t>B : 在下方插入新单元</t>
+  </si>
+  <si>
+    <t>X : 剪切选中的单元</t>
+  </si>
+  <si>
+    <t>C : 复制选中的单元</t>
+  </si>
+  <si>
+    <t>Shift-V : 粘贴到上方单元</t>
+  </si>
+  <si>
+    <t>V : 粘贴到下方单元</t>
+  </si>
+  <si>
+    <t>Z : 恢复删除的最后一个单元</t>
+  </si>
+  <si>
+    <t>D,D : 删除选中的单元</t>
+  </si>
+  <si>
+    <t>Shift-M : 合并选中的单元</t>
+  </si>
+  <si>
+    <t>Ctrl-S : 文件存盘</t>
+  </si>
+  <si>
+    <t>S : 文件存盘</t>
+  </si>
+  <si>
+    <t>L : 转换行号</t>
+  </si>
+  <si>
+    <t>O : 转换输出</t>
+  </si>
+  <si>
+    <t>Shift-O : 转换输出滚动</t>
+  </si>
+  <si>
+    <t>Esc : 关闭页面</t>
+  </si>
+  <si>
+    <t>Q : 关闭页面</t>
+  </si>
+  <si>
+    <t>H : 显示快捷键帮助</t>
+  </si>
+  <si>
+    <t>I,I : 中断Notebook内核</t>
+  </si>
+  <si>
+    <t>0,0 : 重启Notebook内核</t>
+  </si>
+  <si>
+    <t>Shift : 忽略</t>
+  </si>
+  <si>
+    <t>Shift-Space : 向上滚动</t>
+  </si>
+  <si>
+    <t>Space : 向下滚动</t>
+  </si>
+  <si>
+    <t>编辑模式 ( Enter 键启动)</t>
+  </si>
+  <si>
+    <t>Tab : 代码补全或缩进</t>
+  </si>
+  <si>
+    <t>Shift-Tab : 提示</t>
+  </si>
+  <si>
+    <t>Ctrl-] : 缩进</t>
+  </si>
+  <si>
+    <t>Ctrl-[ : 解除缩进</t>
+  </si>
+  <si>
+    <t>Ctrl-A : 全选</t>
+  </si>
+  <si>
+    <t>Ctrl-Z : 复原</t>
+  </si>
+  <si>
+    <t>Ctrl-Shift-Z : 再做</t>
+  </si>
+  <si>
+    <t>Ctrl-Y : 再做</t>
+  </si>
+  <si>
+    <t>Ctrl-Home : 跳到单元开头</t>
+  </si>
+  <si>
+    <t>Ctrl-Up : 跳到单元开头</t>
+  </si>
+  <si>
+    <t>Ctrl-End : 跳到单元末尾</t>
+  </si>
+  <si>
+    <t>Ctrl-Down : 跳到单元末尾</t>
+  </si>
+  <si>
+    <t>Ctrl-Left : 跳到左边一个字首</t>
+  </si>
+  <si>
+    <t>Ctrl-Right : 跳到右边一个字首</t>
+  </si>
+  <si>
+    <t>Ctrl-Backspace : 删除前面一个字</t>
+  </si>
+  <si>
+    <t>Ctrl-Delete : 删除后面一个字</t>
+  </si>
+  <si>
+    <t>Esc : 进入命令模式</t>
+  </si>
+  <si>
+    <t>Ctrl-M : 进入命令模式</t>
+  </si>
+  <si>
+    <t>Shift-Enter : 运行本单元，选中下一单元</t>
+  </si>
+  <si>
+    <t>Alt-Enter : 运行本单元，在下面插入一单元</t>
+  </si>
+  <si>
+    <t>Ctrl-Shift-- : 分割单元</t>
+  </si>
+  <si>
+    <t>Ctrl-Shift-Subtract : 分割单元</t>
+  </si>
+  <si>
+    <t>Up : 光标上移或转入上一单元</t>
+  </si>
+  <si>
+    <t>Down :光标下移或转入下一单元</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8185,6 +8408,12 @@
     <font>
       <sz val="9"/>
       <color theme="0" tint="-0.34998626667073579"/>
+      <name val="萍方0"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="萍方0"/>
       <family val="2"/>
       <charset val="134"/>
@@ -8266,7 +8495,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8352,6 +8581,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9380,6 +9612,52 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="136.75" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="136.75" style="2"/>
+    <col min="2" max="16384" width="136.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>935</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10954,7 +11232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -13204,7 +13482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -13564,6 +13842,498 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="79.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="29" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B1" s="29"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="29" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B2" s="29"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="29" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B3" s="29"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="29" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B4" s="29"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="29" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B5" s="29"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="29" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B6" s="29"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="29" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B7" s="29"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B8" s="29"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B9" s="29"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="29" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B10" s="29"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="29" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B11" s="29"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="29" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B12" s="29"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="29" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B13" s="29"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="29" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B14" s="29"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="29" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B15" s="29"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="29" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B16" s="29"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="29" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B17" s="29"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="29" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B18" s="29"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="29" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B19" s="29"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="29" t="s">
+        <v>2116</v>
+      </c>
+      <c r="B20" s="29"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="29" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B21" s="29"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="29" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B22" s="29"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="29" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B23" s="29"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="29" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B24" s="29"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="29" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B25" s="29"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="29" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B26" s="29"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="29" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B27" s="29"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="29" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B28" s="29"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="29" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B29" s="29"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="29" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B30" s="29"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="29" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B31" s="29"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="29" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B32" s="29"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="29" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B33" s="29"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="29" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B34" s="29"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="29" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B35" s="29"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="29" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B36" s="29"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="29" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B37" s="29"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="29" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B38" s="29"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="29" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B39" s="29"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="29" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B40" s="29"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="29" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B41" s="29"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="29" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B42" s="29"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="29" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B43" s="29"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="29" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B44" s="29"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="29" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B45" s="29"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="29" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B46" s="29"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="29" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B47" s="29"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="29" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B48" s="29"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="29" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B49" s="29"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="29" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B50" s="29"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="29" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B51" s="29"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B52" s="29"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="29" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B53" s="29"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="29" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B54" s="29"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="29" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B55" s="29"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="29" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B56" s="29"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="29" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B57" s="29"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="29" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B58" s="29"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="29" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B59" s="29"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="29" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B60" s="29"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" s="29" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B61" s="29"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" s="29" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B62" s="29"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="29" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B63" s="29"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" s="29" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B64" s="29"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" s="29" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B65" s="29"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" s="29" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B66" s="29"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" s="29" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B67" s="29"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" s="29" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B68" s="29"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" s="29" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B69" s="29"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" s="29" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B70" s="29"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" s="29" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B71" s="29"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" s="29" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B72" s="29"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" s="29" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B73" s="29"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" s="29" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B74" s="29"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" s="29" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B75" s="29"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" s="29" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B76" s="29"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" s="29" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B77" s="29"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" s="29" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B78" s="29"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" s="29" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B79" s="29"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" s="29" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B80" s="29"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -15146,7 +15916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L59"/>
   <sheetViews>
@@ -17091,50 +17861,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="136.75" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="136.75" style="2"/>
-    <col min="2" max="16384" width="136.75" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="24" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="24" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="24" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>935</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/MachineSettings/keys.xlsx
+++ b/MachineSettings/keys.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-24570" yWindow="630" windowWidth="48780" windowHeight="16695" activeTab="6"/>
+    <workbookView xWindow="-24570" yWindow="630" windowWidth="48780" windowHeight="16695" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="AE快捷键" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="2173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="2175">
   <si>
     <t>exposure</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -8341,6 +8341,14 @@
   </si>
   <si>
     <t>Down :光标下移或转入下一单元</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ctrl space</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码提示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -13480,10 +13488,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -13834,6 +13842,14 @@
         <v>2094</v>
       </c>
     </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C52" s="6" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>2174</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13845,7 +13861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>

--- a/MachineSettings/keys.xlsx
+++ b/MachineSettings/keys.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-24570" yWindow="630" windowWidth="48780" windowHeight="16695" activeTab="5"/>
+    <workbookView xWindow="-24570" yWindow="630" windowWidth="29040" windowHeight="16440" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="AE快捷键" sheetId="2" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="特效翻译" sheetId="9" r:id="rId11"/>
     <sheet name="数据引用" sheetId="10" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="2175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="2181">
   <si>
     <t>exposure</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -8350,12 +8350,36 @@
     <t>代码提示</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>alt shift i </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示定义悬停</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">alt shift j </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示参数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl space</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示提示完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8901,7 +8925,7 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="7.75" style="6" customWidth="1"/>
@@ -8915,7 +8939,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="17" customFormat="1">
       <c r="A1" s="17" t="s">
         <v>93</v>
       </c>
@@ -8932,7 +8956,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
         <v>33</v>
       </c>
@@ -8964,7 +8988,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" s="6" t="s">
         <v>39</v>
       </c>
@@ -8990,7 +9014,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
@@ -9010,7 +9034,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" s="6" t="s">
         <v>42</v>
       </c>
@@ -9042,7 +9066,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" s="6" t="s">
         <v>43</v>
       </c>
@@ -9068,7 +9092,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" s="6" t="s">
         <v>48</v>
       </c>
@@ -9100,7 +9124,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" s="6" t="s">
         <v>47</v>
       </c>
@@ -9126,7 +9150,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9" s="6" t="s">
         <v>50</v>
       </c>
@@ -9158,7 +9182,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" s="6" t="s">
         <v>41</v>
       </c>
@@ -9184,7 +9208,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" s="6" t="s">
         <v>55</v>
       </c>
@@ -9216,7 +9240,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" s="6" t="s">
         <v>60</v>
       </c>
@@ -9242,7 +9266,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" s="6" t="s">
         <v>61</v>
       </c>
@@ -9262,7 +9286,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" s="6" t="s">
         <v>2084</v>
       </c>
@@ -9294,7 +9318,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" s="6" t="s">
         <v>1133</v>
       </c>
@@ -9326,7 +9350,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16" s="6" t="s">
         <v>1174</v>
       </c>
@@ -9352,7 +9376,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10">
       <c r="C17" s="7" t="s">
         <v>1137</v>
       </c>
@@ -9366,7 +9390,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10">
       <c r="A18" s="6" t="s">
         <v>1188</v>
       </c>
@@ -9392,7 +9416,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10">
       <c r="A19" s="6" t="s">
         <v>1190</v>
       </c>
@@ -9412,7 +9436,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="C20" s="7" t="s">
         <v>1122</v>
       </c>
@@ -9438,7 +9462,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="A21" s="6" t="s">
         <v>1589</v>
       </c>
@@ -9464,7 +9488,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="A22" s="6" t="s">
         <v>1623</v>
       </c>
@@ -9478,7 +9502,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10">
       <c r="A23" s="6" t="s">
         <v>1352</v>
       </c>
@@ -9504,7 +9528,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10">
       <c r="A25" s="6" t="s">
         <v>1595</v>
       </c>
@@ -9530,7 +9554,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10">
       <c r="A26" s="6" t="s">
         <v>1940</v>
       </c>
@@ -9556,7 +9580,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10">
       <c r="E27" s="7" t="s">
         <v>1166</v>
       </c>
@@ -9570,7 +9594,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10">
       <c r="A28" s="6" t="s">
         <v>1952</v>
       </c>
@@ -9590,7 +9614,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10">
       <c r="A29" s="6" t="s">
         <v>1958</v>
       </c>
@@ -9598,7 +9622,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10">
       <c r="A31" s="6" t="s">
         <v>1960</v>
       </c>
@@ -9606,7 +9630,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:2">
       <c r="B33" s="6" t="s">
         <v>1353</v>
       </c>
@@ -9626,33 +9650,33 @@
       <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="136.75" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="136.75" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="136.75" style="2"/>
     <col min="2" max="16384" width="136.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" ht="22.5">
       <c r="A1" s="2" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" ht="22.5">
       <c r="A2" s="2" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="24" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" ht="33.75">
       <c r="A3" s="2" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="24" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" ht="22.5">
       <c r="A4" s="2" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="24" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" ht="22.5">
       <c r="A5" s="2" t="s">
         <v>935</v>
       </c>
@@ -9672,1563 +9696,1563 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="61.875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" s="3" t="s">
         <v>1625</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" s="3" t="s">
         <v>1626</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
         <v>1627</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
         <v>1628</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1">
       <c r="A8" s="3" t="s">
         <v>1629</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1">
       <c r="A9" s="3" t="s">
         <v>1630</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1">
       <c r="A10" s="3" t="s">
         <v>1631</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1">
       <c r="A11" s="3" t="s">
         <v>1632</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1">
       <c r="A12" s="3" t="s">
         <v>1633</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1">
       <c r="A13" s="3" t="s">
         <v>1634</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1">
       <c r="A14" s="3" t="s">
         <v>1635</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1">
       <c r="A16" s="3" t="s">
         <v>1636</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
         <v>1637</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" s="3" t="s">
         <v>1638</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" s="3" t="s">
         <v>1639</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" s="3" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" s="3" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1">
       <c r="A22" s="3" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1">
       <c r="A23" s="3" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1">
       <c r="A24" s="3" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1">
       <c r="A25" s="3" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1">
       <c r="A26" s="3" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1">
       <c r="A28" s="3" t="s">
         <v>1647</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1">
       <c r="A29" s="3" t="s">
         <v>1648</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1">
       <c r="A30" s="3" t="s">
         <v>1649</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1">
       <c r="A31" s="3" t="s">
         <v>1650</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1">
       <c r="A32" s="3" t="s">
         <v>1651</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1">
       <c r="A33" s="3" t="s">
         <v>1652</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1">
       <c r="A34" s="3" t="s">
         <v>1653</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1">
       <c r="A35" s="3" t="s">
         <v>1654</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:1">
       <c r="A36" s="3" t="s">
         <v>1655</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:1">
       <c r="A37" s="3" t="s">
         <v>1656</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:1">
       <c r="A38" s="3" t="s">
         <v>1657</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:1">
       <c r="A39" s="3" t="s">
         <v>1658</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:1">
       <c r="A40" s="3" t="s">
         <v>1659</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:1">
       <c r="A41" s="3" t="s">
         <v>1660</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:1">
       <c r="A42" s="3" t="s">
         <v>1661</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:1">
       <c r="A43" s="3" t="s">
         <v>1662</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:1">
       <c r="A44" s="3" t="s">
         <v>1663</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:1">
       <c r="A46" s="3" t="s">
         <v>1664</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:1">
       <c r="A47" s="3" t="s">
         <v>1665</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:1">
       <c r="A48" s="3" t="s">
         <v>1666</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1">
       <c r="A49" s="3" t="s">
         <v>1667</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1">
       <c r="A50" s="3" t="s">
         <v>1668</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1">
       <c r="A51" s="3" t="s">
         <v>1669</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1">
       <c r="A52" s="3" t="s">
         <v>1670</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1">
       <c r="A53" s="3" t="s">
         <v>1671</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1">
       <c r="A54" s="3" t="s">
         <v>1672</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1">
       <c r="A55" s="3" t="s">
         <v>1673</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1">
       <c r="A56" s="3" t="s">
         <v>1674</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1">
       <c r="A57" s="3" t="s">
         <v>1675</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1">
       <c r="A58" s="3" t="s">
         <v>1676</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1">
       <c r="A59" s="3" t="s">
         <v>1677</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1">
       <c r="A61" s="3" t="s">
         <v>1678</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1">
       <c r="A62" s="3" t="s">
         <v>1679</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1">
       <c r="A63" s="3" t="s">
         <v>1680</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1">
       <c r="A64" s="3" t="s">
         <v>1681</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1">
       <c r="A65" s="3" t="s">
         <v>1682</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1">
       <c r="A66" s="3" t="s">
         <v>1683</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1">
       <c r="A67" s="3" t="s">
         <v>1684</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1">
       <c r="A68" s="3" t="s">
         <v>1685</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1">
       <c r="A69" s="3" t="s">
         <v>1686</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1">
       <c r="A70" s="3" t="s">
         <v>1687</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1">
       <c r="A71" s="3" t="s">
         <v>1688</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1">
       <c r="A72" s="3" t="s">
         <v>1689</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1">
       <c r="A73" s="3" t="s">
         <v>1690</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1">
       <c r="A74" s="3" t="s">
         <v>1691</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1">
       <c r="A75" s="3" t="s">
         <v>1692</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1">
       <c r="A76" s="3" t="s">
         <v>1693</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1">
       <c r="A77" s="3" t="s">
         <v>1694</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1">
       <c r="A78" s="3" t="s">
         <v>1695</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1">
       <c r="A79" s="3" t="s">
         <v>1696</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1">
       <c r="A80" s="3" t="s">
         <v>1697</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1">
       <c r="A81" s="3" t="s">
         <v>1698</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1">
       <c r="A82" s="3" t="s">
         <v>1699</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1">
       <c r="A83" s="3" t="s">
         <v>1700</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1">
       <c r="A84" s="3" t="s">
         <v>1701</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1">
       <c r="A85" s="3" t="s">
         <v>1702</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1">
       <c r="A86" s="3" t="s">
         <v>1703</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1">
       <c r="A87" s="3" t="s">
         <v>1704</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1">
       <c r="A88" s="3" t="s">
         <v>1705</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1">
       <c r="A89" s="3" t="s">
         <v>1706</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1">
       <c r="A90" s="3" t="s">
         <v>1707</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1">
       <c r="A91" s="3" t="s">
         <v>1708</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1">
       <c r="A92" s="3" t="s">
         <v>1709</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1">
       <c r="A93" s="3" t="s">
         <v>1710</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1">
       <c r="A94" s="3" t="s">
         <v>1711</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1">
       <c r="A96" s="3" t="s">
         <v>1712</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1">
       <c r="A97" s="3" t="s">
         <v>1713</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1">
       <c r="A98" s="3" t="s">
         <v>1714</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1">
       <c r="A99" s="3" t="s">
         <v>1715</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1">
       <c r="A100" s="3" t="s">
         <v>1716</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1">
       <c r="A101" s="3" t="s">
         <v>1717</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1">
       <c r="A102" s="3" t="s">
         <v>1718</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1">
       <c r="A103" s="3" t="s">
         <v>1719</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1">
       <c r="A104" s="3" t="s">
         <v>1720</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1">
       <c r="A105" s="3" t="s">
         <v>1721</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1">
       <c r="A106" s="3" t="s">
         <v>1722</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1">
       <c r="A107" s="3" t="s">
         <v>1723</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1">
       <c r="A108" s="3" t="s">
         <v>1724</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1">
       <c r="A109" s="3" t="s">
         <v>1725</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1">
       <c r="A110" s="3" t="s">
         <v>1726</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1">
       <c r="A111" s="3" t="s">
         <v>1727</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1">
       <c r="A112" s="3" t="s">
         <v>1728</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1">
       <c r="A113" s="3" t="s">
         <v>1729</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1">
       <c r="A114" s="3" t="s">
         <v>1730</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1">
       <c r="A115" s="3" t="s">
         <v>1731</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1">
       <c r="A116" s="3" t="s">
         <v>1732</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1">
       <c r="A117" s="3" t="s">
         <v>1733</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1">
       <c r="A118" s="3" t="s">
         <v>1734</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1">
       <c r="A119" s="3" t="s">
         <v>1735</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1">
       <c r="A120" s="3" t="s">
         <v>1736</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1">
       <c r="A121" s="3" t="s">
         <v>1737</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1">
       <c r="A122" s="3" t="s">
         <v>1738</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1">
       <c r="A123" s="3" t="s">
         <v>1739</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1">
       <c r="A124" s="3" t="s">
         <v>1740</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1">
       <c r="A125" s="3" t="s">
         <v>1741</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1">
       <c r="A126" s="3" t="s">
         <v>1742</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1">
       <c r="A127" s="3" t="s">
         <v>1743</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1">
       <c r="A128" s="3" t="s">
         <v>1744</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1">
       <c r="A129" s="3" t="s">
         <v>1745</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1">
       <c r="A130" s="3" t="s">
         <v>1746</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1">
       <c r="A131" s="3" t="s">
         <v>1747</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1">
       <c r="A132" s="3" t="s">
         <v>1748</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1">
       <c r="A134" s="3" t="s">
         <v>1749</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1">
       <c r="A135" s="3" t="s">
         <v>1750</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1">
       <c r="A136" s="3" t="s">
         <v>1751</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1">
       <c r="A137" s="3" t="s">
         <v>1752</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1">
       <c r="A138" s="3" t="s">
         <v>1753</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1">
       <c r="A139" s="3" t="s">
         <v>1754</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1">
       <c r="A140" s="3" t="s">
         <v>1755</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1">
       <c r="A141" s="3" t="s">
         <v>1756</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1">
       <c r="A143" s="3" t="s">
         <v>1757</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1">
       <c r="A144" s="3" t="s">
         <v>1758</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1">
       <c r="A145" s="3" t="s">
         <v>1759</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1">
       <c r="A146" s="3" t="s">
         <v>1760</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1">
       <c r="A147" s="3" t="s">
         <v>1761</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1">
       <c r="A148" s="3" t="s">
         <v>1762</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1">
       <c r="A149" s="3" t="s">
         <v>1763</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1">
       <c r="A150" s="3" t="s">
         <v>1764</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1">
       <c r="A151" s="3" t="s">
         <v>1765</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1">
       <c r="A152" s="3" t="s">
         <v>1766</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1">
       <c r="A153" s="3" t="s">
         <v>1767</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1">
       <c r="A154" s="3" t="s">
         <v>1768</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1">
       <c r="A155" s="3" t="s">
         <v>1769</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1">
       <c r="A156" s="3" t="s">
         <v>1770</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1">
       <c r="A157" s="3" t="s">
         <v>1771</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1">
       <c r="A158" s="3" t="s">
         <v>1772</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1">
       <c r="A159" s="3" t="s">
         <v>1773</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1">
       <c r="A160" s="3" t="s">
         <v>1774</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1">
       <c r="A161" s="3" t="s">
         <v>1775</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1">
       <c r="A162" s="3" t="s">
         <v>1776</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1">
       <c r="A163" s="3" t="s">
         <v>1777</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1">
       <c r="A164" s="3" t="s">
         <v>1778</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1">
       <c r="A165" s="3" t="s">
         <v>1779</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1">
       <c r="A166" s="3" t="s">
         <v>1780</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1">
       <c r="A167" s="3" t="s">
         <v>1781</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1">
       <c r="A168" s="3" t="s">
         <v>1782</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1">
       <c r="A169" s="3" t="s">
         <v>1783</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1">
       <c r="A171" s="3" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1">
       <c r="A172" s="3" t="s">
         <v>1785</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1">
       <c r="A173" s="3" t="s">
         <v>1786</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1">
       <c r="A174" s="3" t="s">
         <v>1787</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1">
       <c r="A175" s="3" t="s">
         <v>1788</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1">
       <c r="A176" s="3" t="s">
         <v>1789</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1">
       <c r="A177" s="3" t="s">
         <v>1790</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1">
       <c r="A178" s="3" t="s">
         <v>1791</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1">
       <c r="A179" s="3" t="s">
         <v>1792</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1">
       <c r="A180" s="3" t="s">
         <v>1793</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1">
       <c r="A181" s="3" t="s">
         <v>1794</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1">
       <c r="A182" s="3" t="s">
         <v>1795</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1">
       <c r="A183" s="3" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1">
       <c r="A185" s="3" t="s">
         <v>1797</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1">
       <c r="A186" s="3" t="s">
         <v>1798</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1">
       <c r="A187" s="3" t="s">
         <v>1799</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1">
       <c r="A188" s="3" t="s">
         <v>1800</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1">
       <c r="A189" s="3" t="s">
         <v>1801</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1">
       <c r="A190" s="3" t="s">
         <v>1802</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1">
       <c r="A191" s="3" t="s">
         <v>1803</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1">
       <c r="A192" s="3" t="s">
         <v>1804</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1">
       <c r="A193" s="3" t="s">
         <v>1805</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1">
       <c r="A194" s="3" t="s">
         <v>1806</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1">
       <c r="A195" s="3" t="s">
         <v>1807</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1">
       <c r="A197" s="3" t="s">
         <v>1808</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1">
       <c r="A198" s="3" t="s">
         <v>1809</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1">
       <c r="A199" s="3" t="s">
         <v>1810</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1">
       <c r="A200" s="3" t="s">
         <v>1811</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1">
       <c r="A201" s="3" t="s">
         <v>1812</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1">
       <c r="A202" s="3" t="s">
         <v>1813</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1">
       <c r="A204" s="3" t="s">
         <v>1814</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1">
       <c r="A205" s="3" t="s">
         <v>1815</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1">
       <c r="A206" s="3" t="s">
         <v>1816</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1">
       <c r="A207" s="3" t="s">
         <v>1817</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1">
       <c r="A208" s="3" t="s">
         <v>1818</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1">
       <c r="A209" s="3" t="s">
         <v>1819</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1">
       <c r="A210" s="3" t="s">
         <v>1820</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1">
       <c r="A211" s="3" t="s">
         <v>1821</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1">
       <c r="A212" s="3" t="s">
         <v>1822</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1">
       <c r="A213" s="3" t="s">
         <v>1823</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1">
       <c r="A214" s="3" t="s">
         <v>1824</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1">
       <c r="A215" s="3" t="s">
         <v>1825</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1">
       <c r="A217" s="3" t="s">
         <v>1826</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1">
       <c r="A218" s="3" t="s">
         <v>1827</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1">
       <c r="A219" s="3" t="s">
         <v>1828</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1">
       <c r="A220" s="3" t="s">
         <v>1829</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1">
       <c r="A221" s="3" t="s">
         <v>1830</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1">
       <c r="A222" s="3" t="s">
         <v>1831</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1">
       <c r="A223" s="3" t="s">
         <v>1832</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1">
       <c r="A224" s="3" t="s">
         <v>1833</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1">
       <c r="A225" s="3" t="s">
         <v>1834</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1">
       <c r="A226" s="3" t="s">
         <v>1835</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1">
       <c r="A227" s="3" t="s">
         <v>1836</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1">
       <c r="A229" s="3" t="s">
         <v>1837</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1">
       <c r="A230" s="3" t="s">
         <v>1838</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1">
       <c r="A231" s="3" t="s">
         <v>1839</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1">
       <c r="A232" s="3" t="s">
         <v>1840</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1">
       <c r="A233" s="3" t="s">
         <v>1841</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1">
       <c r="A234" s="3" t="s">
         <v>1842</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1">
       <c r="A235" s="3" t="s">
         <v>1843</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1">
       <c r="A236" s="3" t="s">
         <v>1844</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1">
       <c r="A237" s="3" t="s">
         <v>1845</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1">
       <c r="A238" s="3" t="s">
         <v>1846</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1">
       <c r="A239" s="3" t="s">
         <v>1847</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1">
       <c r="A241" s="3" t="s">
         <v>1848</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1">
       <c r="A242" s="3" t="s">
         <v>1849</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1">
       <c r="A243" s="3" t="s">
         <v>1850</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1">
       <c r="A244" s="3" t="s">
         <v>1851</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1">
       <c r="A245" s="3" t="s">
         <v>1852</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:1">
       <c r="A246" s="3" t="s">
         <v>1853</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:1">
       <c r="A247" s="3" t="s">
         <v>1854</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:1">
       <c r="A248" s="3" t="s">
         <v>1855</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:1">
       <c r="A249" s="3" t="s">
         <v>1856</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:1">
       <c r="A250" s="3" t="s">
         <v>1857</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:1">
       <c r="A251" s="3" t="s">
         <v>1858</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:1">
       <c r="A252" s="3" t="s">
         <v>1859</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:1">
       <c r="A253" s="3" t="s">
         <v>1860</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:1">
       <c r="A254" s="3" t="s">
         <v>1861</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:1">
       <c r="A255" s="3" t="s">
         <v>1862</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:1">
       <c r="A256" s="3" t="s">
         <v>1863</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:1">
       <c r="A257" s="3" t="s">
         <v>1864</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:1">
       <c r="A258" s="3" t="s">
         <v>1865</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:1">
       <c r="A259" s="3" t="s">
         <v>1866</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:1">
       <c r="A261" s="3" t="s">
         <v>1867</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:1">
       <c r="A262" s="3" t="s">
         <v>1868</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:1">
       <c r="A263" s="3" t="s">
         <v>1869</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:1">
       <c r="A264" s="3" t="s">
         <v>1870</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:1">
       <c r="A265" s="3" t="s">
         <v>1871</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:1">
       <c r="A266" s="3" t="s">
         <v>1872</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:1">
       <c r="A267" s="3" t="s">
         <v>1873</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:1">
       <c r="A268" s="3" t="s">
         <v>1874</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:1">
       <c r="A269" s="3" t="s">
         <v>1875</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:1">
       <c r="A270" s="3" t="s">
         <v>1876</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:1">
       <c r="A271" s="3" t="s">
         <v>1877</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:1">
       <c r="A272" s="3" t="s">
         <v>1878</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:1">
       <c r="A273" s="3" t="s">
         <v>1879</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:1">
       <c r="A274" s="3" t="s">
         <v>1880</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:1">
       <c r="A275" s="3" t="s">
         <v>1881</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:1">
       <c r="A276" s="3" t="s">
         <v>1882</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:1">
       <c r="A277" s="3" t="s">
         <v>1883</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:1">
       <c r="A278" s="3" t="s">
         <v>1884</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:1">
       <c r="A279" s="3" t="s">
         <v>1885</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:1">
       <c r="A280" s="3" t="s">
         <v>1886</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:1">
       <c r="A281" s="3" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:1">
       <c r="A282" s="3" t="s">
         <v>1888</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:1">
       <c r="A283" s="3" t="s">
         <v>1889</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:1">
       <c r="A284" s="3" t="s">
         <v>1890</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:1">
       <c r="A285" s="3" t="s">
         <v>1891</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:1">
       <c r="A286" s="3" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:1">
       <c r="A288" s="3" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:1">
       <c r="A289" s="3" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:1">
       <c r="A290" s="3" t="s">
         <v>1895</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:1">
       <c r="A292" s="3" t="s">
         <v>1896</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:1">
       <c r="A293" s="3" t="s">
         <v>1897</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:1">
       <c r="A294" s="3" t="s">
         <v>1898</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:1">
       <c r="A295" s="3" t="s">
         <v>1899</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:1">
       <c r="A296" s="3" t="s">
         <v>1900</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:1">
       <c r="A297" s="3" t="s">
         <v>1901</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:1">
       <c r="A298" s="3" t="s">
         <v>1902</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:1">
       <c r="A299" s="3" t="s">
         <v>1903</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:1">
       <c r="A300" s="3" t="s">
         <v>1904</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:1">
       <c r="A302" s="3" t="s">
         <v>1905</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:1">
       <c r="A303" s="3" t="s">
         <v>1906</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:1">
       <c r="A304" s="3" t="s">
         <v>1907</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:1">
       <c r="A305" s="3" t="s">
         <v>1908</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:1">
       <c r="A306" s="3" t="s">
         <v>1909</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:1">
       <c r="A307" s="3" t="s">
         <v>1910</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:1">
       <c r="A308" s="3" t="s">
         <v>1911</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:1">
       <c r="A309" s="3" t="s">
         <v>1912</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:1">
       <c r="A310" s="3" t="s">
         <v>1913</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:1">
       <c r="A311" s="3" t="s">
         <v>1914</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:1">
       <c r="A312" s="3" t="s">
         <v>1915</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:1">
       <c r="A313" s="3" t="s">
         <v>1916</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:1">
       <c r="A314" s="3" t="s">
         <v>1917</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:1">
       <c r="A315" s="3" t="s">
         <v>1918</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:1">
       <c r="A316" s="3" t="s">
         <v>1919</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:1">
       <c r="A317" s="3" t="s">
         <v>1920</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:1">
       <c r="A318" s="3" t="s">
         <v>1921</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:1">
       <c r="A320" s="3" t="s">
         <v>1922</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:1">
       <c r="A321" s="3" t="s">
         <v>1923</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:1">
       <c r="A322" s="3" t="s">
         <v>1924</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:1">
       <c r="A323" s="3" t="s">
         <v>1925</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:1">
       <c r="A324" s="3" t="s">
         <v>1926</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:1">
       <c r="A325" s="3" t="s">
         <v>1927</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:1">
       <c r="A326" s="3" t="s">
         <v>1928</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:1">
       <c r="A327" s="3" t="s">
         <v>1929</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:1">
       <c r="A328" s="3" t="s">
         <v>1930</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:1">
       <c r="A332" s="3" t="s">
         <v>1931</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:1">
       <c r="A333" s="3" t="s">
         <v>1932</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:1">
       <c r="A334" s="3" t="s">
         <v>1933</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:1">
       <c r="A335" s="3" t="s">
         <v>1934</v>
       </c>
@@ -11248,12 +11272,12 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="26" t="s">
         <v>1942</v>
       </c>
@@ -11263,7 +11287,7 @@
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="26" t="s">
         <v>1944</v>
       </c>
@@ -11275,7 +11299,7 @@
       </c>
       <c r="F2" s="26"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="26" t="s">
         <v>1946</v>
       </c>
@@ -11285,7 +11309,7 @@
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="26"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -11293,7 +11317,7 @@
       <c r="E4" s="26"/>
       <c r="F4" s="26"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="26"/>
       <c r="B5" s="26" t="s">
         <v>1947</v>
@@ -11303,7 +11327,7 @@
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="26"/>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
@@ -11311,7 +11335,7 @@
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="26"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -11319,7 +11343,7 @@
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -11327,7 +11351,7 @@
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="26"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -11335,7 +11359,7 @@
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -11343,7 +11367,7 @@
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
@@ -11351,7 +11375,7 @@
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
@@ -11359,7 +11383,7 @@
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
@@ -11367,27 +11391,27 @@
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="25" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="27" t="s">
         <v>1951</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" s="25" t="s">
         <v>1949</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" s="25" t="s">
         <v>1948</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1">
       <c r="A23" s="27" t="s">
         <v>1950</v>
       </c>
@@ -11407,7 +11431,7 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15" style="7" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="6" customWidth="1"/>
@@ -11424,7 +11448,7 @@
     <col min="13" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="15" customFormat="1">
       <c r="A1" s="14" t="s">
         <v>1259</v>
       </c>
@@ -11443,7 +11467,7 @@
       <c r="J1" s="11"/>
       <c r="K1" s="14"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="7" t="s">
         <v>1285</v>
       </c>
@@ -11475,7 +11499,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="7" t="s">
         <v>1232</v>
       </c>
@@ -11510,7 +11534,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="7" t="s">
         <v>1234</v>
       </c>
@@ -11545,7 +11569,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="7" t="s">
         <v>1236</v>
       </c>
@@ -11577,7 +11601,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="C6" s="7" t="s">
         <v>1255</v>
       </c>
@@ -11591,7 +11615,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="7" t="s">
         <v>33</v>
       </c>
@@ -11623,7 +11647,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="7" t="s">
         <v>1326</v>
       </c>
@@ -11658,7 +11682,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="C9" s="7" t="s">
         <v>1545</v>
       </c>
@@ -11675,7 +11699,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="7" t="s">
         <v>1238</v>
       </c>
@@ -11698,7 +11722,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" s="7" t="s">
         <v>1333</v>
       </c>
@@ -11715,7 +11739,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" s="7" t="s">
         <v>1579</v>
       </c>
@@ -11738,7 +11762,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13" s="7" t="s">
         <v>1334</v>
       </c>
@@ -11765,7 +11789,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="C14" s="7" t="s">
         <v>1424</v>
       </c>
@@ -11788,7 +11812,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="A15" s="7" t="s">
         <v>1174</v>
       </c>
@@ -11808,7 +11832,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="C16" s="7" t="s">
         <v>1251</v>
       </c>
@@ -11828,7 +11852,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10">
       <c r="A17" s="7" t="s">
         <v>1354</v>
       </c>
@@ -11854,7 +11878,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10">
       <c r="G18" s="14" t="s">
         <v>1375</v>
       </c>
@@ -11866,7 +11890,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10">
       <c r="C19" s="7" t="s">
         <v>1316</v>
       </c>
@@ -11886,7 +11910,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="A20" s="7" t="s">
         <v>1586</v>
       </c>
@@ -11906,7 +11930,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="E21" s="7" t="s">
         <v>1038</v>
       </c>
@@ -11926,7 +11950,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="C22" s="7" t="s">
         <v>1293</v>
       </c>
@@ -11946,7 +11970,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10">
       <c r="C23" s="7" t="s">
         <v>1295</v>
       </c>
@@ -11954,7 +11978,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10">
       <c r="C24" s="7" t="s">
         <v>1318</v>
       </c>
@@ -11965,7 +11989,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10">
       <c r="A25" s="7" t="s">
         <v>1184</v>
       </c>
@@ -11979,7 +12003,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10">
       <c r="A26" s="7" t="s">
         <v>1577</v>
       </c>
@@ -11993,7 +12017,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10">
       <c r="A27" s="7" t="s">
         <v>1581</v>
       </c>
@@ -12013,7 +12037,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10">
       <c r="A28" s="7" t="s">
         <v>1587</v>
       </c>
@@ -12033,7 +12057,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10">
       <c r="A29" s="7" t="s">
         <v>1584</v>
       </c>
@@ -12053,7 +12077,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10">
       <c r="C30" s="7" t="s">
         <v>1345</v>
       </c>
@@ -12067,7 +12091,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10">
       <c r="A31" s="7" t="s">
         <v>1615</v>
       </c>
@@ -12087,7 +12111,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10">
       <c r="E32" s="7" t="s">
         <v>1563</v>
       </c>
@@ -12095,7 +12119,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:6">
       <c r="C33" s="7" t="s">
         <v>1340</v>
       </c>
@@ -12103,7 +12127,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:6">
       <c r="C34" s="7" t="s">
         <v>1342</v>
       </c>
@@ -12111,7 +12135,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:6">
       <c r="C35" s="7" t="s">
         <v>1344</v>
       </c>
@@ -12125,7 +12149,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:6">
       <c r="E36" s="7" t="s">
         <v>1575</v>
       </c>
@@ -12133,7 +12157,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:6">
       <c r="C37" s="7" t="s">
         <v>1552</v>
       </c>
@@ -12141,7 +12165,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:6">
       <c r="C38" s="7" t="s">
         <v>1552</v>
       </c>
@@ -12155,7 +12179,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:6">
       <c r="C39" s="7" t="s">
         <v>1555</v>
       </c>
@@ -12169,7 +12193,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:6">
       <c r="C40" s="7" t="s">
         <v>1557</v>
       </c>
@@ -12177,7 +12201,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:6">
       <c r="C41" s="7" t="s">
         <v>1564</v>
       </c>
@@ -12185,7 +12209,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:6">
       <c r="C42" s="7" t="s">
         <v>1565</v>
       </c>
@@ -12199,7 +12223,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:6">
       <c r="E43" s="7" t="s">
         <v>1569</v>
       </c>
@@ -12221,7 +12245,7 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15.5" style="18" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="6" customWidth="1"/>
@@ -12237,7 +12261,7 @@
     <col min="12" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="11" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>93</v>
       </c>
@@ -12258,7 +12282,7 @@
       <c r="J1" s="17"/>
       <c r="K1" s="13"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="18" t="s">
         <v>1048</v>
       </c>
@@ -12290,7 +12314,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="18" t="s">
         <v>1395</v>
       </c>
@@ -12322,7 +12346,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="G4" s="19" t="s">
         <v>1434</v>
       </c>
@@ -12336,7 +12360,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="18" t="s">
         <v>1440</v>
       </c>
@@ -12362,7 +12386,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="18" t="s">
         <v>1446</v>
       </c>
@@ -12388,7 +12412,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="7" t="s">
         <v>1445</v>
       </c>
@@ -12408,7 +12432,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="C8" s="19" t="s">
         <v>1454</v>
       </c>
@@ -12422,7 +12446,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="18" t="s">
         <v>1426</v>
       </c>
@@ -12436,7 +12460,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="18" t="s">
         <v>1427</v>
       </c>
@@ -12456,7 +12480,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="C11" s="19" t="s">
         <v>1388</v>
       </c>
@@ -12476,7 +12500,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" s="18" t="s">
         <v>1489</v>
       </c>
@@ -12502,7 +12526,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13" s="18" t="s">
         <v>1491</v>
       </c>
@@ -12528,7 +12552,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="C14" s="18" t="s">
         <v>1465</v>
       </c>
@@ -12548,7 +12572,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="A15" s="18">
         <v>1</v>
       </c>
@@ -12568,7 +12592,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="A16" s="19" t="s">
         <v>1431</v>
       </c>
@@ -12588,7 +12612,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="19">
         <v>2</v>
       </c>
@@ -12614,7 +12638,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="19">
         <v>3</v>
       </c>
@@ -12628,7 +12652,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="19">
         <v>4</v>
       </c>
@@ -12642,7 +12666,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="A20" s="19">
         <v>5</v>
       </c>
@@ -12662,7 +12686,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="A21" s="19" t="s">
         <v>1528</v>
       </c>
@@ -12676,7 +12700,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="C22" s="19" t="s">
         <v>1406</v>
       </c>
@@ -12684,7 +12708,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8">
       <c r="A23" s="18">
         <v>6</v>
       </c>
@@ -12698,7 +12722,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8">
       <c r="A24" s="18" t="s">
         <v>1535</v>
       </c>
@@ -12712,7 +12736,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="A26" s="19" t="s">
         <v>1521</v>
       </c>
@@ -12726,7 +12750,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="A27" s="19" t="s">
         <v>1522</v>
       </c>
@@ -12740,7 +12764,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8">
       <c r="A29" s="19" t="s">
         <v>1410</v>
       </c>
@@ -12754,7 +12778,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8">
       <c r="C30" s="18" t="s">
         <v>1508</v>
       </c>
@@ -12762,7 +12786,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8">
       <c r="A32" s="18" t="s">
         <v>1509</v>
       </c>
@@ -12776,7 +12800,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4">
       <c r="A33" s="18" t="s">
         <v>1540</v>
       </c>
@@ -12790,7 +12814,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4">
       <c r="A35" s="18" t="s">
         <v>2078</v>
       </c>
@@ -12798,7 +12822,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4">
       <c r="A36" s="18" t="s">
         <v>2083</v>
       </c>
@@ -12806,7 +12830,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4">
       <c r="A37" s="18" t="s">
         <v>2086</v>
       </c>
@@ -12814,7 +12838,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4">
       <c r="A38" s="18" t="s">
         <v>2079</v>
       </c>
@@ -12822,12 +12846,12 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4">
       <c r="B39" s="6" t="s">
         <v>1954</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4">
       <c r="A40" s="18" t="s">
         <v>2081</v>
       </c>
@@ -12850,7 +12874,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="3" customWidth="1"/>
@@ -12864,7 +12888,7 @@
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
         <v>954</v>
       </c>
@@ -12890,7 +12914,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="6" t="s">
         <v>964</v>
       </c>
@@ -12916,7 +12940,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="6" t="s">
         <v>954</v>
       </c>
@@ -12938,7 +12962,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>1617</v>
       </c>
@@ -12960,7 +12984,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6" t="s">
         <v>951</v>
       </c>
@@ -12982,7 +13006,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7" t="s">
@@ -13000,7 +13024,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6" t="s">
         <v>1616</v>
       </c>
@@ -13017,7 +13041,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6" t="s">
         <v>971</v>
       </c>
@@ -13038,7 +13062,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
@@ -13054,7 +13078,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6" t="s">
         <v>957</v>
       </c>
@@ -13076,7 +13100,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
@@ -13092,7 +13116,7 @@
       <c r="G11" s="7"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6" t="s">
         <v>953</v>
       </c>
@@ -13116,7 +13140,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6" t="s">
         <v>959</v>
       </c>
@@ -13130,7 +13154,7 @@
       <c r="G13" s="7"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6" t="s">
         <v>974</v>
       </c>
@@ -13148,7 +13172,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
         <v>961</v>
       </c>
@@ -13166,7 +13190,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="6" t="s">
         <v>962</v>
       </c>
@@ -13184,7 +13208,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="6" t="s">
         <v>967</v>
       </c>
@@ -13202,7 +13226,7 @@
       <c r="G17" s="7"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="6" t="s">
         <v>969</v>
       </c>
@@ -13216,7 +13240,7 @@
       <c r="G18" s="7"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
         <v>999</v>
       </c>
@@ -13224,7 +13248,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="A21" s="3" t="s">
         <v>1001</v>
       </c>
@@ -13232,7 +13256,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
         <v>1002</v>
       </c>
@@ -13240,7 +13264,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8">
       <c r="A24" s="3" t="s">
         <v>1014</v>
       </c>
@@ -13248,7 +13272,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="A27" s="4" t="s">
         <v>1016</v>
       </c>
@@ -13256,7 +13280,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8">
       <c r="A28" s="4" t="s">
         <v>1006</v>
       </c>
@@ -13264,7 +13288,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8">
       <c r="A29" s="4" t="s">
         <v>1010</v>
       </c>
@@ -13272,7 +13296,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8">
       <c r="A30" s="4" t="s">
         <v>1009</v>
       </c>
@@ -13280,7 +13304,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8">
       <c r="A31" s="4" t="s">
         <v>1008</v>
       </c>
@@ -13288,7 +13312,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
         <v>1607</v>
       </c>
@@ -13311,7 +13335,7 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="18" style="6" customWidth="1"/>
     <col min="2" max="2" width="15.25" style="6" customWidth="1"/>
@@ -13320,7 +13344,7 @@
     <col min="5" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
         <v>33</v>
       </c>
@@ -13346,7 +13370,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="C2" s="7" t="s">
         <v>1530</v>
       </c>
@@ -13354,7 +13378,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="C3" s="7" t="s">
         <v>1531</v>
       </c>
@@ -13365,17 +13389,17 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="C4" s="7" t="s">
         <v>1532</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="C5" s="7" t="s">
         <v>1533</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6" t="s">
         <v>1224</v>
       </c>
@@ -13395,7 +13419,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="C7" s="6" t="s">
         <v>2053</v>
       </c>
@@ -13409,7 +13433,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="C8" s="7" t="s">
         <v>2062</v>
       </c>
@@ -13429,7 +13453,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6" t="s">
         <v>1602</v>
       </c>
@@ -13443,7 +13467,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6" t="s">
         <v>1604</v>
       </c>
@@ -13451,7 +13475,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6" t="s">
         <v>1600</v>
       </c>
@@ -13471,7 +13495,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6" t="s">
         <v>2070</v>
       </c>
@@ -13491,10 +13515,10 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="19.75" style="6" customWidth="1"/>
@@ -13503,7 +13527,7 @@
     <col min="5" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
         <v>1993</v>
       </c>
@@ -13514,7 +13538,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="28" t="s">
         <v>1972</v>
       </c>
@@ -13528,7 +13552,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
         <v>1977</v>
       </c>
@@ -13542,7 +13566,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
         <v>1970</v>
       </c>
@@ -13556,7 +13580,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
         <v>1408</v>
       </c>
@@ -13570,7 +13594,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="6" t="s">
         <v>1975</v>
       </c>
@@ -13578,7 +13602,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="C7" s="6" t="s">
         <v>1989</v>
       </c>
@@ -13586,7 +13610,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="C8" s="6" t="s">
         <v>1991</v>
       </c>
@@ -13594,7 +13618,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" s="6" t="s">
         <v>2042</v>
       </c>
@@ -13602,7 +13626,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="C10" s="6" t="s">
         <v>2024</v>
       </c>
@@ -13610,7 +13634,13 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
+      <c r="A12" s="6" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>2176</v>
+      </c>
       <c r="C12" s="6" t="s">
         <v>1997</v>
       </c>
@@ -13618,7 +13648,13 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
+      <c r="A13" s="6" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>2178</v>
+      </c>
       <c r="C13" s="6" t="s">
         <v>1999</v>
       </c>
@@ -13626,7 +13662,15 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
+      <c r="A14" s="6" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="C15" s="6" t="s">
         <v>2004</v>
       </c>
@@ -13634,7 +13678,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="C16" s="6" t="s">
         <v>1995</v>
       </c>
@@ -13642,7 +13686,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:4">
       <c r="C17" s="6" t="s">
         <v>2006</v>
       </c>
@@ -13650,7 +13694,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:4">
       <c r="C18" s="6" t="s">
         <v>2008</v>
       </c>
@@ -13658,7 +13702,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:4">
       <c r="C19" s="6" t="s">
         <v>2011</v>
       </c>
@@ -13666,7 +13710,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:4">
       <c r="C20" s="6" t="s">
         <v>2012</v>
       </c>
@@ -13674,7 +13718,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:4">
       <c r="C22" s="6" t="s">
         <v>2016</v>
       </c>
@@ -13682,7 +13726,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:4">
       <c r="C23" s="6" t="s">
         <v>2014</v>
       </c>
@@ -13690,7 +13734,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:4">
       <c r="C25" s="6" t="s">
         <v>2001</v>
       </c>
@@ -13698,7 +13742,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:4">
       <c r="C26" s="6" t="s">
         <v>2026</v>
       </c>
@@ -13706,7 +13750,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:4">
       <c r="C27" s="6" t="s">
         <v>2002</v>
       </c>
@@ -13714,7 +13758,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:4">
       <c r="C29" s="6" t="s">
         <v>2019</v>
       </c>
@@ -13722,7 +13766,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:4">
       <c r="C30" s="6" t="s">
         <v>2020</v>
       </c>
@@ -13730,7 +13774,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:4">
       <c r="C31" s="6" t="s">
         <v>2021</v>
       </c>
@@ -13738,7 +13782,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:4">
       <c r="C32" s="6" t="s">
         <v>2022</v>
       </c>
@@ -13746,7 +13790,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:4">
       <c r="C33" s="6" t="s">
         <v>2029</v>
       </c>
@@ -13754,7 +13798,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:4">
       <c r="C34" s="6" t="s">
         <v>2030</v>
       </c>
@@ -13762,7 +13806,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:4">
       <c r="C37" s="6" t="s">
         <v>2098</v>
       </c>
@@ -13770,7 +13814,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:4">
       <c r="C38" s="6" t="s">
         <v>2097</v>
       </c>
@@ -13778,7 +13822,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:4">
       <c r="C40" s="6" t="s">
         <v>2040</v>
       </c>
@@ -13786,7 +13830,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:4">
       <c r="C41" s="6" t="s">
         <v>2039</v>
       </c>
@@ -13794,7 +13838,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:4">
       <c r="C43" s="6" t="s">
         <v>2034</v>
       </c>
@@ -13802,7 +13846,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:4">
       <c r="C44" s="6" t="s">
         <v>2035</v>
       </c>
@@ -13810,7 +13854,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:4">
       <c r="C45" s="6" t="s">
         <v>2044</v>
       </c>
@@ -13818,7 +13862,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:4">
       <c r="C47" s="6" t="s">
         <v>2088</v>
       </c>
@@ -13826,7 +13870,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:4">
       <c r="C49" s="6" t="s">
         <v>2095</v>
       </c>
@@ -13834,7 +13878,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:4">
       <c r="C50" s="6" t="s">
         <v>2092</v>
       </c>
@@ -13842,7 +13886,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="3:4">
       <c r="C52" s="6" t="s">
         <v>2173</v>
       </c>
@@ -13865,478 +13909,478 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="79.5" style="29" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="29" t="s">
         <v>2100</v>
       </c>
       <c r="B1" s="29"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="29" t="s">
         <v>2101</v>
       </c>
       <c r="B2" s="29"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="29" t="s">
         <v>2102</v>
       </c>
       <c r="B3" s="29"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="29" t="s">
         <v>2103</v>
       </c>
       <c r="B4" s="29"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="29" t="s">
         <v>2104</v>
       </c>
       <c r="B5" s="29"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="29" t="s">
         <v>2099</v>
       </c>
       <c r="B6" s="29"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="29" t="s">
         <v>2105</v>
       </c>
       <c r="B7" s="29"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="B8" s="29"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="B9" s="29"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="29" t="s">
         <v>2106</v>
       </c>
       <c r="B10" s="29"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="29" t="s">
         <v>2107</v>
       </c>
       <c r="B11" s="29"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="29" t="s">
         <v>2108</v>
       </c>
       <c r="B12" s="29"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" s="29" t="s">
         <v>2109</v>
       </c>
       <c r="B13" s="29"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" s="29" t="s">
         <v>2110</v>
       </c>
       <c r="B14" s="29"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" s="29" t="s">
         <v>2111</v>
       </c>
       <c r="B15" s="29"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" s="29" t="s">
         <v>2112</v>
       </c>
       <c r="B16" s="29"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" s="29" t="s">
         <v>2113</v>
       </c>
       <c r="B17" s="29"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18" s="29" t="s">
         <v>2114</v>
       </c>
       <c r="B18" s="29"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19" s="29" t="s">
         <v>2115</v>
       </c>
       <c r="B19" s="29"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20" s="29" t="s">
         <v>2116</v>
       </c>
       <c r="B20" s="29"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21" s="29" t="s">
         <v>2117</v>
       </c>
       <c r="B21" s="29"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="A22" s="29" t="s">
         <v>2118</v>
       </c>
       <c r="B22" s="29"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23" s="29" t="s">
         <v>2119</v>
       </c>
       <c r="B23" s="29"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2">
       <c r="A24" s="29" t="s">
         <v>2120</v>
       </c>
       <c r="B24" s="29"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2">
       <c r="A25" s="29" t="s">
         <v>2121</v>
       </c>
       <c r="B25" s="29"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2">
       <c r="A26" s="29" t="s">
         <v>2122</v>
       </c>
       <c r="B26" s="29"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2">
       <c r="A27" s="29" t="s">
         <v>2123</v>
       </c>
       <c r="B27" s="29"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2">
       <c r="A28" s="29" t="s">
         <v>2124</v>
       </c>
       <c r="B28" s="29"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2">
       <c r="A29" s="29" t="s">
         <v>2125</v>
       </c>
       <c r="B29" s="29"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2">
       <c r="A30" s="29" t="s">
         <v>2126</v>
       </c>
       <c r="B30" s="29"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2">
       <c r="A31" s="29" t="s">
         <v>2127</v>
       </c>
       <c r="B31" s="29"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2">
       <c r="A32" s="29" t="s">
         <v>2128</v>
       </c>
       <c r="B32" s="29"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33" s="29" t="s">
         <v>2129</v>
       </c>
       <c r="B33" s="29"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2">
       <c r="A34" s="29" t="s">
         <v>2130</v>
       </c>
       <c r="B34" s="29"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="A35" s="29" t="s">
         <v>2131</v>
       </c>
       <c r="B35" s="29"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2">
       <c r="A36" s="29" t="s">
         <v>2132</v>
       </c>
       <c r="B36" s="29"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2">
       <c r="A37" s="29" t="s">
         <v>2133</v>
       </c>
       <c r="B37" s="29"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2">
       <c r="A38" s="29" t="s">
         <v>2134</v>
       </c>
       <c r="B38" s="29"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2">
       <c r="A39" s="29" t="s">
         <v>2135</v>
       </c>
       <c r="B39" s="29"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2">
       <c r="A40" s="29" t="s">
         <v>2136</v>
       </c>
       <c r="B40" s="29"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2">
       <c r="A41" s="29" t="s">
         <v>2137</v>
       </c>
       <c r="B41" s="29"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2">
       <c r="A42" s="29" t="s">
         <v>2138</v>
       </c>
       <c r="B42" s="29"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2">
       <c r="A43" s="29" t="s">
         <v>2139</v>
       </c>
       <c r="B43" s="29"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2">
       <c r="A44" s="29" t="s">
         <v>2140</v>
       </c>
       <c r="B44" s="29"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2">
       <c r="A45" s="29" t="s">
         <v>2141</v>
       </c>
       <c r="B45" s="29"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2">
       <c r="A46" s="29" t="s">
         <v>2142</v>
       </c>
       <c r="B46" s="29"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2">
       <c r="A47" s="29" t="s">
         <v>2143</v>
       </c>
       <c r="B47" s="29"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2">
       <c r="A48" s="29" t="s">
         <v>2144</v>
       </c>
       <c r="B48" s="29"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2">
       <c r="A49" s="29" t="s">
         <v>2145</v>
       </c>
       <c r="B49" s="29"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2">
       <c r="A50" s="29" t="s">
         <v>2146</v>
       </c>
       <c r="B50" s="29"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2">
       <c r="A51" s="29" t="s">
         <v>2147</v>
       </c>
       <c r="B51" s="29"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2">
       <c r="B52" s="29"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2">
       <c r="A53" s="29" t="s">
         <v>2148</v>
       </c>
       <c r="B53" s="29"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2">
       <c r="A54" s="29" t="s">
         <v>2149</v>
       </c>
       <c r="B54" s="29"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2">
       <c r="A55" s="29" t="s">
         <v>2150</v>
       </c>
       <c r="B55" s="29"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2">
       <c r="A56" s="29" t="s">
         <v>2151</v>
       </c>
       <c r="B56" s="29"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2">
       <c r="A57" s="29" t="s">
         <v>2152</v>
       </c>
       <c r="B57" s="29"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2">
       <c r="A58" s="29" t="s">
         <v>2153</v>
       </c>
       <c r="B58" s="29"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2">
       <c r="A59" s="29" t="s">
         <v>2154</v>
       </c>
       <c r="B59" s="29"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2">
       <c r="A60" s="29" t="s">
         <v>2155</v>
       </c>
       <c r="B60" s="29"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2">
       <c r="A61" s="29" t="s">
         <v>2156</v>
       </c>
       <c r="B61" s="29"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2">
       <c r="A62" s="29" t="s">
         <v>2157</v>
       </c>
       <c r="B62" s="29"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2">
       <c r="A63" s="29" t="s">
         <v>2158</v>
       </c>
       <c r="B63" s="29"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2">
       <c r="A64" s="29" t="s">
         <v>2159</v>
       </c>
       <c r="B64" s="29"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2">
       <c r="A65" s="29" t="s">
         <v>2160</v>
       </c>
       <c r="B65" s="29"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2">
       <c r="A66" s="29" t="s">
         <v>2161</v>
       </c>
       <c r="B66" s="29"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2">
       <c r="A67" s="29" t="s">
         <v>2162</v>
       </c>
       <c r="B67" s="29"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2">
       <c r="A68" s="29" t="s">
         <v>2163</v>
       </c>
       <c r="B68" s="29"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2">
       <c r="A69" s="29" t="s">
         <v>2164</v>
       </c>
       <c r="B69" s="29"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2">
       <c r="A70" s="29" t="s">
         <v>2165</v>
       </c>
       <c r="B70" s="29"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2">
       <c r="A71" s="29" t="s">
         <v>2166</v>
       </c>
       <c r="B71" s="29"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2">
       <c r="A72" s="29" t="s">
         <v>2167</v>
       </c>
       <c r="B72" s="29"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:2">
       <c r="A73" s="29" t="s">
         <v>2109</v>
       </c>
       <c r="B73" s="29"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:2">
       <c r="A74" s="29" t="s">
         <v>2168</v>
       </c>
       <c r="B74" s="29"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:2">
       <c r="A75" s="29" t="s">
         <v>2169</v>
       </c>
       <c r="B75" s="29"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:2">
       <c r="A76" s="29" t="s">
         <v>2170</v>
       </c>
       <c r="B76" s="29"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:2">
       <c r="A77" s="29" t="s">
         <v>2135</v>
       </c>
       <c r="B77" s="29"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:2">
       <c r="A78" s="29" t="s">
         <v>2145</v>
       </c>
       <c r="B78" s="29"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:2">
       <c r="A79" s="29" t="s">
         <v>2171</v>
       </c>
       <c r="B79" s="29"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:2">
       <c r="A80" s="29" t="s">
         <v>2172</v>
       </c>
@@ -14360,7 +14404,7 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="18.875" style="22" customWidth="1"/>
     <col min="2" max="2" width="13.125" style="22" bestFit="1" customWidth="1"/>
@@ -14381,7 +14425,7 @@
     <col min="17" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14">
       <c r="A1" s="21" t="s">
         <v>271</v>
       </c>
@@ -14413,7 +14457,7 @@
       </c>
       <c r="N1" s="21"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14">
       <c r="A2" s="23" t="s">
         <v>292</v>
       </c>
@@ -14449,7 +14493,7 @@
       </c>
       <c r="N2" s="23"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14">
       <c r="A3" s="23" t="s">
         <v>293</v>
       </c>
@@ -14483,7 +14527,7 @@
       </c>
       <c r="N3" s="23"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14">
       <c r="A4" s="23" t="s">
         <v>294</v>
       </c>
@@ -14519,7 +14563,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14">
       <c r="A5" s="23" t="s">
         <v>295</v>
       </c>
@@ -14555,7 +14599,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14">
       <c r="A6" s="23" t="s">
         <v>296</v>
       </c>
@@ -14591,7 +14635,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14">
       <c r="A7" s="23" t="s">
         <v>297</v>
       </c>
@@ -14629,7 +14673,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14">
       <c r="A8" s="23" t="s">
         <v>298</v>
       </c>
@@ -14665,7 +14709,7 @@
       </c>
       <c r="N8" s="23"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14">
       <c r="A9" s="23" t="s">
         <v>299</v>
       </c>
@@ -14697,7 +14741,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14">
       <c r="A10" s="23" t="s">
         <v>300</v>
       </c>
@@ -14729,7 +14773,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14">
       <c r="A11" s="23" t="s">
         <v>306</v>
       </c>
@@ -14765,7 +14809,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14">
       <c r="A12" s="23"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23" t="s">
@@ -14795,7 +14839,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14">
       <c r="A13" s="23"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23" t="s">
@@ -14829,7 +14873,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14">
       <c r="A14" s="23"/>
       <c r="B14" s="23"/>
       <c r="C14" s="23" t="s">
@@ -14859,7 +14903,7 @@
       </c>
       <c r="N14" s="23"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14">
       <c r="A15" s="21" t="s">
         <v>289</v>
       </c>
@@ -14887,7 +14931,7 @@
       </c>
       <c r="N15" s="23"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14">
       <c r="A16" s="23" t="s">
         <v>502</v>
       </c>
@@ -14919,7 +14963,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14">
       <c r="A17" s="23" t="s">
         <v>512</v>
       </c>
@@ -14955,7 +14999,7 @@
       </c>
       <c r="N17" s="23"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14">
       <c r="A18" s="23" t="s">
         <v>503</v>
       </c>
@@ -14989,7 +15033,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14">
       <c r="A19" s="23" t="s">
         <v>504</v>
       </c>
@@ -15021,7 +15065,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14">
       <c r="A20" s="23" t="s">
         <v>505</v>
       </c>
@@ -15059,7 +15103,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14">
       <c r="A21" s="23" t="s">
         <v>506</v>
       </c>
@@ -15097,7 +15141,7 @@
       </c>
       <c r="N21" s="23"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14">
       <c r="A22" s="23" t="s">
         <v>507</v>
       </c>
@@ -15137,7 +15181,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14">
       <c r="A23" s="23" t="s">
         <v>508</v>
       </c>
@@ -15173,7 +15217,7 @@
       </c>
       <c r="N23" s="23"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14">
       <c r="A24" s="23" t="s">
         <v>509</v>
       </c>
@@ -15207,7 +15251,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14">
       <c r="A25" s="23" t="s">
         <v>510</v>
       </c>
@@ -15237,7 +15281,7 @@
       </c>
       <c r="N25" s="23"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14">
       <c r="A26" s="23"/>
       <c r="B26" s="23"/>
       <c r="C26" s="23" t="s">
@@ -15271,7 +15315,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14">
       <c r="A27" s="23"/>
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
@@ -15303,7 +15347,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14">
       <c r="A28" s="23"/>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
@@ -15327,7 +15371,7 @@
       <c r="M28" s="23"/>
       <c r="N28" s="23"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14">
       <c r="A29" s="21" t="s">
         <v>285</v>
       </c>
@@ -15355,7 +15399,7 @@
       <c r="M29" s="23"/>
       <c r="N29" s="23"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14">
       <c r="A30" s="23" t="s">
         <v>623</v>
       </c>
@@ -15389,7 +15433,7 @@
       <c r="M30" s="23"/>
       <c r="N30" s="23"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14">
       <c r="A31" s="23" t="s">
         <v>624</v>
       </c>
@@ -15423,7 +15467,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14">
       <c r="A32" s="23" t="s">
         <v>625</v>
       </c>
@@ -15455,7 +15499,7 @@
       </c>
       <c r="N32" s="23"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14">
       <c r="A33" s="23" t="s">
         <v>627</v>
       </c>
@@ -15489,7 +15533,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14">
       <c r="A34" s="23" t="s">
         <v>628</v>
       </c>
@@ -15523,7 +15567,7 @@
       </c>
       <c r="N34" s="23"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14">
       <c r="A35" s="23" t="s">
         <v>629</v>
       </c>
@@ -15563,7 +15607,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14">
       <c r="A36" s="23" t="s">
         <v>630</v>
       </c>
@@ -15599,7 +15643,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14">
       <c r="A37" s="23" t="s">
         <v>631</v>
       </c>
@@ -15631,7 +15675,7 @@
       </c>
       <c r="N37" s="23"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14">
       <c r="A38" s="23" t="s">
         <v>643</v>
       </c>
@@ -15659,7 +15703,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14">
       <c r="A39" s="23" t="s">
         <v>632</v>
       </c>
@@ -15685,7 +15729,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14">
       <c r="A40" s="23" t="s">
         <v>633</v>
       </c>
@@ -15709,7 +15753,7 @@
       </c>
       <c r="N40" s="23"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14">
       <c r="A41" s="23" t="s">
         <v>634</v>
       </c>
@@ -15737,7 +15781,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14">
       <c r="A42" s="23" t="s">
         <v>635</v>
       </c>
@@ -15763,7 +15807,7 @@
       </c>
       <c r="N42" s="23"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14">
       <c r="A43" s="23" t="s">
         <v>636</v>
       </c>
@@ -15791,7 +15835,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14">
       <c r="A44" s="23" t="s">
         <v>637</v>
       </c>
@@ -15817,7 +15861,7 @@
       </c>
       <c r="N44" s="23"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14">
       <c r="A45" s="23" t="s">
         <v>638</v>
       </c>
@@ -15839,7 +15883,7 @@
       </c>
       <c r="N45" s="23"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14">
       <c r="A46" s="23" t="s">
         <v>639</v>
       </c>
@@ -15865,7 +15909,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14">
       <c r="A47" s="23"/>
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
@@ -15885,7 +15929,7 @@
       </c>
       <c r="N47" s="23"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14">
       <c r="A48" s="23"/>
       <c r="B48" s="23"/>
       <c r="C48" s="23"/>
@@ -15907,7 +15951,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14">
       <c r="A49" s="23"/>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -15940,7 +15984,7 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.625" style="6" customWidth="1"/>
     <col min="2" max="2" width="10.375" style="6" customWidth="1"/>
@@ -15954,7 +15998,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -15992,7 +16036,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -16030,7 +16074,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -16068,7 +16112,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -16106,7 +16150,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -16144,7 +16188,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -16176,7 +16220,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
@@ -16208,7 +16252,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
@@ -16240,7 +16284,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
@@ -16272,7 +16316,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
@@ -16304,7 +16348,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
@@ -16336,7 +16380,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
@@ -16368,7 +16412,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
@@ -16400,7 +16444,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="A14" s="6" t="s">
         <v>25</v>
       </c>
@@ -16432,7 +16476,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="A15" s="6" t="s">
         <v>27</v>
       </c>
@@ -16464,7 +16508,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="A16" s="6" t="s">
         <v>28</v>
       </c>
@@ -16496,7 +16540,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10">
       <c r="A17" s="6" t="s">
         <v>31</v>
       </c>
@@ -16528,7 +16572,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10">
       <c r="A18" s="6" t="s">
         <v>96</v>
       </c>
@@ -16560,7 +16604,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10">
       <c r="A19" s="6" t="s">
         <v>97</v>
       </c>
@@ -16592,7 +16636,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="A20" s="6" t="s">
         <v>99</v>
       </c>
@@ -16624,7 +16668,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="A21" s="6" t="s">
         <v>102</v>
       </c>
@@ -16656,7 +16700,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="A22" s="6" t="s">
         <v>104</v>
       </c>
@@ -16688,7 +16732,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10">
       <c r="A23" s="6" t="s">
         <v>106</v>
       </c>
@@ -16720,7 +16764,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10">
       <c r="A24" s="6" t="s">
         <v>107</v>
       </c>
@@ -16752,7 +16796,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10">
       <c r="A25" s="6" t="s">
         <v>109</v>
       </c>
@@ -16784,7 +16828,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10">
       <c r="A26" s="6" t="s">
         <v>111</v>
       </c>
@@ -16816,7 +16860,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10">
       <c r="A27" s="6" t="s">
         <v>113</v>
       </c>
@@ -16848,7 +16892,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10">
       <c r="A28" s="6" t="s">
         <v>115</v>
       </c>
@@ -16880,7 +16924,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10">
       <c r="A29" s="6" t="s">
         <v>116</v>
       </c>
@@ -16912,7 +16956,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10">
       <c r="A30" s="6" t="s">
         <v>119</v>
       </c>
@@ -16944,7 +16988,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10">
       <c r="A31" s="6" t="s">
         <v>120</v>
       </c>
@@ -16976,7 +17020,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10">
       <c r="A32" s="6" t="s">
         <v>123</v>
       </c>
@@ -17008,7 +17052,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10">
       <c r="A33" s="6" t="s">
         <v>124</v>
       </c>
@@ -17040,7 +17084,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10">
       <c r="A34" s="6" t="s">
         <v>127</v>
       </c>
@@ -17072,7 +17116,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10">
       <c r="A35" s="6" t="s">
         <v>129</v>
       </c>
@@ -17104,7 +17148,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10">
       <c r="A36" s="6" t="s">
         <v>131</v>
       </c>
@@ -17136,7 +17180,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10">
       <c r="A37" s="6" t="s">
         <v>133</v>
       </c>
@@ -17168,7 +17212,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10">
       <c r="A38" s="6" t="s">
         <v>135</v>
       </c>
@@ -17200,7 +17244,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10">
       <c r="A39" s="6" t="s">
         <v>137</v>
       </c>
@@ -17232,7 +17276,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10">
       <c r="A40" s="6" t="s">
         <v>139</v>
       </c>
@@ -17264,7 +17308,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10">
       <c r="A41" s="6" t="s">
         <v>140</v>
       </c>
@@ -17296,7 +17340,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10">
       <c r="A42" s="6" t="s">
         <v>142</v>
       </c>
@@ -17328,7 +17372,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10">
       <c r="A43" s="6" t="s">
         <v>145</v>
       </c>
@@ -17360,7 +17404,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10">
       <c r="A44" s="6" t="s">
         <v>147</v>
       </c>
@@ -17392,7 +17436,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10">
       <c r="A45" s="6" t="s">
         <v>149</v>
       </c>
@@ -17424,7 +17468,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10">
       <c r="A46" s="6" t="s">
         <v>151</v>
       </c>
@@ -17456,7 +17500,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10">
       <c r="A47" s="6" t="s">
         <v>153</v>
       </c>
@@ -17488,7 +17532,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10">
       <c r="A48" s="6" t="s">
         <v>157</v>
       </c>
@@ -17520,7 +17564,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10">
       <c r="A49" s="6" t="s">
         <v>159</v>
       </c>
@@ -17552,7 +17596,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10">
       <c r="A50" s="6" t="s">
         <v>161</v>
       </c>
@@ -17584,7 +17628,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10">
       <c r="A51" s="6" t="s">
         <v>163</v>
       </c>
@@ -17616,7 +17660,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10">
       <c r="A52" s="6" t="s">
         <v>165</v>
       </c>
@@ -17648,7 +17692,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10">
       <c r="A53" s="6" t="s">
         <v>167</v>
       </c>
@@ -17680,7 +17724,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10">
       <c r="A54" s="6" t="s">
         <v>169</v>
       </c>
@@ -17712,7 +17756,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10">
       <c r="A55" s="6" t="s">
         <v>171</v>
       </c>
@@ -17744,7 +17788,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10">
       <c r="A56" s="6" t="s">
         <v>173</v>
       </c>
@@ -17776,7 +17820,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10">
       <c r="A57" s="6" t="s">
         <v>176</v>
       </c>
@@ -17808,7 +17852,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10">
       <c r="A58" s="6" t="s">
         <v>178</v>
       </c>
@@ -17840,7 +17884,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10">
       <c r="A59" s="6" t="s">
         <v>180</v>
       </c>

--- a/MachineSettings/keys.xlsx
+++ b/MachineSettings/keys.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="2181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="2191">
   <si>
     <t>exposure</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -7729,10 +7729,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> ctrl \</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ctrl k w</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -8372,6 +8368,50 @@
   </si>
   <si>
     <t>显示提示完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt \</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt &lt;-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt -&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl alt \</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消所有组-合并</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt [</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt [</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳入左组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳入右组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>左移标签</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>右移标签</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -9288,10 +9328,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="6" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>2084</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>2085</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>35</v>
@@ -12816,31 +12856,31 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="18" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="18" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="18" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="18" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>1597</v>
@@ -12853,10 +12893,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="18" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
   </sheetData>
@@ -12995,13 +13035,13 @@
         <v>981</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>1017</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="6"/>
@@ -13013,13 +13053,13 @@
         <v>982</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>1018</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="6"/>
@@ -13162,7 +13202,7 @@
         <v>975</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>1612</v>
@@ -13180,10 +13220,10 @@
         <v>976</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="6"/>
@@ -13198,10 +13238,10 @@
         <v>963</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="6"/>
@@ -13216,10 +13256,10 @@
         <v>968</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>2075</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>2076</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="6"/>
@@ -13355,19 +13395,19 @@
         <v>1223</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>2058</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>2059</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>2061</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>2060</v>
-      </c>
       <c r="G1" s="6" t="s">
+        <v>2071</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>2072</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>2073</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -13375,7 +13415,7 @@
         <v>1530</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -13383,10 +13423,10 @@
         <v>1531</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -13407,27 +13447,27 @@
         <v>1225</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>2065</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>2066</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>2067</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="C7" s="6" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>1221</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>1222</v>
@@ -13435,19 +13475,19 @@
     </row>
     <row r="8" spans="1:8">
       <c r="C8" s="7" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>1217</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>1218</v>
@@ -13461,7 +13501,7 @@
         <v>1603</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>1220</v>
@@ -13497,10 +13537,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="6" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>2070</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>2071</v>
       </c>
     </row>
   </sheetData>
@@ -13512,10 +13552,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13523,8 +13563,9 @@
     <col min="1" max="1" width="12.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="19.75" style="6" customWidth="1"/>
     <col min="3" max="3" width="17.375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="6"/>
+    <col min="4" max="4" width="21" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.25" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -13560,10 +13601,10 @@
         <v>1978</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>2017</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2018</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -13620,15 +13661,15 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="6" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>2042</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>2043</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="C10" s="6" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>1994</v>
@@ -13636,10 +13677,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="6" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>2175</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>2176</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>1997</v>
@@ -13650,10 +13691,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="6" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>2177</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>2178</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>1999</v>
@@ -13664,18 +13705,18 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="6" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>2179</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>2180</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="C15" s="6" t="s">
+        <v>2003</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>2004</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>2005</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -13686,132 +13727,156 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="17" spans="3:4">
+    <row r="17" spans="1:4">
       <c r="C17" s="6" t="s">
+        <v>2005</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>2006</v>
       </c>
-      <c r="D17" s="6" t="s">
+    </row>
+    <row r="18" spans="1:4">
+      <c r="C18" s="6" t="s">
         <v>2007</v>
       </c>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>2008</v>
       </c>
-      <c r="D18" s="6" t="s">
+    </row>
+    <row r="19" spans="1:4">
+      <c r="C19" s="6" t="s">
+        <v>2010</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>2009</v>
       </c>
     </row>
-    <row r="19" spans="3:4">
-      <c r="C19" s="6" t="s">
+    <row r="20" spans="1:4">
+      <c r="C20" s="6" t="s">
         <v>2011</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="6" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="C22" s="6" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>2012</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>2038</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="6" t="s">
-        <v>2016</v>
-      </c>
-      <c r="D22" s="6" t="s">
+    </row>
+    <row r="23" spans="1:4">
+      <c r="C23" s="6" t="s">
         <v>2013</v>
       </c>
-    </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>2014</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4">
-      <c r="C25" s="6" t="s">
+    </row>
+    <row r="26" spans="1:4">
+      <c r="C26" s="6" t="s">
+        <v>2180</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="C27" s="6" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>2181</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="6" t="s">
         <v>2001</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4">
-      <c r="C26" s="6" t="s">
-        <v>2026</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4">
-      <c r="C27" s="6" t="s">
+      <c r="B29" s="6" t="s">
         <v>2002</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4">
       <c r="C29" s="6" t="s">
-        <v>2019</v>
+        <v>2182</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>2027</v>
       </c>
     </row>
-    <row r="30" spans="3:4">
+    <row r="30" spans="1:4">
       <c r="C30" s="6" t="s">
-        <v>2020</v>
+        <v>2185</v>
       </c>
       <c r="D30" s="6" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="6" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>2028</v>
       </c>
-    </row>
-    <row r="31" spans="3:4">
       <c r="C31" s="6" t="s">
-        <v>2021</v>
+        <v>2186</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="6" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>2029</v>
+      </c>
       <c r="C32" s="6" t="s">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>1987</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="33" spans="3:4">
       <c r="C33" s="6" t="s">
-        <v>2029</v>
+        <v>2019</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>2031</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="34" spans="3:4">
       <c r="C34" s="6" t="s">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4">
-      <c r="C37" s="6" t="s">
-        <v>2098</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>2090</v>
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35" s="6" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>1987</v>
       </c>
     </row>
     <row r="38" spans="3:4">
@@ -13819,15 +13884,15 @@
         <v>2097</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>2074</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4">
-      <c r="C40" s="6" t="s">
-        <v>2040</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>2041</v>
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="C39" s="6" t="s">
+        <v>2096</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>2073</v>
       </c>
     </row>
     <row r="41" spans="3:4">
@@ -13835,63 +13900,71 @@
         <v>2039</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>2033</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4">
-      <c r="C43" s="6" t="s">
-        <v>2034</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>2036</v>
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="C42" s="6" t="s">
+        <v>2038</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>2032</v>
       </c>
     </row>
     <row r="44" spans="3:4">
       <c r="C44" s="6" t="s">
+        <v>2033</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>2035</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>2037</v>
       </c>
     </row>
     <row r="45" spans="3:4">
       <c r="C45" s="6" t="s">
-        <v>2044</v>
+        <v>2034</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>2096</v>
-      </c>
-    </row>
-    <row r="47" spans="3:4">
-      <c r="C47" s="6" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4">
+      <c r="C46" s="6" t="s">
+        <v>2043</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4">
+      <c r="C48" s="6" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>2088</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>2089</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4">
-      <c r="C49" s="6" t="s">
-        <v>2095</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>2093</v>
       </c>
     </row>
     <row r="50" spans="3:4">
       <c r="C50" s="6" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>2092</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>2094</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4">
-      <c r="C52" s="6" t="s">
+    </row>
+    <row r="51" spans="3:4">
+      <c r="C51" s="6" t="s">
+        <v>2091</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4">
+      <c r="C53" s="6" t="s">
+        <v>2172</v>
+      </c>
+      <c r="D53" s="6" t="s">
         <v>2173</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>2174</v>
       </c>
     </row>
   </sheetData>
@@ -13917,43 +13990,43 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="29" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="B1" s="29"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="29" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B2" s="29"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="29" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B3" s="29"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="29" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B4" s="29"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="29" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B5" s="29"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="29" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B6" s="29"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="29" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B7" s="29"/>
     </row>
@@ -13965,253 +14038,253 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="29" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="B10" s="29"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="29" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="B11" s="29"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="29" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="B12" s="29"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="29" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B13" s="29"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="29" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B14" s="29"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="29" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="B15" s="29"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="29" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B16" s="29"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="29" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="B17" s="29"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="29" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B18" s="29"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="29" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="B19" s="29"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="29" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B20" s="29"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="29" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="B21" s="29"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="29" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="B22" s="29"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="29" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="B23" s="29"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="29" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="B24" s="29"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="29" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="B25" s="29"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="29" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B26" s="29"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="29" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="B27" s="29"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="29" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="B28" s="29"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="29" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="B29" s="29"/>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="29" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="B30" s="29"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="29" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="B31" s="29"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="29" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="B32" s="29"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="29" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="B33" s="29"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="29" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="B34" s="29"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="29" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="B35" s="29"/>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="29" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="B36" s="29"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="29" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="B37" s="29"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="29" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="B38" s="29"/>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="29" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="B39" s="29"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="29" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="B40" s="29"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="29" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="B41" s="29"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="29" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="B42" s="29"/>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="29" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="B43" s="29"/>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="29" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="B44" s="29"/>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="29" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="B45" s="29"/>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="29" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="B46" s="29"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="29" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="B47" s="29"/>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="29" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="B48" s="29"/>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="29" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="B49" s="29"/>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="29" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="B50" s="29"/>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="29" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="B51" s="29"/>
     </row>
@@ -14220,169 +14293,169 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="29" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="B53" s="29"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="29" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="B54" s="29"/>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="29" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="B55" s="29"/>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="29" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="B56" s="29"/>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="29" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="B57" s="29"/>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="29" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="B58" s="29"/>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="29" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="B59" s="29"/>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="29" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="B60" s="29"/>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="29" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="B61" s="29"/>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="29" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="B62" s="29"/>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="29" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="B63" s="29"/>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="29" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="B64" s="29"/>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="29" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="B65" s="29"/>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="29" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="B66" s="29"/>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="29" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="B67" s="29"/>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="29" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="B68" s="29"/>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="29" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="B69" s="29"/>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="29" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="B70" s="29"/>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="29" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B71" s="29"/>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="29" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="B72" s="29"/>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="29" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B73" s="29"/>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="29" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="B74" s="29"/>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="29" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="B75" s="29"/>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="29" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="B76" s="29"/>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="29" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="B77" s="29"/>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="29" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="B78" s="29"/>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="29" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="B79" s="29"/>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="29" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="B80" s="29"/>
     </row>

--- a/MachineSettings/keys.xlsx
+++ b/MachineSettings/keys.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="2191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="2208">
   <si>
     <t>exposure</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -7641,14 +7641,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>alt shift &gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt shift ;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>选所有同词</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -7877,10 +7869,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>alt shift  j</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>alt shift  k</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -8113,10 +8101,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>alt shift l</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>一旦选定cell，可以批量删除/拷贝/剪切/粘贴/运行。当你需要移动notebook的一部分时这个很有用。</t>
   </si>
   <si>
@@ -8412,6 +8396,90 @@
   </si>
   <si>
     <t>右移标签</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt j</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt shift ctrl j</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt 2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pycharm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt 2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt 0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt 9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ipython运行窗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>document</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sciView</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>esc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>退回编辑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt -</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>折叠/展开选中块</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl +/-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>折叠/展开</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift ctrl +/-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部 折叠/展开</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -9328,10 +9396,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="6" t="s">
-        <v>2083</v>
+        <v>2080</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>35</v>
@@ -12856,31 +12924,31 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="18" t="s">
-        <v>2077</v>
+        <v>2074</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="18" t="s">
-        <v>2082</v>
+        <v>2079</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>2076</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="18" t="s">
-        <v>2085</v>
+        <v>2082</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="18" t="s">
-        <v>2078</v>
+        <v>2075</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>1597</v>
@@ -12893,10 +12961,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="18" t="s">
-        <v>2080</v>
+        <v>2077</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>2079</v>
+        <v>2076</v>
       </c>
     </row>
   </sheetData>
@@ -13035,13 +13103,13 @@
         <v>981</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>1017</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>2090</v>
+        <v>2087</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="6"/>
@@ -13053,13 +13121,13 @@
         <v>982</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>2045</v>
+        <v>2042</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>1018</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>2046</v>
+        <v>2043</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="6"/>
@@ -13202,7 +13270,7 @@
         <v>975</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>2047</v>
+        <v>2044</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>1612</v>
@@ -13220,10 +13288,10 @@
         <v>976</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>2048</v>
+        <v>2045</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>2050</v>
+        <v>2047</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="6"/>
@@ -13238,10 +13306,10 @@
         <v>963</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>2049</v>
+        <v>2046</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>2051</v>
+        <v>2048</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="6"/>
@@ -13256,10 +13324,10 @@
         <v>968</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>2074</v>
+        <v>2071</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>2075</v>
+        <v>2072</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="6"/>
@@ -13395,19 +13463,19 @@
         <v>1223</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>2058</v>
+        <v>2055</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>2059</v>
+        <v>2056</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>2071</v>
+        <v>2068</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>2072</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -13415,7 +13483,7 @@
         <v>1530</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>2057</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -13423,10 +13491,10 @@
         <v>1531</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -13447,27 +13515,27 @@
         <v>1225</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>2053</v>
+        <v>2050</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>2065</v>
+        <v>2062</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="C7" s="6" t="s">
-        <v>2052</v>
+        <v>2049</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>1221</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>2062</v>
+        <v>2059</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>1222</v>
@@ -13475,19 +13543,19 @@
     </row>
     <row r="8" spans="1:8">
       <c r="C8" s="7" t="s">
-        <v>2061</v>
+        <v>2058</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>2055</v>
+        <v>2052</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>2063</v>
+        <v>2060</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>1217</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>2064</v>
+        <v>2061</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>1218</v>
@@ -13501,7 +13569,7 @@
         <v>1603</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>1220</v>
@@ -13537,10 +13605,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="6" t="s">
-        <v>2069</v>
+        <v>2066</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>2070</v>
+        <v>2067</v>
       </c>
     </row>
   </sheetData>
@@ -13552,10 +13620,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13570,13 +13638,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>1979</v>
+        <v>2187</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -13587,10 +13655,10 @@
         <v>1973</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1980</v>
+        <v>2188</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -13601,10 +13669,10 @@
         <v>1978</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -13615,10 +13683,10 @@
         <v>1971</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -13629,10 +13697,10 @@
         <v>1974</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -13645,326 +13713,383 @@
     </row>
     <row r="7" spans="1:4">
       <c r="C7" s="6" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="C8" s="6" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="6" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>2042</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="C10" s="6" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="6" t="s">
-        <v>2174</v>
+        <v>2170</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>2175</v>
+        <v>2171</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="6" t="s">
-        <v>2176</v>
+        <v>2172</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>2177</v>
+        <v>2173</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="6" t="s">
-        <v>2178</v>
+        <v>2174</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>2179</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="C15" s="6" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="C16" s="6" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="C17" s="6" t="s">
+        <v>2003</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="C18" s="6" t="s">
         <v>2005</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>2006</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="C18" s="6" t="s">
+    <row r="19" spans="1:6">
+      <c r="C19" s="6" t="s">
+        <v>2008</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>2007</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="C19" s="6" t="s">
+    </row>
+    <row r="20" spans="1:6">
+      <c r="C20" s="6" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="E21" s="6" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="C22" s="6" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>2010</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="C20" s="6" t="s">
+      <c r="E22" s="6" t="s">
+        <v>2192</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="C23" s="6" t="s">
         <v>2011</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="C22" s="6" t="s">
-        <v>2015</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>2012</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="C23" s="6" t="s">
-        <v>2013</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E23" s="6" t="s">
+        <v>2193</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="E24" s="6" t="s">
+        <v>2194</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="E25" s="6" t="s">
+        <v>2195</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="C26" s="6" t="s">
+        <v>2176</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>2022</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>2200</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="C27" s="6" t="s">
+        <v>2179</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>2180</v>
       </c>
-      <c r="D26" s="6" t="s">
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="6" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>2177</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>2024</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="C27" s="6" t="s">
+      <c r="E28" s="6" t="s">
+        <v>2202</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="6" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>2178</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>2204</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="C30" s="6" t="s">
+        <v>2181</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>2183</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="E30" s="6" t="s">
+        <v>2206</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="6" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>2182</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>2184</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="6" t="s">
-        <v>2025</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>2022</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>2181</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="6" t="s">
-        <v>2001</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>2002</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>2182</v>
-      </c>
-      <c r="D29" s="6" t="s">
+    <row r="32" spans="1:6">
+      <c r="A32" s="6" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>2027</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="C30" s="6" t="s">
+      <c r="C32" s="6" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>2185</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>2187</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="6" t="s">
-        <v>2030</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>2028</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>2186</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>2188</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="6" t="s">
-        <v>2031</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>2029</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>2018</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>2189</v>
       </c>
     </row>
     <row r="33" spans="3:4">
       <c r="C33" s="6" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>2190</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="34" spans="3:4">
       <c r="C34" s="6" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="35" spans="3:4">
       <c r="C35" s="6" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>1987</v>
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="C37" s="6" t="s">
+        <v>2190</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>2030</v>
       </c>
     </row>
     <row r="38" spans="3:4">
       <c r="C38" s="6" t="s">
-        <v>2097</v>
+        <v>2189</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>2089</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4">
-      <c r="C39" s="6" t="s">
-        <v>2096</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>2073</v>
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4">
+      <c r="C40" s="6" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>2070</v>
       </c>
     </row>
     <row r="41" spans="3:4">
       <c r="C41" s="6" t="s">
-        <v>2039</v>
+        <v>2036</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4">
-      <c r="C42" s="6" t="s">
-        <v>2038</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>2032</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="44" spans="3:4">
       <c r="C44" s="6" t="s">
+        <v>2031</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>2033</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>2035</v>
       </c>
     </row>
     <row r="45" spans="3:4">
       <c r="C45" s="6" t="s">
+        <v>2032</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>2034</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>2036</v>
       </c>
     </row>
     <row r="46" spans="3:4">
       <c r="C46" s="6" t="s">
-        <v>2043</v>
+        <v>2040</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>2095</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="48" spans="3:4">
       <c r="C48" s="6" t="s">
-        <v>2087</v>
+        <v>2084</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>2088</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="50" spans="3:4">
       <c r="C50" s="6" t="s">
-        <v>2094</v>
+        <v>2091</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>2092</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="51" spans="3:4">
       <c r="C51" s="6" t="s">
-        <v>2091</v>
+        <v>2088</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="53" spans="3:4">
       <c r="C53" s="6" t="s">
-        <v>2172</v>
+        <v>2168</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>2173</v>
+        <v>2169</v>
       </c>
     </row>
   </sheetData>
@@ -13990,43 +14115,43 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="29" t="s">
-        <v>2099</v>
+        <v>2095</v>
       </c>
       <c r="B1" s="29"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="29" t="s">
-        <v>2100</v>
+        <v>2096</v>
       </c>
       <c r="B2" s="29"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="29" t="s">
-        <v>2101</v>
+        <v>2097</v>
       </c>
       <c r="B3" s="29"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="29" t="s">
-        <v>2102</v>
+        <v>2098</v>
       </c>
       <c r="B4" s="29"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="29" t="s">
-        <v>2103</v>
+        <v>2099</v>
       </c>
       <c r="B5" s="29"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="29" t="s">
-        <v>2098</v>
+        <v>2094</v>
       </c>
       <c r="B6" s="29"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="29" t="s">
-        <v>2104</v>
+        <v>2100</v>
       </c>
       <c r="B7" s="29"/>
     </row>
@@ -14038,253 +14163,253 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="29" t="s">
-        <v>2105</v>
+        <v>2101</v>
       </c>
       <c r="B10" s="29"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="29" t="s">
-        <v>2106</v>
+        <v>2102</v>
       </c>
       <c r="B11" s="29"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="29" t="s">
-        <v>2107</v>
+        <v>2103</v>
       </c>
       <c r="B12" s="29"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="29" t="s">
-        <v>2108</v>
+        <v>2104</v>
       </c>
       <c r="B13" s="29"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="29" t="s">
-        <v>2109</v>
+        <v>2105</v>
       </c>
       <c r="B14" s="29"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="29" t="s">
-        <v>2110</v>
+        <v>2106</v>
       </c>
       <c r="B15" s="29"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="29" t="s">
-        <v>2111</v>
+        <v>2107</v>
       </c>
       <c r="B16" s="29"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="29" t="s">
-        <v>2112</v>
+        <v>2108</v>
       </c>
       <c r="B17" s="29"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="29" t="s">
-        <v>2113</v>
+        <v>2109</v>
       </c>
       <c r="B18" s="29"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="29" t="s">
-        <v>2114</v>
+        <v>2110</v>
       </c>
       <c r="B19" s="29"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="29" t="s">
-        <v>2115</v>
+        <v>2111</v>
       </c>
       <c r="B20" s="29"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="29" t="s">
-        <v>2116</v>
+        <v>2112</v>
       </c>
       <c r="B21" s="29"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="29" t="s">
-        <v>2117</v>
+        <v>2113</v>
       </c>
       <c r="B22" s="29"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="29" t="s">
-        <v>2118</v>
+        <v>2114</v>
       </c>
       <c r="B23" s="29"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="29" t="s">
-        <v>2119</v>
+        <v>2115</v>
       </c>
       <c r="B24" s="29"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="29" t="s">
-        <v>2120</v>
+        <v>2116</v>
       </c>
       <c r="B25" s="29"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="29" t="s">
-        <v>2121</v>
+        <v>2117</v>
       </c>
       <c r="B26" s="29"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="29" t="s">
-        <v>2122</v>
+        <v>2118</v>
       </c>
       <c r="B27" s="29"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="29" t="s">
-        <v>2123</v>
+        <v>2119</v>
       </c>
       <c r="B28" s="29"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="29" t="s">
-        <v>2124</v>
+        <v>2120</v>
       </c>
       <c r="B29" s="29"/>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="29" t="s">
-        <v>2125</v>
+        <v>2121</v>
       </c>
       <c r="B30" s="29"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="29" t="s">
-        <v>2126</v>
+        <v>2122</v>
       </c>
       <c r="B31" s="29"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="29" t="s">
-        <v>2127</v>
+        <v>2123</v>
       </c>
       <c r="B32" s="29"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="29" t="s">
-        <v>2128</v>
+        <v>2124</v>
       </c>
       <c r="B33" s="29"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="29" t="s">
-        <v>2129</v>
+        <v>2125</v>
       </c>
       <c r="B34" s="29"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="29" t="s">
-        <v>2130</v>
+        <v>2126</v>
       </c>
       <c r="B35" s="29"/>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="29" t="s">
-        <v>2131</v>
+        <v>2127</v>
       </c>
       <c r="B36" s="29"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="29" t="s">
-        <v>2132</v>
+        <v>2128</v>
       </c>
       <c r="B37" s="29"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="29" t="s">
-        <v>2133</v>
+        <v>2129</v>
       </c>
       <c r="B38" s="29"/>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="29" t="s">
-        <v>2134</v>
+        <v>2130</v>
       </c>
       <c r="B39" s="29"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="29" t="s">
-        <v>2135</v>
+        <v>2131</v>
       </c>
       <c r="B40" s="29"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="29" t="s">
-        <v>2136</v>
+        <v>2132</v>
       </c>
       <c r="B41" s="29"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="29" t="s">
-        <v>2137</v>
+        <v>2133</v>
       </c>
       <c r="B42" s="29"/>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="29" t="s">
-        <v>2138</v>
+        <v>2134</v>
       </c>
       <c r="B43" s="29"/>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="29" t="s">
-        <v>2139</v>
+        <v>2135</v>
       </c>
       <c r="B44" s="29"/>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="29" t="s">
-        <v>2140</v>
+        <v>2136</v>
       </c>
       <c r="B45" s="29"/>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="29" t="s">
-        <v>2141</v>
+        <v>2137</v>
       </c>
       <c r="B46" s="29"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="29" t="s">
-        <v>2142</v>
+        <v>2138</v>
       </c>
       <c r="B47" s="29"/>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="29" t="s">
-        <v>2143</v>
+        <v>2139</v>
       </c>
       <c r="B48" s="29"/>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="29" t="s">
-        <v>2144</v>
+        <v>2140</v>
       </c>
       <c r="B49" s="29"/>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="29" t="s">
-        <v>2145</v>
+        <v>2141</v>
       </c>
       <c r="B50" s="29"/>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="29" t="s">
-        <v>2146</v>
+        <v>2142</v>
       </c>
       <c r="B51" s="29"/>
     </row>
@@ -14293,169 +14418,169 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="29" t="s">
-        <v>2147</v>
+        <v>2143</v>
       </c>
       <c r="B53" s="29"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="29" t="s">
-        <v>2148</v>
+        <v>2144</v>
       </c>
       <c r="B54" s="29"/>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="29" t="s">
-        <v>2149</v>
+        <v>2145</v>
       </c>
       <c r="B55" s="29"/>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="29" t="s">
-        <v>2150</v>
+        <v>2146</v>
       </c>
       <c r="B56" s="29"/>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="29" t="s">
-        <v>2151</v>
+        <v>2147</v>
       </c>
       <c r="B57" s="29"/>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="29" t="s">
-        <v>2152</v>
+        <v>2148</v>
       </c>
       <c r="B58" s="29"/>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="29" t="s">
-        <v>2153</v>
+        <v>2149</v>
       </c>
       <c r="B59" s="29"/>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="29" t="s">
-        <v>2154</v>
+        <v>2150</v>
       </c>
       <c r="B60" s="29"/>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="29" t="s">
-        <v>2155</v>
+        <v>2151</v>
       </c>
       <c r="B61" s="29"/>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="29" t="s">
-        <v>2156</v>
+        <v>2152</v>
       </c>
       <c r="B62" s="29"/>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="29" t="s">
-        <v>2157</v>
+        <v>2153</v>
       </c>
       <c r="B63" s="29"/>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="29" t="s">
-        <v>2158</v>
+        <v>2154</v>
       </c>
       <c r="B64" s="29"/>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="29" t="s">
-        <v>2159</v>
+        <v>2155</v>
       </c>
       <c r="B65" s="29"/>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="29" t="s">
-        <v>2160</v>
+        <v>2156</v>
       </c>
       <c r="B66" s="29"/>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="29" t="s">
-        <v>2161</v>
+        <v>2157</v>
       </c>
       <c r="B67" s="29"/>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="29" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
       <c r="B68" s="29"/>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="29" t="s">
-        <v>2163</v>
+        <v>2159</v>
       </c>
       <c r="B69" s="29"/>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="29" t="s">
-        <v>2164</v>
+        <v>2160</v>
       </c>
       <c r="B70" s="29"/>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="29" t="s">
-        <v>2165</v>
+        <v>2161</v>
       </c>
       <c r="B71" s="29"/>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="29" t="s">
-        <v>2166</v>
+        <v>2162</v>
       </c>
       <c r="B72" s="29"/>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="29" t="s">
-        <v>2108</v>
+        <v>2104</v>
       </c>
       <c r="B73" s="29"/>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="29" t="s">
-        <v>2167</v>
+        <v>2163</v>
       </c>
       <c r="B74" s="29"/>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="29" t="s">
-        <v>2168</v>
+        <v>2164</v>
       </c>
       <c r="B75" s="29"/>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="29" t="s">
-        <v>2169</v>
+        <v>2165</v>
       </c>
       <c r="B76" s="29"/>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="29" t="s">
-        <v>2134</v>
+        <v>2130</v>
       </c>
       <c r="B77" s="29"/>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="29" t="s">
-        <v>2144</v>
+        <v>2140</v>
       </c>
       <c r="B78" s="29"/>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="29" t="s">
-        <v>2170</v>
+        <v>2166</v>
       </c>
       <c r="B79" s="29"/>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="29" t="s">
-        <v>2171</v>
+        <v>2167</v>
       </c>
       <c r="B80" s="29"/>
     </row>

--- a/MachineSettings/keys.xlsx
+++ b/MachineSettings/keys.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="2208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="2212">
   <si>
     <t>exposure</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -8480,6 +8480,22 @@
   </si>
   <si>
     <t>全部 折叠/展开</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift enter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt shift enter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下开新行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上开新行</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -13622,8 +13638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13979,16 +13995,28 @@
       <c r="D32" s="6" t="s">
         <v>2185</v>
       </c>
-    </row>
-    <row r="33" spans="3:4">
+      <c r="E32" s="6" t="s">
+        <v>2208</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
       <c r="C33" s="6" t="s">
         <v>2017</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>2186</v>
       </c>
-    </row>
-    <row r="34" spans="3:4">
+      <c r="E33" s="6" t="s">
+        <v>2209</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
       <c r="C34" s="6" t="s">
         <v>2018</v>
       </c>
@@ -13996,7 +14024,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="35" spans="3:4">
+    <row r="35" spans="3:6">
       <c r="C35" s="6" t="s">
         <v>2019</v>
       </c>
@@ -14004,7 +14032,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="37" spans="3:4">
+    <row r="37" spans="3:6">
       <c r="C37" s="6" t="s">
         <v>2190</v>
       </c>
@@ -14012,7 +14040,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="38" spans="3:4">
+    <row r="38" spans="3:6">
       <c r="C38" s="6" t="s">
         <v>2189</v>
       </c>
@@ -14020,7 +14048,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="40" spans="3:4">
+    <row r="40" spans="3:6">
       <c r="C40" s="6" t="s">
         <v>2093</v>
       </c>
@@ -14028,7 +14056,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="41" spans="3:4">
+    <row r="41" spans="3:6">
       <c r="C41" s="6" t="s">
         <v>2036</v>
       </c>
@@ -14036,7 +14064,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="44" spans="3:4">
+    <row r="44" spans="3:6">
       <c r="C44" s="6" t="s">
         <v>2031</v>
       </c>
@@ -14044,7 +14072,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="45" spans="3:4">
+    <row r="45" spans="3:6">
       <c r="C45" s="6" t="s">
         <v>2032</v>
       </c>
@@ -14052,7 +14080,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="46" spans="3:4">
+    <row r="46" spans="3:6">
       <c r="C46" s="6" t="s">
         <v>2040</v>
       </c>
@@ -14060,7 +14088,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="48" spans="3:4">
+    <row r="48" spans="3:6">
       <c r="C48" s="6" t="s">
         <v>2084</v>
       </c>

--- a/MachineSettings/keys.xlsx
+++ b/MachineSettings/keys.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="2212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="2191">
   <si>
     <t>exposure</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -7605,27 +7605,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ctrl shift k</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除一行</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl d</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>选中当前词，继续</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动行</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt shift上下</t>
+    <t>选所有同词</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ctrl d </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -7633,30 +7617,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ctrl shift l</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>选所有同词</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>选所有同词</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ctrl d </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制行</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ctrl l </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>删除行</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -7673,26 +7633,14 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ctrl enter</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>下开新行</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ctrl shift enter</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>上开新行</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>原设置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>快速查找</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -7721,14 +7669,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ctrl k w</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭一个组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ctrl 123</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -7781,14 +7721,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">鼠标alt </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>多光标</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ctrl u</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -7805,10 +7737,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>窗口组上下移动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ctrl shift p /f1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -7817,10 +7745,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ctrl k 上下方向</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>标签切换左</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -7829,14 +7753,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ctrl shift u</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl shift i</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>左移标签</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -7845,18 +7761,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>焦点在资源器选定文件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>f3</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>f4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>新建文件</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -7877,18 +7785,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ctrl shift [ ]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码折叠</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3key j</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>刷新所有更改链接</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -8005,485 +7901,481 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>3key /</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容识别填充</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接媒体</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>guide layer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl alt g</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出选中的剪辑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列化图层</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOLO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>栅格图层</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源管理器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一旦选定cell，可以批量删除/拷贝/剪切/粘贴/运行。当你需要移动notebook的一部分时这个很有用。</t>
+  </si>
+  <si>
+    <t>Esc + F 在代码中查找、替换，忽略输出。</t>
+  </si>
+  <si>
+    <t>Esc + O 在cell和输出结果间切换。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">选择多个cell: </t>
+  </si>
+  <si>
+    <t>Shift + J 或 Shift + Down 选择下一个cell。</t>
+  </si>
+  <si>
+    <t>Shift + K 或 Shift + Up 选择上一个cell。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shift + M 合并cell. </t>
+  </si>
+  <si>
+    <t>命令模式 (按键 Esc 开启)</t>
+  </si>
+  <si>
+    <t>Enter : 转入编辑模式</t>
+  </si>
+  <si>
+    <t>Shift-Enter : 运行本单元，选中下个单元</t>
+  </si>
+  <si>
+    <t>Ctrl-Enter : 运行本单元</t>
+  </si>
+  <si>
+    <t>Alt-Enter : 运行本单元，在其下插入新单元</t>
+  </si>
+  <si>
+    <t>Y : 单元转入代码状态</t>
+  </si>
+  <si>
+    <t>M :单元转入markdown状态</t>
+  </si>
+  <si>
+    <t>R : 单元转入raw状态</t>
+  </si>
+  <si>
+    <t>1 : 设定 1 级标题</t>
+  </si>
+  <si>
+    <t>2 : 设定 2 级标题</t>
+  </si>
+  <si>
+    <t>3 : 设定 3 级标题</t>
+  </si>
+  <si>
+    <t>4 : 设定 4 级标题</t>
+  </si>
+  <si>
+    <t>5 : 设定 5 级标题</t>
+  </si>
+  <si>
+    <t>6 : 设定 6 级标题</t>
+  </si>
+  <si>
+    <t>Up : 选中上方单元</t>
+  </si>
+  <si>
+    <t>K : 选中上方单元</t>
+  </si>
+  <si>
+    <t>Down : 选中下方单元</t>
+  </si>
+  <si>
+    <t>J : 选中下方单元</t>
+  </si>
+  <si>
+    <t>Shift-K : 扩大选中上方单元</t>
+  </si>
+  <si>
+    <t>Shift-J : 扩大选中下方单元</t>
+  </si>
+  <si>
+    <t>A : 在上方插入新单元</t>
+  </si>
+  <si>
+    <t>B : 在下方插入新单元</t>
+  </si>
+  <si>
+    <t>X : 剪切选中的单元</t>
+  </si>
+  <si>
+    <t>C : 复制选中的单元</t>
+  </si>
+  <si>
+    <t>Shift-V : 粘贴到上方单元</t>
+  </si>
+  <si>
+    <t>V : 粘贴到下方单元</t>
+  </si>
+  <si>
+    <t>Z : 恢复删除的最后一个单元</t>
+  </si>
+  <si>
+    <t>D,D : 删除选中的单元</t>
+  </si>
+  <si>
+    <t>Shift-M : 合并选中的单元</t>
+  </si>
+  <si>
+    <t>Ctrl-S : 文件存盘</t>
+  </si>
+  <si>
+    <t>S : 文件存盘</t>
+  </si>
+  <si>
+    <t>L : 转换行号</t>
+  </si>
+  <si>
+    <t>O : 转换输出</t>
+  </si>
+  <si>
+    <t>Shift-O : 转换输出滚动</t>
+  </si>
+  <si>
+    <t>Esc : 关闭页面</t>
+  </si>
+  <si>
+    <t>Q : 关闭页面</t>
+  </si>
+  <si>
+    <t>H : 显示快捷键帮助</t>
+  </si>
+  <si>
+    <t>I,I : 中断Notebook内核</t>
+  </si>
+  <si>
+    <t>0,0 : 重启Notebook内核</t>
+  </si>
+  <si>
+    <t>Shift : 忽略</t>
+  </si>
+  <si>
+    <t>Shift-Space : 向上滚动</t>
+  </si>
+  <si>
+    <t>Space : 向下滚动</t>
+  </si>
+  <si>
+    <t>编辑模式 ( Enter 键启动)</t>
+  </si>
+  <si>
+    <t>Tab : 代码补全或缩进</t>
+  </si>
+  <si>
+    <t>Shift-Tab : 提示</t>
+  </si>
+  <si>
+    <t>Ctrl-] : 缩进</t>
+  </si>
+  <si>
+    <t>Ctrl-[ : 解除缩进</t>
+  </si>
+  <si>
+    <t>Ctrl-A : 全选</t>
+  </si>
+  <si>
+    <t>Ctrl-Z : 复原</t>
+  </si>
+  <si>
+    <t>Ctrl-Shift-Z : 再做</t>
+  </si>
+  <si>
+    <t>Ctrl-Y : 再做</t>
+  </si>
+  <si>
+    <t>Ctrl-Home : 跳到单元开头</t>
+  </si>
+  <si>
+    <t>Ctrl-Up : 跳到单元开头</t>
+  </si>
+  <si>
+    <t>Ctrl-End : 跳到单元末尾</t>
+  </si>
+  <si>
+    <t>Ctrl-Down : 跳到单元末尾</t>
+  </si>
+  <si>
+    <t>Ctrl-Left : 跳到左边一个字首</t>
+  </si>
+  <si>
+    <t>Ctrl-Right : 跳到右边一个字首</t>
+  </si>
+  <si>
+    <t>Ctrl-Backspace : 删除前面一个字</t>
+  </si>
+  <si>
+    <t>Ctrl-Delete : 删除后面一个字</t>
+  </si>
+  <si>
+    <t>Esc : 进入命令模式</t>
+  </si>
+  <si>
+    <t>Ctrl-M : 进入命令模式</t>
+  </si>
+  <si>
+    <t>Shift-Enter : 运行本单元，选中下一单元</t>
+  </si>
+  <si>
+    <t>Alt-Enter : 运行本单元，在下面插入一单元</t>
+  </si>
+  <si>
+    <t>Ctrl-Shift-- : 分割单元</t>
+  </si>
+  <si>
+    <t>Ctrl-Shift-Subtract : 分割单元</t>
+  </si>
+  <si>
+    <t>Up : 光标上移或转入上一单元</t>
+  </si>
+  <si>
+    <t>Down :光标下移或转入下一单元</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ctrl space</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码提示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示参数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl space</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示提示完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt \</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt &lt;-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt -&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl alt \</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消所有组-合并</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt [</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt [</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳入左组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳入右组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>左移标签</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>右移标签</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt j</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt shift ctrl j</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt 2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pycharm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt 2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt 0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt 9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ipython运行窗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>document</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sciView</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>esc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>退回编辑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt -</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>折叠/展开选中块</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl +/-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>折叠/展开</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift ctrl +/-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部 折叠/展开</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift enter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt shift enter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下开新行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上开新行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift f3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt `</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl `</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦点在编辑器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>焦点在终端</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3key /</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容识别填充</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>链接媒体</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>guide layer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl alt g</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出选中的剪辑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>序列化图层</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOLO</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">alt shift </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>选中多行</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦点在编辑器(聚焦)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>栅格图层</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ctrl alt shift e </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源管理器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭侧栏(资源管理器)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl shift e</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>禅模式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt shift  m</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一旦选定cell，可以批量删除/拷贝/剪切/粘贴/运行。当你需要移动notebook的一部分时这个很有用。</t>
-  </si>
-  <si>
-    <t>Esc + F 在代码中查找、替换，忽略输出。</t>
-  </si>
-  <si>
-    <t>Esc + O 在cell和输出结果间切换。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">选择多个cell: </t>
-  </si>
-  <si>
-    <t>Shift + J 或 Shift + Down 选择下一个cell。</t>
-  </si>
-  <si>
-    <t>Shift + K 或 Shift + Up 选择上一个cell。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shift + M 合并cell. </t>
-  </si>
-  <si>
-    <t>命令模式 (按键 Esc 开启)</t>
-  </si>
-  <si>
-    <t>Enter : 转入编辑模式</t>
-  </si>
-  <si>
-    <t>Shift-Enter : 运行本单元，选中下个单元</t>
-  </si>
-  <si>
-    <t>Ctrl-Enter : 运行本单元</t>
-  </si>
-  <si>
-    <t>Alt-Enter : 运行本单元，在其下插入新单元</t>
-  </si>
-  <si>
-    <t>Y : 单元转入代码状态</t>
-  </si>
-  <si>
-    <t>M :单元转入markdown状态</t>
-  </si>
-  <si>
-    <t>R : 单元转入raw状态</t>
-  </si>
-  <si>
-    <t>1 : 设定 1 级标题</t>
-  </si>
-  <si>
-    <t>2 : 设定 2 级标题</t>
-  </si>
-  <si>
-    <t>3 : 设定 3 级标题</t>
-  </si>
-  <si>
-    <t>4 : 设定 4 级标题</t>
-  </si>
-  <si>
-    <t>5 : 设定 5 级标题</t>
-  </si>
-  <si>
-    <t>6 : 设定 6 级标题</t>
-  </si>
-  <si>
-    <t>Up : 选中上方单元</t>
-  </si>
-  <si>
-    <t>K : 选中上方单元</t>
-  </si>
-  <si>
-    <t>Down : 选中下方单元</t>
-  </si>
-  <si>
-    <t>J : 选中下方单元</t>
-  </si>
-  <si>
-    <t>Shift-K : 扩大选中上方单元</t>
-  </si>
-  <si>
-    <t>Shift-J : 扩大选中下方单元</t>
-  </si>
-  <si>
-    <t>A : 在上方插入新单元</t>
-  </si>
-  <si>
-    <t>B : 在下方插入新单元</t>
-  </si>
-  <si>
-    <t>X : 剪切选中的单元</t>
-  </si>
-  <si>
-    <t>C : 复制选中的单元</t>
-  </si>
-  <si>
-    <t>Shift-V : 粘贴到上方单元</t>
-  </si>
-  <si>
-    <t>V : 粘贴到下方单元</t>
-  </si>
-  <si>
-    <t>Z : 恢复删除的最后一个单元</t>
-  </si>
-  <si>
-    <t>D,D : 删除选中的单元</t>
-  </si>
-  <si>
-    <t>Shift-M : 合并选中的单元</t>
-  </si>
-  <si>
-    <t>Ctrl-S : 文件存盘</t>
-  </si>
-  <si>
-    <t>S : 文件存盘</t>
-  </si>
-  <si>
-    <t>L : 转换行号</t>
-  </si>
-  <si>
-    <t>O : 转换输出</t>
-  </si>
-  <si>
-    <t>Shift-O : 转换输出滚动</t>
-  </si>
-  <si>
-    <t>Esc : 关闭页面</t>
-  </si>
-  <si>
-    <t>Q : 关闭页面</t>
-  </si>
-  <si>
-    <t>H : 显示快捷键帮助</t>
-  </si>
-  <si>
-    <t>I,I : 中断Notebook内核</t>
-  </si>
-  <si>
-    <t>0,0 : 重启Notebook内核</t>
-  </si>
-  <si>
-    <t>Shift : 忽略</t>
-  </si>
-  <si>
-    <t>Shift-Space : 向上滚动</t>
-  </si>
-  <si>
-    <t>Space : 向下滚动</t>
-  </si>
-  <si>
-    <t>编辑模式 ( Enter 键启动)</t>
-  </si>
-  <si>
-    <t>Tab : 代码补全或缩进</t>
-  </si>
-  <si>
-    <t>Shift-Tab : 提示</t>
-  </si>
-  <si>
-    <t>Ctrl-] : 缩进</t>
-  </si>
-  <si>
-    <t>Ctrl-[ : 解除缩进</t>
-  </si>
-  <si>
-    <t>Ctrl-A : 全选</t>
-  </si>
-  <si>
-    <t>Ctrl-Z : 复原</t>
-  </si>
-  <si>
-    <t>Ctrl-Shift-Z : 再做</t>
-  </si>
-  <si>
-    <t>Ctrl-Y : 再做</t>
-  </si>
-  <si>
-    <t>Ctrl-Home : 跳到单元开头</t>
-  </si>
-  <si>
-    <t>Ctrl-Up : 跳到单元开头</t>
-  </si>
-  <si>
-    <t>Ctrl-End : 跳到单元末尾</t>
-  </si>
-  <si>
-    <t>Ctrl-Down : 跳到单元末尾</t>
-  </si>
-  <si>
-    <t>Ctrl-Left : 跳到左边一个字首</t>
-  </si>
-  <si>
-    <t>Ctrl-Right : 跳到右边一个字首</t>
-  </si>
-  <si>
-    <t>Ctrl-Backspace : 删除前面一个字</t>
-  </si>
-  <si>
-    <t>Ctrl-Delete : 删除后面一个字</t>
-  </si>
-  <si>
-    <t>Esc : 进入命令模式</t>
-  </si>
-  <si>
-    <t>Ctrl-M : 进入命令模式</t>
-  </si>
-  <si>
-    <t>Shift-Enter : 运行本单元，选中下一单元</t>
-  </si>
-  <si>
-    <t>Alt-Enter : 运行本单元，在下面插入一单元</t>
-  </si>
-  <si>
-    <t>Ctrl-Shift-- : 分割单元</t>
-  </si>
-  <si>
-    <t>Ctrl-Shift-Subtract : 分割单元</t>
-  </si>
-  <si>
-    <t>Up : 光标上移或转入上一单元</t>
-  </si>
-  <si>
-    <t>Down :光标下移或转入下一单元</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ctrl space</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码提示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt shift i </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示定义悬停</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">alt shift j </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示参数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl space</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示提示完成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt \</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt &lt;-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt -&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl alt \</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消所有组-合并</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt [</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt [</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳入左组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳入右组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>左移标签</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>右移标签</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt j</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt shift ctrl j</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt 2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt 1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pycharm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt 1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt 2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt 0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt 9</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ipython运行窗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>document</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sciView</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>esc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>退回编辑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt -</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>折叠/展开选中块</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl +/-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>折叠/展开</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shift ctrl +/-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部 折叠/展开</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shift enter</t>
+    <t>侧栏显示切换</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl u</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl i</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -8491,11 +8383,35 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>下开新行</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>上开新行</t>
+    <t>ctrl del</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt shift ctrl insert</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>列模式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示定义悬停文档</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt shift j</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt shift i</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt shift l</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -9412,10 +9328,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="6" t="s">
-        <v>2080</v>
+        <v>2053</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>2081</v>
+        <v>2054</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>35</v>
@@ -12940,31 +12856,31 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="18" t="s">
-        <v>2074</v>
+        <v>2047</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>2083</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="18" t="s">
-        <v>2079</v>
+        <v>2052</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>2073</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="18" t="s">
-        <v>2082</v>
+        <v>2055</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>2078</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="18" t="s">
-        <v>2075</v>
+        <v>2048</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>1597</v>
@@ -12977,10 +12893,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="18" t="s">
-        <v>2077</v>
+        <v>2050</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>2076</v>
+        <v>2049</v>
       </c>
     </row>
   </sheetData>
@@ -13119,13 +13035,13 @@
         <v>981</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>2041</v>
+        <v>2015</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>1017</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>2087</v>
+        <v>2057</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="6"/>
@@ -13137,13 +13053,13 @@
         <v>982</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>2042</v>
+        <v>2016</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>1018</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>2043</v>
+        <v>2017</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="6"/>
@@ -13286,7 +13202,7 @@
         <v>975</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>2044</v>
+        <v>2018</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>1612</v>
@@ -13304,10 +13220,10 @@
         <v>976</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>2045</v>
+        <v>2019</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>2047</v>
+        <v>2021</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="6"/>
@@ -13322,10 +13238,10 @@
         <v>963</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>2046</v>
+        <v>2020</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>2048</v>
+        <v>2022</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="6"/>
@@ -13340,10 +13256,10 @@
         <v>968</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>2071</v>
+        <v>2044</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>2072</v>
+        <v>2045</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="6"/>
@@ -13479,19 +13395,19 @@
         <v>1223</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>2055</v>
+        <v>2029</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>2057</v>
+        <v>2031</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>2056</v>
+        <v>2030</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>2068</v>
+        <v>2042</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>2069</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -13499,7 +13415,7 @@
         <v>1530</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>2054</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -13507,10 +13423,10 @@
         <v>1531</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>2053</v>
+        <v>2027</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>2051</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -13531,27 +13447,27 @@
         <v>1225</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>2050</v>
+        <v>2024</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>2064</v>
+        <v>2038</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>2062</v>
+        <v>2036</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>2063</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="C7" s="6" t="s">
-        <v>2049</v>
+        <v>2023</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>1221</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>2059</v>
+        <v>2033</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>1222</v>
@@ -13559,19 +13475,19 @@
     </row>
     <row r="8" spans="1:8">
       <c r="C8" s="7" t="s">
-        <v>2058</v>
+        <v>2032</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>2052</v>
+        <v>2026</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>2060</v>
+        <v>2034</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>1217</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>2061</v>
+        <v>2035</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>1218</v>
@@ -13585,7 +13501,7 @@
         <v>1603</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>2065</v>
+        <v>2039</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>1220</v>
@@ -13621,10 +13537,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="6" t="s">
-        <v>2066</v>
+        <v>2040</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>2067</v>
+        <v>2041</v>
       </c>
     </row>
   </sheetData>
@@ -13636,10 +13552,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13652,472 +13568,399 @@
     <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
-        <v>1991</v>
-      </c>
+    <row r="1" spans="1:6">
       <c r="C1" s="6" t="s">
+        <v>2149</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="6" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="C3" s="6" t="s">
+        <v>2184</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="C4" s="6" t="s">
+        <v>1971</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="C5" s="6" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="C7" s="6" t="s">
+        <v>2170</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="C8" s="6" t="s">
+        <v>2182</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="C10" s="6" t="s">
+        <v>2003</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="C12" s="6" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="C13" s="6" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="C15" s="6" t="s">
+        <v>1986</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>1987</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>2187</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>1984</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="28" t="s">
-        <v>1972</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>1973</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="F15" s="6" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="C16" s="6" t="s">
+        <v>1980</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>1981</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>2188</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>1979</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="6" t="s">
-        <v>1977</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>1978</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>2014</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="6" t="s">
-        <v>1970</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>1971</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>1980</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>1981</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="6" t="s">
-        <v>1408</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>1974</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>1982</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>1983</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="6" t="s">
-        <v>1975</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>1976</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="C7" s="6" t="s">
-        <v>1987</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="C8" s="6" t="s">
-        <v>1989</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="6" t="s">
-        <v>2038</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="C10" s="6" t="s">
-        <v>2021</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="6" t="s">
-        <v>2170</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>2171</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>1995</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="6" t="s">
-        <v>2172</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>2173</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>1997</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="6" t="s">
-        <v>2174</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>2175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="C15" s="6" t="s">
-        <v>2001</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="C16" s="6" t="s">
-        <v>1993</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>1994</v>
+      <c r="F16" s="6" t="s">
+        <v>2135</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="C17" s="6" t="s">
-        <v>2003</v>
+        <v>1988</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>2004</v>
+        <v>1989</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>2189</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>2190</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="C18" s="6" t="s">
-        <v>2005</v>
+        <v>1990</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>2006</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="C19" s="6" t="s">
-        <v>2008</v>
+        <v>1993</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>2007</v>
+        <v>1992</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>2136</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>2137</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="C20" s="6" t="s">
-        <v>2009</v>
+        <v>1994</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>2035</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="E21" s="6" t="s">
-        <v>2191</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="C22" s="6" t="s">
-        <v>2013</v>
+        <v>1998</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>2010</v>
+        <v>1995</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>2192</v>
+        <v>2154</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>2196</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="C23" s="6" t="s">
-        <v>2011</v>
+        <v>1996</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>2012</v>
+        <v>1997</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>2193</v>
+        <v>2155</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>2197</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="E24" s="6" t="s">
-        <v>2194</v>
+        <v>2156</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>2198</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="E25" s="6" t="s">
-        <v>2195</v>
+        <v>2157</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>2199</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="C26" s="6" t="s">
-        <v>2176</v>
+        <v>2138</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>2022</v>
+        <v>2004</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>2200</v>
+        <v>2162</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>2201</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="C27" s="6" t="s">
-        <v>2179</v>
+        <v>2141</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>2180</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="6" t="s">
-        <v>2023</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>2020</v>
-      </c>
       <c r="C28" s="6" t="s">
-        <v>2177</v>
+        <v>2139</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>2024</v>
+        <v>2005</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>2202</v>
+        <v>2164</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>2203</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="6" t="s">
-        <v>1999</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>2000</v>
-      </c>
       <c r="C29" s="6" t="s">
-        <v>2178</v>
+        <v>2140</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>2025</v>
+        <v>2006</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>2204</v>
+        <v>2166</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>2205</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="C30" s="6" t="s">
-        <v>2181</v>
+        <v>2143</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>2183</v>
+        <v>2145</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>2206</v>
+        <v>2168</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>2207</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="6" t="s">
-        <v>2028</v>
+        <v>2007</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>2026</v>
+        <v>2180</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>2182</v>
+        <v>2144</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>2184</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="6" t="s">
-        <v>2029</v>
+        <v>2008</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>2027</v>
+        <v>2181</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>2016</v>
+        <v>1999</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>2185</v>
+        <v>2147</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>2208</v>
+        <v>2170</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>2210</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="33" spans="3:6">
       <c r="C33" s="6" t="s">
-        <v>2017</v>
+        <v>2000</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>2186</v>
+        <v>2148</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>2209</v>
+        <v>2171</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>2211</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="34" spans="3:6">
       <c r="C34" s="6" t="s">
-        <v>2018</v>
+        <v>2001</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>1986</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="35" spans="3:6">
       <c r="C35" s="6" t="s">
-        <v>2019</v>
+        <v>2002</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>1985</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="37" spans="3:6">
       <c r="C37" s="6" t="s">
-        <v>2190</v>
+        <v>2176</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>2030</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="38" spans="3:6">
       <c r="C38" s="6" t="s">
-        <v>2189</v>
+        <v>2152</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>2086</v>
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6">
+      <c r="C39" s="6" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>2178</v>
       </c>
     </row>
     <row r="40" spans="3:6">
       <c r="C40" s="6" t="s">
-        <v>2093</v>
+        <v>2175</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>2070</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6">
-      <c r="C41" s="6" t="s">
-        <v>2036</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>2037</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="44" spans="3:6">
       <c r="C44" s="6" t="s">
-        <v>2031</v>
+        <v>2009</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>2033</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="45" spans="3:6">
       <c r="C45" s="6" t="s">
-        <v>2032</v>
+        <v>2174</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6">
-      <c r="C46" s="6" t="s">
-        <v>2040</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>2092</v>
-      </c>
-    </row>
-    <row r="48" spans="3:6">
-      <c r="C48" s="6" t="s">
-        <v>2084</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>2085</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4">
-      <c r="C50" s="6" t="s">
-        <v>2091</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>2089</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4">
-      <c r="C51" s="6" t="s">
-        <v>2088</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>2090</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4">
-      <c r="C53" s="6" t="s">
-        <v>2168</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>2169</v>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6">
+      <c r="C47" s="6" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4">
+      <c r="C49" s="6" t="s">
+        <v>2133</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>2134</v>
       </c>
     </row>
   </sheetData>
@@ -14143,43 +13986,43 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="29" t="s">
-        <v>2095</v>
+        <v>2060</v>
       </c>
       <c r="B1" s="29"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="29" t="s">
-        <v>2096</v>
+        <v>2061</v>
       </c>
       <c r="B2" s="29"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="29" t="s">
-        <v>2097</v>
+        <v>2062</v>
       </c>
       <c r="B3" s="29"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="29" t="s">
-        <v>2098</v>
+        <v>2063</v>
       </c>
       <c r="B4" s="29"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="29" t="s">
-        <v>2099</v>
+        <v>2064</v>
       </c>
       <c r="B5" s="29"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="29" t="s">
-        <v>2094</v>
+        <v>2059</v>
       </c>
       <c r="B6" s="29"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="29" t="s">
-        <v>2100</v>
+        <v>2065</v>
       </c>
       <c r="B7" s="29"/>
     </row>
@@ -14191,253 +14034,253 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="29" t="s">
-        <v>2101</v>
+        <v>2066</v>
       </c>
       <c r="B10" s="29"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="29" t="s">
-        <v>2102</v>
+        <v>2067</v>
       </c>
       <c r="B11" s="29"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="29" t="s">
-        <v>2103</v>
+        <v>2068</v>
       </c>
       <c r="B12" s="29"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="29" t="s">
-        <v>2104</v>
+        <v>2069</v>
       </c>
       <c r="B13" s="29"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="29" t="s">
-        <v>2105</v>
+        <v>2070</v>
       </c>
       <c r="B14" s="29"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="29" t="s">
-        <v>2106</v>
+        <v>2071</v>
       </c>
       <c r="B15" s="29"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="29" t="s">
-        <v>2107</v>
+        <v>2072</v>
       </c>
       <c r="B16" s="29"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="29" t="s">
-        <v>2108</v>
+        <v>2073</v>
       </c>
       <c r="B17" s="29"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="29" t="s">
-        <v>2109</v>
+        <v>2074</v>
       </c>
       <c r="B18" s="29"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="29" t="s">
-        <v>2110</v>
+        <v>2075</v>
       </c>
       <c r="B19" s="29"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="29" t="s">
-        <v>2111</v>
+        <v>2076</v>
       </c>
       <c r="B20" s="29"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="29" t="s">
-        <v>2112</v>
+        <v>2077</v>
       </c>
       <c r="B21" s="29"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="29" t="s">
-        <v>2113</v>
+        <v>2078</v>
       </c>
       <c r="B22" s="29"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="29" t="s">
-        <v>2114</v>
+        <v>2079</v>
       </c>
       <c r="B23" s="29"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="29" t="s">
-        <v>2115</v>
+        <v>2080</v>
       </c>
       <c r="B24" s="29"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="29" t="s">
-        <v>2116</v>
+        <v>2081</v>
       </c>
       <c r="B25" s="29"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="29" t="s">
-        <v>2117</v>
+        <v>2082</v>
       </c>
       <c r="B26" s="29"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="29" t="s">
-        <v>2118</v>
+        <v>2083</v>
       </c>
       <c r="B27" s="29"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="29" t="s">
-        <v>2119</v>
+        <v>2084</v>
       </c>
       <c r="B28" s="29"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="29" t="s">
-        <v>2120</v>
+        <v>2085</v>
       </c>
       <c r="B29" s="29"/>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="29" t="s">
-        <v>2121</v>
+        <v>2086</v>
       </c>
       <c r="B30" s="29"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="29" t="s">
-        <v>2122</v>
+        <v>2087</v>
       </c>
       <c r="B31" s="29"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="29" t="s">
-        <v>2123</v>
+        <v>2088</v>
       </c>
       <c r="B32" s="29"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="29" t="s">
-        <v>2124</v>
+        <v>2089</v>
       </c>
       <c r="B33" s="29"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="29" t="s">
-        <v>2125</v>
+        <v>2090</v>
       </c>
       <c r="B34" s="29"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="29" t="s">
-        <v>2126</v>
+        <v>2091</v>
       </c>
       <c r="B35" s="29"/>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="29" t="s">
-        <v>2127</v>
+        <v>2092</v>
       </c>
       <c r="B36" s="29"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="29" t="s">
-        <v>2128</v>
+        <v>2093</v>
       </c>
       <c r="B37" s="29"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="29" t="s">
-        <v>2129</v>
+        <v>2094</v>
       </c>
       <c r="B38" s="29"/>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="29" t="s">
-        <v>2130</v>
+        <v>2095</v>
       </c>
       <c r="B39" s="29"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="29" t="s">
-        <v>2131</v>
+        <v>2096</v>
       </c>
       <c r="B40" s="29"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="29" t="s">
-        <v>2132</v>
+        <v>2097</v>
       </c>
       <c r="B41" s="29"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="29" t="s">
-        <v>2133</v>
+        <v>2098</v>
       </c>
       <c r="B42" s="29"/>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="29" t="s">
-        <v>2134</v>
+        <v>2099</v>
       </c>
       <c r="B43" s="29"/>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="29" t="s">
-        <v>2135</v>
+        <v>2100</v>
       </c>
       <c r="B44" s="29"/>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="29" t="s">
-        <v>2136</v>
+        <v>2101</v>
       </c>
       <c r="B45" s="29"/>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="29" t="s">
-        <v>2137</v>
+        <v>2102</v>
       </c>
       <c r="B46" s="29"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="29" t="s">
-        <v>2138</v>
+        <v>2103</v>
       </c>
       <c r="B47" s="29"/>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="29" t="s">
-        <v>2139</v>
+        <v>2104</v>
       </c>
       <c r="B48" s="29"/>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="29" t="s">
-        <v>2140</v>
+        <v>2105</v>
       </c>
       <c r="B49" s="29"/>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="29" t="s">
-        <v>2141</v>
+        <v>2106</v>
       </c>
       <c r="B50" s="29"/>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="29" t="s">
-        <v>2142</v>
+        <v>2107</v>
       </c>
       <c r="B51" s="29"/>
     </row>
@@ -14446,169 +14289,169 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="29" t="s">
-        <v>2143</v>
+        <v>2108</v>
       </c>
       <c r="B53" s="29"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="29" t="s">
-        <v>2144</v>
+        <v>2109</v>
       </c>
       <c r="B54" s="29"/>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="29" t="s">
-        <v>2145</v>
+        <v>2110</v>
       </c>
       <c r="B55" s="29"/>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="29" t="s">
-        <v>2146</v>
+        <v>2111</v>
       </c>
       <c r="B56" s="29"/>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="29" t="s">
-        <v>2147</v>
+        <v>2112</v>
       </c>
       <c r="B57" s="29"/>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="29" t="s">
-        <v>2148</v>
+        <v>2113</v>
       </c>
       <c r="B58" s="29"/>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="29" t="s">
-        <v>2149</v>
+        <v>2114</v>
       </c>
       <c r="B59" s="29"/>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="29" t="s">
-        <v>2150</v>
+        <v>2115</v>
       </c>
       <c r="B60" s="29"/>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="29" t="s">
-        <v>2151</v>
+        <v>2116</v>
       </c>
       <c r="B61" s="29"/>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="29" t="s">
-        <v>2152</v>
+        <v>2117</v>
       </c>
       <c r="B62" s="29"/>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="29" t="s">
-        <v>2153</v>
+        <v>2118</v>
       </c>
       <c r="B63" s="29"/>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="29" t="s">
-        <v>2154</v>
+        <v>2119</v>
       </c>
       <c r="B64" s="29"/>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="29" t="s">
-        <v>2155</v>
+        <v>2120</v>
       </c>
       <c r="B65" s="29"/>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="29" t="s">
-        <v>2156</v>
+        <v>2121</v>
       </c>
       <c r="B66" s="29"/>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="29" t="s">
-        <v>2157</v>
+        <v>2122</v>
       </c>
       <c r="B67" s="29"/>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="29" t="s">
-        <v>2158</v>
+        <v>2123</v>
       </c>
       <c r="B68" s="29"/>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="29" t="s">
-        <v>2159</v>
+        <v>2124</v>
       </c>
       <c r="B69" s="29"/>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="29" t="s">
-        <v>2160</v>
+        <v>2125</v>
       </c>
       <c r="B70" s="29"/>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="29" t="s">
-        <v>2161</v>
+        <v>2126</v>
       </c>
       <c r="B71" s="29"/>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="29" t="s">
-        <v>2162</v>
+        <v>2127</v>
       </c>
       <c r="B72" s="29"/>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="29" t="s">
-        <v>2104</v>
+        <v>2069</v>
       </c>
       <c r="B73" s="29"/>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="29" t="s">
-        <v>2163</v>
+        <v>2128</v>
       </c>
       <c r="B74" s="29"/>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="29" t="s">
-        <v>2164</v>
+        <v>2129</v>
       </c>
       <c r="B75" s="29"/>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="29" t="s">
-        <v>2165</v>
+        <v>2130</v>
       </c>
       <c r="B76" s="29"/>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="29" t="s">
-        <v>2130</v>
+        <v>2095</v>
       </c>
       <c r="B77" s="29"/>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="29" t="s">
-        <v>2140</v>
+        <v>2105</v>
       </c>
       <c r="B78" s="29"/>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="29" t="s">
-        <v>2166</v>
+        <v>2131</v>
       </c>
       <c r="B79" s="29"/>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="29" t="s">
-        <v>2167</v>
+        <v>2132</v>
       </c>
       <c r="B80" s="29"/>
     </row>

--- a/MachineSettings/keys.xlsx
+++ b/MachineSettings/keys.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="2191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="2199">
   <si>
     <t>exposure</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -8191,10 +8191,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>显示参数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ctrl space</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -8395,10 +8391,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>显示定义悬停文档</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>alt shift j</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -8412,6 +8404,46 @@
   </si>
   <si>
     <t>类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt shift k</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上下左右</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>home/end</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>page up/down</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl ikjl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl h;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl um</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -8419,7 +8451,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8965,7 +8997,7 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="7.75" style="6" customWidth="1"/>
@@ -8979,7 +9011,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1">
+    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
         <v>93</v>
       </c>
@@ -8996,7 +9028,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>33</v>
       </c>
@@ -9028,7 +9060,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>39</v>
       </c>
@@ -9054,7 +9086,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
@@ -9074,7 +9106,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>42</v>
       </c>
@@ -9106,7 +9138,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>43</v>
       </c>
@@ -9132,7 +9164,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>48</v>
       </c>
@@ -9164,7 +9196,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>47</v>
       </c>
@@ -9190,7 +9222,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>50</v>
       </c>
@@ -9222,7 +9254,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>41</v>
       </c>
@@ -9248,7 +9280,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>55</v>
       </c>
@@ -9280,7 +9312,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>60</v>
       </c>
@@ -9306,7 +9338,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>61</v>
       </c>
@@ -9326,7 +9358,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>2053</v>
       </c>
@@ -9358,7 +9390,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>1133</v>
       </c>
@@ -9390,7 +9422,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>1174</v>
       </c>
@@ -9416,7 +9448,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C17" s="7" t="s">
         <v>1137</v>
       </c>
@@ -9430,7 +9462,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>1188</v>
       </c>
@@ -9456,7 +9488,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>1190</v>
       </c>
@@ -9476,7 +9508,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C20" s="7" t="s">
         <v>1122</v>
       </c>
@@ -9502,7 +9534,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
         <v>1589</v>
       </c>
@@ -9528,7 +9560,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
         <v>1623</v>
       </c>
@@ -9542,7 +9574,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
         <v>1352</v>
       </c>
@@ -9568,7 +9600,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
         <v>1595</v>
       </c>
@@ -9594,7 +9626,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
         <v>1940</v>
       </c>
@@ -9620,7 +9652,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E27" s="7" t="s">
         <v>1166</v>
       </c>
@@ -9634,7 +9666,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
         <v>1952</v>
       </c>
@@ -9654,7 +9686,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
         <v>1958</v>
       </c>
@@ -9662,7 +9694,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
         <v>1960</v>
       </c>
@@ -9670,7 +9702,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" s="6" t="s">
         <v>1353</v>
       </c>
@@ -9690,33 +9722,33 @@
       <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="136.75" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="136.75" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="136.75" style="2"/>
     <col min="2" max="16384" width="136.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="22.5">
+    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="22.5">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="33.75">
+    <row r="3" spans="1:1" ht="24" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="22.5">
+    <row r="4" spans="1:1" ht="24" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="22.5">
+    <row r="5" spans="1:1" ht="24" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>935</v>
       </c>
@@ -9736,1563 +9768,1563 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="61.875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>1625</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>1626</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>1627</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>1628</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>1629</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>1630</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>1631</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>1632</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>1633</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>1634</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>1635</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>1636</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>1637</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>1638</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>1639</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>1647</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>1648</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>1649</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>1650</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>1651</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>1652</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>1653</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>1654</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>1655</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>1656</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>1657</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>1658</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>1659</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>1660</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>1661</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>1662</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>1663</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>1664</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>1665</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>1666</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>1667</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>1668</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>1669</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
         <v>1670</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
         <v>1671</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
         <v>1672</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
         <v>1673</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>1674</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
         <v>1675</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
         <v>1676</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
         <v>1677</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
         <v>1678</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
         <v>1679</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>1680</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
         <v>1681</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
         <v>1682</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
         <v>1683</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
         <v>1684</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
         <v>1685</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
         <v>1686</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
         <v>1687</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
         <v>1688</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="3" t="s">
         <v>1689</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
         <v>1690</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
         <v>1691</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
         <v>1692</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
         <v>1693</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
         <v>1694</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
         <v>1695</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
         <v>1696</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
         <v>1697</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
         <v>1698</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
         <v>1699</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="3" t="s">
         <v>1700</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" s="3" t="s">
         <v>1701</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="3" t="s">
         <v>1702</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" s="3" t="s">
         <v>1703</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" s="3" t="s">
         <v>1704</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" s="3" t="s">
         <v>1705</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" s="3" t="s">
         <v>1706</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" s="3" t="s">
         <v>1707</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" s="3" t="s">
         <v>1708</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" s="3" t="s">
         <v>1709</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" s="3" t="s">
         <v>1710</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" s="3" t="s">
         <v>1711</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A96" s="3" t="s">
         <v>1712</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A97" s="3" t="s">
         <v>1713</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A98" s="3" t="s">
         <v>1714</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A99" s="3" t="s">
         <v>1715</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A100" s="3" t="s">
         <v>1716</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A101" s="3" t="s">
         <v>1717</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A102" s="3" t="s">
         <v>1718</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A103" s="3" t="s">
         <v>1719</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A104" s="3" t="s">
         <v>1720</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A105" s="3" t="s">
         <v>1721</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A106" s="3" t="s">
         <v>1722</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A107" s="3" t="s">
         <v>1723</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A108" s="3" t="s">
         <v>1724</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A109" s="3" t="s">
         <v>1725</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A110" s="3" t="s">
         <v>1726</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A111" s="3" t="s">
         <v>1727</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A112" s="3" t="s">
         <v>1728</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A113" s="3" t="s">
         <v>1729</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A114" s="3" t="s">
         <v>1730</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A115" s="3" t="s">
         <v>1731</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A116" s="3" t="s">
         <v>1732</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A117" s="3" t="s">
         <v>1733</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A118" s="3" t="s">
         <v>1734</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A119" s="3" t="s">
         <v>1735</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A120" s="3" t="s">
         <v>1736</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A121" s="3" t="s">
         <v>1737</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A122" s="3" t="s">
         <v>1738</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A123" s="3" t="s">
         <v>1739</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A124" s="3" t="s">
         <v>1740</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A125" s="3" t="s">
         <v>1741</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A126" s="3" t="s">
         <v>1742</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A127" s="3" t="s">
         <v>1743</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A128" s="3" t="s">
         <v>1744</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A129" s="3" t="s">
         <v>1745</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A130" s="3" t="s">
         <v>1746</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A131" s="3" t="s">
         <v>1747</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A132" s="3" t="s">
         <v>1748</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A134" s="3" t="s">
         <v>1749</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A135" s="3" t="s">
         <v>1750</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A136" s="3" t="s">
         <v>1751</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A137" s="3" t="s">
         <v>1752</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A138" s="3" t="s">
         <v>1753</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A139" s="3" t="s">
         <v>1754</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A140" s="3" t="s">
         <v>1755</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A141" s="3" t="s">
         <v>1756</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A143" s="3" t="s">
         <v>1757</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A144" s="3" t="s">
         <v>1758</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A145" s="3" t="s">
         <v>1759</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A146" s="3" t="s">
         <v>1760</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A147" s="3" t="s">
         <v>1761</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A148" s="3" t="s">
         <v>1762</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A149" s="3" t="s">
         <v>1763</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A150" s="3" t="s">
         <v>1764</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A151" s="3" t="s">
         <v>1765</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A152" s="3" t="s">
         <v>1766</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A153" s="3" t="s">
         <v>1767</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A154" s="3" t="s">
         <v>1768</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A155" s="3" t="s">
         <v>1769</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A156" s="3" t="s">
         <v>1770</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A157" s="3" t="s">
         <v>1771</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A158" s="3" t="s">
         <v>1772</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A159" s="3" t="s">
         <v>1773</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A160" s="3" t="s">
         <v>1774</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A161" s="3" t="s">
         <v>1775</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A162" s="3" t="s">
         <v>1776</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A163" s="3" t="s">
         <v>1777</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A164" s="3" t="s">
         <v>1778</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A165" s="3" t="s">
         <v>1779</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A166" s="3" t="s">
         <v>1780</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A167" s="3" t="s">
         <v>1781</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A168" s="3" t="s">
         <v>1782</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A169" s="3" t="s">
         <v>1783</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A171" s="3" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A172" s="3" t="s">
         <v>1785</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A173" s="3" t="s">
         <v>1786</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A174" s="3" t="s">
         <v>1787</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A175" s="3" t="s">
         <v>1788</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A176" s="3" t="s">
         <v>1789</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A177" s="3" t="s">
         <v>1790</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A178" s="3" t="s">
         <v>1791</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A179" s="3" t="s">
         <v>1792</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A180" s="3" t="s">
         <v>1793</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A181" s="3" t="s">
         <v>1794</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A182" s="3" t="s">
         <v>1795</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A183" s="3" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A185" s="3" t="s">
         <v>1797</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A186" s="3" t="s">
         <v>1798</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A187" s="3" t="s">
         <v>1799</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A188" s="3" t="s">
         <v>1800</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A189" s="3" t="s">
         <v>1801</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A190" s="3" t="s">
         <v>1802</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A191" s="3" t="s">
         <v>1803</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A192" s="3" t="s">
         <v>1804</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A193" s="3" t="s">
         <v>1805</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A194" s="3" t="s">
         <v>1806</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A195" s="3" t="s">
         <v>1807</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A197" s="3" t="s">
         <v>1808</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A198" s="3" t="s">
         <v>1809</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A199" s="3" t="s">
         <v>1810</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A200" s="3" t="s">
         <v>1811</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A201" s="3" t="s">
         <v>1812</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A202" s="3" t="s">
         <v>1813</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A204" s="3" t="s">
         <v>1814</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A205" s="3" t="s">
         <v>1815</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A206" s="3" t="s">
         <v>1816</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A207" s="3" t="s">
         <v>1817</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A208" s="3" t="s">
         <v>1818</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A209" s="3" t="s">
         <v>1819</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A210" s="3" t="s">
         <v>1820</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A211" s="3" t="s">
         <v>1821</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A212" s="3" t="s">
         <v>1822</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A213" s="3" t="s">
         <v>1823</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A214" s="3" t="s">
         <v>1824</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A215" s="3" t="s">
         <v>1825</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A217" s="3" t="s">
         <v>1826</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A218" s="3" t="s">
         <v>1827</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A219" s="3" t="s">
         <v>1828</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A220" s="3" t="s">
         <v>1829</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A221" s="3" t="s">
         <v>1830</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A222" s="3" t="s">
         <v>1831</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A223" s="3" t="s">
         <v>1832</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A224" s="3" t="s">
         <v>1833</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A225" s="3" t="s">
         <v>1834</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A226" s="3" t="s">
         <v>1835</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A227" s="3" t="s">
         <v>1836</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A229" s="3" t="s">
         <v>1837</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A230" s="3" t="s">
         <v>1838</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A231" s="3" t="s">
         <v>1839</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A232" s="3" t="s">
         <v>1840</v>
       </c>
     </row>
-    <row r="233" spans="1:1">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A233" s="3" t="s">
         <v>1841</v>
       </c>
     </row>
-    <row r="234" spans="1:1">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A234" s="3" t="s">
         <v>1842</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A235" s="3" t="s">
         <v>1843</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A236" s="3" t="s">
         <v>1844</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A237" s="3" t="s">
         <v>1845</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A238" s="3" t="s">
         <v>1846</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A239" s="3" t="s">
         <v>1847</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A241" s="3" t="s">
         <v>1848</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A242" s="3" t="s">
         <v>1849</v>
       </c>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A243" s="3" t="s">
         <v>1850</v>
       </c>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A244" s="3" t="s">
         <v>1851</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A245" s="3" t="s">
         <v>1852</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A246" s="3" t="s">
         <v>1853</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A247" s="3" t="s">
         <v>1854</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A248" s="3" t="s">
         <v>1855</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A249" s="3" t="s">
         <v>1856</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A250" s="3" t="s">
         <v>1857</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A251" s="3" t="s">
         <v>1858</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A252" s="3" t="s">
         <v>1859</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A253" s="3" t="s">
         <v>1860</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A254" s="3" t="s">
         <v>1861</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A255" s="3" t="s">
         <v>1862</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A256" s="3" t="s">
         <v>1863</v>
       </c>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A257" s="3" t="s">
         <v>1864</v>
       </c>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A258" s="3" t="s">
         <v>1865</v>
       </c>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A259" s="3" t="s">
         <v>1866</v>
       </c>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A261" s="3" t="s">
         <v>1867</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A262" s="3" t="s">
         <v>1868</v>
       </c>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A263" s="3" t="s">
         <v>1869</v>
       </c>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A264" s="3" t="s">
         <v>1870</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A265" s="3" t="s">
         <v>1871</v>
       </c>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A266" s="3" t="s">
         <v>1872</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A267" s="3" t="s">
         <v>1873</v>
       </c>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A268" s="3" t="s">
         <v>1874</v>
       </c>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A269" s="3" t="s">
         <v>1875</v>
       </c>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A270" s="3" t="s">
         <v>1876</v>
       </c>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A271" s="3" t="s">
         <v>1877</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A272" s="3" t="s">
         <v>1878</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A273" s="3" t="s">
         <v>1879</v>
       </c>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A274" s="3" t="s">
         <v>1880</v>
       </c>
     </row>
-    <row r="275" spans="1:1">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A275" s="3" t="s">
         <v>1881</v>
       </c>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A276" s="3" t="s">
         <v>1882</v>
       </c>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A277" s="3" t="s">
         <v>1883</v>
       </c>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A278" s="3" t="s">
         <v>1884</v>
       </c>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A279" s="3" t="s">
         <v>1885</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A280" s="3" t="s">
         <v>1886</v>
       </c>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A281" s="3" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A282" s="3" t="s">
         <v>1888</v>
       </c>
     </row>
-    <row r="283" spans="1:1">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A283" s="3" t="s">
         <v>1889</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A284" s="3" t="s">
         <v>1890</v>
       </c>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A285" s="3" t="s">
         <v>1891</v>
       </c>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A286" s="3" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="288" spans="1:1">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A288" s="3" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="289" spans="1:1">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A289" s="3" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A290" s="3" t="s">
         <v>1895</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A292" s="3" t="s">
         <v>1896</v>
       </c>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A293" s="3" t="s">
         <v>1897</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A294" s="3" t="s">
         <v>1898</v>
       </c>
     </row>
-    <row r="295" spans="1:1">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A295" s="3" t="s">
         <v>1899</v>
       </c>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A296" s="3" t="s">
         <v>1900</v>
       </c>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A297" s="3" t="s">
         <v>1901</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A298" s="3" t="s">
         <v>1902</v>
       </c>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A299" s="3" t="s">
         <v>1903</v>
       </c>
     </row>
-    <row r="300" spans="1:1">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A300" s="3" t="s">
         <v>1904</v>
       </c>
     </row>
-    <row r="302" spans="1:1">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A302" s="3" t="s">
         <v>1905</v>
       </c>
     </row>
-    <row r="303" spans="1:1">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A303" s="3" t="s">
         <v>1906</v>
       </c>
     </row>
-    <row r="304" spans="1:1">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A304" s="3" t="s">
         <v>1907</v>
       </c>
     </row>
-    <row r="305" spans="1:1">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A305" s="3" t="s">
         <v>1908</v>
       </c>
     </row>
-    <row r="306" spans="1:1">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A306" s="3" t="s">
         <v>1909</v>
       </c>
     </row>
-    <row r="307" spans="1:1">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A307" s="3" t="s">
         <v>1910</v>
       </c>
     </row>
-    <row r="308" spans="1:1">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A308" s="3" t="s">
         <v>1911</v>
       </c>
     </row>
-    <row r="309" spans="1:1">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A309" s="3" t="s">
         <v>1912</v>
       </c>
     </row>
-    <row r="310" spans="1:1">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A310" s="3" t="s">
         <v>1913</v>
       </c>
     </row>
-    <row r="311" spans="1:1">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A311" s="3" t="s">
         <v>1914</v>
       </c>
     </row>
-    <row r="312" spans="1:1">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A312" s="3" t="s">
         <v>1915</v>
       </c>
     </row>
-    <row r="313" spans="1:1">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A313" s="3" t="s">
         <v>1916</v>
       </c>
     </row>
-    <row r="314" spans="1:1">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A314" s="3" t="s">
         <v>1917</v>
       </c>
     </row>
-    <row r="315" spans="1:1">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A315" s="3" t="s">
         <v>1918</v>
       </c>
     </row>
-    <row r="316" spans="1:1">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A316" s="3" t="s">
         <v>1919</v>
       </c>
     </row>
-    <row r="317" spans="1:1">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A317" s="3" t="s">
         <v>1920</v>
       </c>
     </row>
-    <row r="318" spans="1:1">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A318" s="3" t="s">
         <v>1921</v>
       </c>
     </row>
-    <row r="320" spans="1:1">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A320" s="3" t="s">
         <v>1922</v>
       </c>
     </row>
-    <row r="321" spans="1:1">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A321" s="3" t="s">
         <v>1923</v>
       </c>
     </row>
-    <row r="322" spans="1:1">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A322" s="3" t="s">
         <v>1924</v>
       </c>
     </row>
-    <row r="323" spans="1:1">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A323" s="3" t="s">
         <v>1925</v>
       </c>
     </row>
-    <row r="324" spans="1:1">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A324" s="3" t="s">
         <v>1926</v>
       </c>
     </row>
-    <row r="325" spans="1:1">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A325" s="3" t="s">
         <v>1927</v>
       </c>
     </row>
-    <row r="326" spans="1:1">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A326" s="3" t="s">
         <v>1928</v>
       </c>
     </row>
-    <row r="327" spans="1:1">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A327" s="3" t="s">
         <v>1929</v>
       </c>
     </row>
-    <row r="328" spans="1:1">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A328" s="3" t="s">
         <v>1930</v>
       </c>
     </row>
-    <row r="332" spans="1:1">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A332" s="3" t="s">
         <v>1931</v>
       </c>
     </row>
-    <row r="333" spans="1:1">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A333" s="3" t="s">
         <v>1932</v>
       </c>
     </row>
-    <row r="334" spans="1:1">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A334" s="3" t="s">
         <v>1933</v>
       </c>
     </row>
-    <row r="335" spans="1:1">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A335" s="3" t="s">
         <v>1934</v>
       </c>
@@ -11312,12 +11344,12 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="26" t="s">
         <v>1942</v>
       </c>
@@ -11327,7 +11359,7 @@
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="26" t="s">
         <v>1944</v>
       </c>
@@ -11339,7 +11371,7 @@
       </c>
       <c r="F2" s="26"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
         <v>1946</v>
       </c>
@@ -11349,7 +11381,7 @@
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="26"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -11357,7 +11389,7 @@
       <c r="E4" s="26"/>
       <c r="F4" s="26"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="26"/>
       <c r="B5" s="26" t="s">
         <v>1947</v>
@@ -11367,7 +11399,7 @@
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="26"/>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
@@ -11375,7 +11407,7 @@
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="26"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -11383,7 +11415,7 @@
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -11391,7 +11423,7 @@
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="26"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -11399,7 +11431,7 @@
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -11407,7 +11439,7 @@
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
@@ -11415,7 +11447,7 @@
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
@@ -11423,7 +11455,7 @@
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
@@ -11431,27 +11463,27 @@
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="25" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="27" t="s">
         <v>1951</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="25" t="s">
         <v>1949</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="25" t="s">
         <v>1948</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="27" t="s">
         <v>1950</v>
       </c>
@@ -11471,7 +11503,7 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15" style="7" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="6" customWidth="1"/>
@@ -11488,7 +11520,7 @@
     <col min="13" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="15" customFormat="1">
+    <row r="1" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>1259</v>
       </c>
@@ -11507,7 +11539,7 @@
       <c r="J1" s="11"/>
       <c r="K1" s="14"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>1285</v>
       </c>
@@ -11539,7 +11571,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>1232</v>
       </c>
@@ -11574,7 +11606,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>1234</v>
       </c>
@@ -11609,7 +11641,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>1236</v>
       </c>
@@ -11641,7 +11673,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C6" s="7" t="s">
         <v>1255</v>
       </c>
@@ -11655,7 +11687,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>33</v>
       </c>
@@ -11687,7 +11719,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>1326</v>
       </c>
@@ -11722,7 +11754,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C9" s="7" t="s">
         <v>1545</v>
       </c>
@@ -11739,7 +11771,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
         <v>1238</v>
       </c>
@@ -11762,7 +11794,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
         <v>1333</v>
       </c>
@@ -11779,7 +11811,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>1579</v>
       </c>
@@ -11802,7 +11834,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>1334</v>
       </c>
@@ -11829,7 +11861,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C14" s="7" t="s">
         <v>1424</v>
       </c>
@@ -11852,7 +11884,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>1174</v>
       </c>
@@ -11872,7 +11904,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C16" s="7" t="s">
         <v>1251</v>
       </c>
@@ -11892,7 +11924,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>1354</v>
       </c>
@@ -11918,7 +11950,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="G18" s="14" t="s">
         <v>1375</v>
       </c>
@@ -11930,7 +11962,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C19" s="7" t="s">
         <v>1316</v>
       </c>
@@ -11950,7 +11982,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>1586</v>
       </c>
@@ -11970,7 +12002,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E21" s="7" t="s">
         <v>1038</v>
       </c>
@@ -11990,7 +12022,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C22" s="7" t="s">
         <v>1293</v>
       </c>
@@ -12010,7 +12042,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C23" s="7" t="s">
         <v>1295</v>
       </c>
@@ -12018,7 +12050,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C24" s="7" t="s">
         <v>1318</v>
       </c>
@@ -12029,7 +12061,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>1184</v>
       </c>
@@ -12043,7 +12075,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
         <v>1577</v>
       </c>
@@ -12057,7 +12089,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>1581</v>
       </c>
@@ -12077,7 +12109,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>1587</v>
       </c>
@@ -12097,7 +12129,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>1584</v>
       </c>
@@ -12117,7 +12149,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C30" s="7" t="s">
         <v>1345</v>
       </c>
@@ -12131,7 +12163,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>1615</v>
       </c>
@@ -12151,7 +12183,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E32" s="7" t="s">
         <v>1563</v>
       </c>
@@ -12159,7 +12191,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="3:6">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C33" s="7" t="s">
         <v>1340</v>
       </c>
@@ -12167,7 +12199,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="34" spans="3:6">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C34" s="7" t="s">
         <v>1342</v>
       </c>
@@ -12175,7 +12207,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="35" spans="3:6">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C35" s="7" t="s">
         <v>1344</v>
       </c>
@@ -12189,7 +12221,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="36" spans="3:6">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.15">
       <c r="E36" s="7" t="s">
         <v>1575</v>
       </c>
@@ -12197,7 +12229,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="37" spans="3:6">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C37" s="7" t="s">
         <v>1552</v>
       </c>
@@ -12205,7 +12237,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="38" spans="3:6">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C38" s="7" t="s">
         <v>1552</v>
       </c>
@@ -12219,7 +12251,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="39" spans="3:6">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C39" s="7" t="s">
         <v>1555</v>
       </c>
@@ -12233,7 +12265,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="40" spans="3:6">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C40" s="7" t="s">
         <v>1557</v>
       </c>
@@ -12241,7 +12273,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="41" spans="3:6">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C41" s="7" t="s">
         <v>1564</v>
       </c>
@@ -12249,7 +12281,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="42" spans="3:6">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C42" s="7" t="s">
         <v>1565</v>
       </c>
@@ -12263,7 +12295,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="43" spans="3:6">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.15">
       <c r="E43" s="7" t="s">
         <v>1569</v>
       </c>
@@ -12285,7 +12317,7 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.5" style="18" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="6" customWidth="1"/>
@@ -12301,7 +12333,7 @@
     <col min="12" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1">
+    <row r="1" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>93</v>
       </c>
@@ -12322,7 +12354,7 @@
       <c r="J1" s="17"/>
       <c r="K1" s="13"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>1048</v>
       </c>
@@ -12354,7 +12386,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
         <v>1395</v>
       </c>
@@ -12386,7 +12418,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="G4" s="19" t="s">
         <v>1434</v>
       </c>
@@ -12400,7 +12432,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>1440</v>
       </c>
@@ -12426,7 +12458,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
         <v>1446</v>
       </c>
@@ -12452,7 +12484,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>1445</v>
       </c>
@@ -12472,7 +12504,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C8" s="19" t="s">
         <v>1454</v>
       </c>
@@ -12486,7 +12518,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
         <v>1426</v>
       </c>
@@ -12500,7 +12532,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
         <v>1427</v>
       </c>
@@ -12520,7 +12552,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C11" s="19" t="s">
         <v>1388</v>
       </c>
@@ -12540,7 +12572,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="18" t="s">
         <v>1489</v>
       </c>
@@ -12566,7 +12598,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
         <v>1491</v>
       </c>
@@ -12592,7 +12624,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C14" s="18" t="s">
         <v>1465</v>
       </c>
@@ -12612,7 +12644,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="18">
         <v>1</v>
       </c>
@@ -12632,7 +12664,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="19" t="s">
         <v>1431</v>
       </c>
@@ -12652,7 +12684,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="19">
         <v>2</v>
       </c>
@@ -12678,7 +12710,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="19">
         <v>3</v>
       </c>
@@ -12692,7 +12724,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="19">
         <v>4</v>
       </c>
@@ -12706,7 +12738,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="19">
         <v>5</v>
       </c>
@@ -12726,7 +12758,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="19" t="s">
         <v>1528</v>
       </c>
@@ -12740,7 +12772,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C22" s="19" t="s">
         <v>1406</v>
       </c>
@@ -12748,7 +12780,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="18">
         <v>6</v>
       </c>
@@ -12762,7 +12794,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="18" t="s">
         <v>1535</v>
       </c>
@@ -12776,7 +12808,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="19" t="s">
         <v>1521</v>
       </c>
@@ -12790,7 +12822,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="19" t="s">
         <v>1522</v>
       </c>
@@ -12804,7 +12836,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="19" t="s">
         <v>1410</v>
       </c>
@@ -12818,7 +12850,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C30" s="18" t="s">
         <v>1508</v>
       </c>
@@ -12826,7 +12858,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="18" t="s">
         <v>1509</v>
       </c>
@@ -12840,7 +12872,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="18" t="s">
         <v>1540</v>
       </c>
@@ -12854,7 +12886,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="18" t="s">
         <v>2047</v>
       </c>
@@ -12862,7 +12894,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="18" t="s">
         <v>2052</v>
       </c>
@@ -12870,7 +12902,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="18" t="s">
         <v>2055</v>
       </c>
@@ -12878,7 +12910,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="18" t="s">
         <v>2048</v>
       </c>
@@ -12886,12 +12918,12 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B39" s="6" t="s">
         <v>1954</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="18" t="s">
         <v>2050</v>
       </c>
@@ -12914,7 +12946,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="3" customWidth="1"/>
@@ -12928,7 +12960,7 @@
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>954</v>
       </c>
@@ -12954,7 +12986,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>964</v>
       </c>
@@ -12980,7 +13012,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>954</v>
       </c>
@@ -13002,7 +13034,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>1617</v>
       </c>
@@ -13024,7 +13056,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>951</v>
       </c>
@@ -13046,7 +13078,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7" t="s">
@@ -13064,7 +13096,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>1616</v>
       </c>
@@ -13081,7 +13113,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>971</v>
       </c>
@@ -13102,7 +13134,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
@@ -13118,7 +13150,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>957</v>
       </c>
@@ -13140,7 +13172,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
@@ -13156,7 +13188,7 @@
       <c r="G11" s="7"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>953</v>
       </c>
@@ -13180,7 +13212,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>959</v>
       </c>
@@ -13194,7 +13226,7 @@
       <c r="G13" s="7"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>974</v>
       </c>
@@ -13212,7 +13244,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>961</v>
       </c>
@@ -13230,7 +13262,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>962</v>
       </c>
@@ -13248,7 +13280,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>967</v>
       </c>
@@ -13266,7 +13298,7 @@
       <c r="G17" s="7"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>969</v>
       </c>
@@ -13280,7 +13312,7 @@
       <c r="G18" s="7"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>999</v>
       </c>
@@ -13288,7 +13320,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>1001</v>
       </c>
@@ -13296,7 +13328,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>1002</v>
       </c>
@@ -13304,7 +13336,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>1014</v>
       </c>
@@ -13312,7 +13344,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>1016</v>
       </c>
@@ -13320,7 +13352,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>1006</v>
       </c>
@@ -13328,7 +13360,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>1010</v>
       </c>
@@ -13336,7 +13368,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>1009</v>
       </c>
@@ -13344,7 +13376,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>1008</v>
       </c>
@@ -13352,7 +13384,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>1607</v>
       </c>
@@ -13375,7 +13407,7 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18" style="6" customWidth="1"/>
     <col min="2" max="2" width="15.25" style="6" customWidth="1"/>
@@ -13384,7 +13416,7 @@
     <col min="5" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>33</v>
       </c>
@@ -13410,7 +13442,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C2" s="7" t="s">
         <v>1530</v>
       </c>
@@ -13418,7 +13450,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C3" s="7" t="s">
         <v>1531</v>
       </c>
@@ -13429,17 +13461,17 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C4" s="7" t="s">
         <v>1532</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C5" s="7" t="s">
         <v>1533</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>1224</v>
       </c>
@@ -13459,7 +13491,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C7" s="6" t="s">
         <v>2023</v>
       </c>
@@ -13473,7 +13505,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C8" s="7" t="s">
         <v>2032</v>
       </c>
@@ -13493,7 +13525,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>1602</v>
       </c>
@@ -13507,7 +13539,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>1604</v>
       </c>
@@ -13515,7 +13547,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>1600</v>
       </c>
@@ -13535,7 +13567,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>2040</v>
       </c>
@@ -13554,11 +13586,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="19.75" style="6" customWidth="1"/>
@@ -13568,65 +13600,85 @@
     <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C1" s="6" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>1974</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="6" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>1970</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C3" s="6" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>2184</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>2185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C4" s="6" t="s">
         <v>1971</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>1972</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="E4" s="6" t="s">
+        <v>2196</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C5" s="6" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>1973</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="E5" s="6" t="s">
+        <v>2197</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E6" s="6" t="s">
+        <v>2198</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C7" s="6" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>1977</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C8" s="6" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>1978</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C10" s="6" t="s">
         <v>2003</v>
       </c>
@@ -13634,7 +13686,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C12" s="6" t="s">
         <v>1982</v>
       </c>
@@ -13642,7 +13694,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C13" s="6" t="s">
         <v>1984</v>
       </c>
@@ -13650,7 +13702,15 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E14" s="6" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C15" s="6" t="s">
         <v>1986</v>
       </c>
@@ -13658,13 +13718,13 @@
         <v>1987</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>2187</v>
+        <v>2190</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>2186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C16" s="6" t="s">
         <v>1980</v>
       </c>
@@ -13672,13 +13732,13 @@
         <v>1981</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>2135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C17" s="6" t="s">
         <v>1988</v>
       </c>
@@ -13686,13 +13746,13 @@
         <v>1989</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>2190</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C18" s="6" t="s">
         <v>1990</v>
       </c>
@@ -13700,7 +13760,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C19" s="6" t="s">
         <v>1993</v>
       </c>
@@ -13708,13 +13768,13 @@
         <v>1992</v>
       </c>
       <c r="E19" s="6" t="s">
+        <v>2135</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>2136</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>2137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C20" s="6" t="s">
         <v>1994</v>
       </c>
@@ -13722,12 +13782,12 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E21" s="6" t="s">
-        <v>2153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C22" s="6" t="s">
         <v>1998</v>
       </c>
@@ -13735,13 +13795,13 @@
         <v>1995</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>2158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C23" s="6" t="s">
         <v>1996</v>
       </c>
@@ -13749,141 +13809,141 @@
         <v>1997</v>
       </c>
       <c r="E23" s="6" t="s">
+        <v>2154</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E24" s="6" t="s">
         <v>2155</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>2159</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="E24" s="6" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E25" s="6" t="s">
         <v>2156</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F25" s="6" t="s">
         <v>2160</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="E25" s="6" t="s">
-        <v>2157</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>2161</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C26" s="6" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>2004</v>
       </c>
       <c r="E26" s="6" t="s">
+        <v>2161</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>2162</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>2163</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C27" s="6" t="s">
+        <v>2140</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>2141</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>2142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C28" s="6" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>2005</v>
       </c>
       <c r="E28" s="6" t="s">
+        <v>2163</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>2164</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>2165</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C29" s="6" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>2006</v>
       </c>
       <c r="E29" s="6" t="s">
+        <v>2165</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>2166</v>
       </c>
-      <c r="F29" s="6" t="s">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C30" s="6" t="s">
+        <v>2142</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>2144</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>2167</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="C30" s="6" t="s">
-        <v>2143</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>2145</v>
-      </c>
-      <c r="E30" s="6" t="s">
+      <c r="F30" s="6" t="s">
         <v>2168</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>2169</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
         <v>2007</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>2146</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
         <v>2008</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>1999</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>2172</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C33" s="6" t="s">
         <v>2000</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>2173</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C34" s="6" t="s">
         <v>2001</v>
       </c>
@@ -13891,7 +13951,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="35" spans="3:6">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C35" s="6" t="s">
         <v>2002</v>
       </c>
@@ -13899,39 +13959,39 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="37" spans="3:6">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C37" s="6" t="s">
+        <v>2175</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C38" s="6" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>2176</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>2179</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6">
-      <c r="C38" s="6" t="s">
-        <v>2152</v>
-      </c>
-      <c r="D38" s="6" t="s">
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C39" s="6" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>2177</v>
       </c>
     </row>
-    <row r="39" spans="3:6">
-      <c r="C39" s="6" t="s">
-        <v>2151</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>2178</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C40" s="6" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>2058</v>
       </c>
     </row>
-    <row r="44" spans="3:6">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C44" s="6" t="s">
         <v>2009</v>
       </c>
@@ -13939,15 +13999,15 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="45" spans="3:6">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C45" s="6" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>2011</v>
       </c>
     </row>
-    <row r="47" spans="3:6">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C47" s="6" t="s">
         <v>2013</v>
       </c>
@@ -13955,7 +14015,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="49" spans="3:4">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C49" s="6" t="s">
         <v>2133</v>
       </c>
@@ -13978,478 +14038,478 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="79.5" style="29" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="29" t="s">
         <v>2060</v>
       </c>
       <c r="B1" s="29"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="29" t="s">
         <v>2061</v>
       </c>
       <c r="B2" s="29"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="29" t="s">
         <v>2062</v>
       </c>
       <c r="B3" s="29"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="29" t="s">
         <v>2063</v>
       </c>
       <c r="B4" s="29"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="29" t="s">
         <v>2064</v>
       </c>
       <c r="B5" s="29"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="29" t="s">
         <v>2059</v>
       </c>
       <c r="B6" s="29"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="29" t="s">
         <v>2065</v>
       </c>
       <c r="B7" s="29"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" s="29"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B9" s="29"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="29" t="s">
         <v>2066</v>
       </c>
       <c r="B10" s="29"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="29" t="s">
         <v>2067</v>
       </c>
       <c r="B11" s="29"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="29" t="s">
         <v>2068</v>
       </c>
       <c r="B12" s="29"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="29" t="s">
         <v>2069</v>
       </c>
       <c r="B13" s="29"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="29" t="s">
         <v>2070</v>
       </c>
       <c r="B14" s="29"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="29" t="s">
         <v>2071</v>
       </c>
       <c r="B15" s="29"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="29" t="s">
         <v>2072</v>
       </c>
       <c r="B16" s="29"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="29" t="s">
         <v>2073</v>
       </c>
       <c r="B17" s="29"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="29" t="s">
         <v>2074</v>
       </c>
       <c r="B18" s="29"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="29" t="s">
         <v>2075</v>
       </c>
       <c r="B19" s="29"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="29" t="s">
         <v>2076</v>
       </c>
       <c r="B20" s="29"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="29" t="s">
         <v>2077</v>
       </c>
       <c r="B21" s="29"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="29" t="s">
         <v>2078</v>
       </c>
       <c r="B22" s="29"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="29" t="s">
         <v>2079</v>
       </c>
       <c r="B23" s="29"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="29" t="s">
         <v>2080</v>
       </c>
       <c r="B24" s="29"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="29" t="s">
         <v>2081</v>
       </c>
       <c r="B25" s="29"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="29" t="s">
         <v>2082</v>
       </c>
       <c r="B26" s="29"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="29" t="s">
         <v>2083</v>
       </c>
       <c r="B27" s="29"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="29" t="s">
         <v>2084</v>
       </c>
       <c r="B28" s="29"/>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="29" t="s">
         <v>2085</v>
       </c>
       <c r="B29" s="29"/>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="29" t="s">
         <v>2086</v>
       </c>
       <c r="B30" s="29"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="29" t="s">
         <v>2087</v>
       </c>
       <c r="B31" s="29"/>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="29" t="s">
         <v>2088</v>
       </c>
       <c r="B32" s="29"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="29" t="s">
         <v>2089</v>
       </c>
       <c r="B33" s="29"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="29" t="s">
         <v>2090</v>
       </c>
       <c r="B34" s="29"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="29" t="s">
         <v>2091</v>
       </c>
       <c r="B35" s="29"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="29" t="s">
         <v>2092</v>
       </c>
       <c r="B36" s="29"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="29" t="s">
         <v>2093</v>
       </c>
       <c r="B37" s="29"/>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="29" t="s">
         <v>2094</v>
       </c>
       <c r="B38" s="29"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="29" t="s">
         <v>2095</v>
       </c>
       <c r="B39" s="29"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="29" t="s">
         <v>2096</v>
       </c>
       <c r="B40" s="29"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="29" t="s">
         <v>2097</v>
       </c>
       <c r="B41" s="29"/>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="29" t="s">
         <v>2098</v>
       </c>
       <c r="B42" s="29"/>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="29" t="s">
         <v>2099</v>
       </c>
       <c r="B43" s="29"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="29" t="s">
         <v>2100</v>
       </c>
       <c r="B44" s="29"/>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="29" t="s">
         <v>2101</v>
       </c>
       <c r="B45" s="29"/>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="29" t="s">
         <v>2102</v>
       </c>
       <c r="B46" s="29"/>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="29" t="s">
         <v>2103</v>
       </c>
       <c r="B47" s="29"/>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="29" t="s">
         <v>2104</v>
       </c>
       <c r="B48" s="29"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="29" t="s">
         <v>2105</v>
       </c>
       <c r="B49" s="29"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="29" t="s">
         <v>2106</v>
       </c>
       <c r="B50" s="29"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="29" t="s">
         <v>2107</v>
       </c>
       <c r="B51" s="29"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B52" s="29"/>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="29" t="s">
         <v>2108</v>
       </c>
       <c r="B53" s="29"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="29" t="s">
         <v>2109</v>
       </c>
       <c r="B54" s="29"/>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="29" t="s">
         <v>2110</v>
       </c>
       <c r="B55" s="29"/>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="29" t="s">
         <v>2111</v>
       </c>
       <c r="B56" s="29"/>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="29" t="s">
         <v>2112</v>
       </c>
       <c r="B57" s="29"/>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="29" t="s">
         <v>2113</v>
       </c>
       <c r="B58" s="29"/>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="29" t="s">
         <v>2114</v>
       </c>
       <c r="B59" s="29"/>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="29" t="s">
         <v>2115</v>
       </c>
       <c r="B60" s="29"/>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="29" t="s">
         <v>2116</v>
       </c>
       <c r="B61" s="29"/>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="29" t="s">
         <v>2117</v>
       </c>
       <c r="B62" s="29"/>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="29" t="s">
         <v>2118</v>
       </c>
       <c r="B63" s="29"/>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="29" t="s">
         <v>2119</v>
       </c>
       <c r="B64" s="29"/>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="29" t="s">
         <v>2120</v>
       </c>
       <c r="B65" s="29"/>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="29" t="s">
         <v>2121</v>
       </c>
       <c r="B66" s="29"/>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="29" t="s">
         <v>2122</v>
       </c>
       <c r="B67" s="29"/>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="29" t="s">
         <v>2123</v>
       </c>
       <c r="B68" s="29"/>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="29" t="s">
         <v>2124</v>
       </c>
       <c r="B69" s="29"/>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="29" t="s">
         <v>2125</v>
       </c>
       <c r="B70" s="29"/>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="29" t="s">
         <v>2126</v>
       </c>
       <c r="B71" s="29"/>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="29" t="s">
         <v>2127</v>
       </c>
       <c r="B72" s="29"/>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="29" t="s">
         <v>2069</v>
       </c>
       <c r="B73" s="29"/>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="29" t="s">
         <v>2128</v>
       </c>
       <c r="B74" s="29"/>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="29" t="s">
         <v>2129</v>
       </c>
       <c r="B75" s="29"/>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="29" t="s">
         <v>2130</v>
       </c>
       <c r="B76" s="29"/>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="29" t="s">
         <v>2095</v>
       </c>
       <c r="B77" s="29"/>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="29" t="s">
         <v>2105</v>
       </c>
       <c r="B78" s="29"/>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="29" t="s">
         <v>2131</v>
       </c>
       <c r="B79" s="29"/>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="29" t="s">
         <v>2132</v>
       </c>
@@ -14473,7 +14533,7 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.875" style="22" customWidth="1"/>
     <col min="2" max="2" width="13.125" style="22" bestFit="1" customWidth="1"/>
@@ -14494,7 +14554,7 @@
     <col min="17" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
         <v>271</v>
       </c>
@@ -14526,7 +14586,7 @@
       </c>
       <c r="N1" s="21"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="23" t="s">
         <v>292</v>
       </c>
@@ -14562,7 +14622,7 @@
       </c>
       <c r="N2" s="23"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="23" t="s">
         <v>293</v>
       </c>
@@ -14596,7 +14656,7 @@
       </c>
       <c r="N3" s="23"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="23" t="s">
         <v>294</v>
       </c>
@@ -14632,7 +14692,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
         <v>295</v>
       </c>
@@ -14668,7 +14728,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="23" t="s">
         <v>296</v>
       </c>
@@ -14704,7 +14764,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="23" t="s">
         <v>297</v>
       </c>
@@ -14742,7 +14802,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="23" t="s">
         <v>298</v>
       </c>
@@ -14778,7 +14838,7 @@
       </c>
       <c r="N8" s="23"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="23" t="s">
         <v>299</v>
       </c>
@@ -14810,7 +14870,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="23" t="s">
         <v>300</v>
       </c>
@@ -14842,7 +14902,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="23" t="s">
         <v>306</v>
       </c>
@@ -14878,7 +14938,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="23"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23" t="s">
@@ -14908,7 +14968,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="23"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23" t="s">
@@ -14942,7 +15002,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="23"/>
       <c r="B14" s="23"/>
       <c r="C14" s="23" t="s">
@@ -14972,7 +15032,7 @@
       </c>
       <c r="N14" s="23"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="21" t="s">
         <v>289</v>
       </c>
@@ -15000,7 +15060,7 @@
       </c>
       <c r="N15" s="23"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="23" t="s">
         <v>502</v>
       </c>
@@ -15032,7 +15092,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="23" t="s">
         <v>512</v>
       </c>
@@ -15068,7 +15128,7 @@
       </c>
       <c r="N17" s="23"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="23" t="s">
         <v>503</v>
       </c>
@@ -15102,7 +15162,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="23" t="s">
         <v>504</v>
       </c>
@@ -15134,7 +15194,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="23" t="s">
         <v>505</v>
       </c>
@@ -15172,7 +15232,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="23" t="s">
         <v>506</v>
       </c>
@@ -15210,7 +15270,7 @@
       </c>
       <c r="N21" s="23"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="23" t="s">
         <v>507</v>
       </c>
@@ -15250,7 +15310,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="23" t="s">
         <v>508</v>
       </c>
@@ -15286,7 +15346,7 @@
       </c>
       <c r="N23" s="23"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="23" t="s">
         <v>509</v>
       </c>
@@ -15320,7 +15380,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="23" t="s">
         <v>510</v>
       </c>
@@ -15350,7 +15410,7 @@
       </c>
       <c r="N25" s="23"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="23"/>
       <c r="B26" s="23"/>
       <c r="C26" s="23" t="s">
@@ -15384,7 +15444,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="23"/>
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
@@ -15416,7 +15476,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="23"/>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
@@ -15440,7 +15500,7 @@
       <c r="M28" s="23"/>
       <c r="N28" s="23"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="21" t="s">
         <v>285</v>
       </c>
@@ -15468,7 +15528,7 @@
       <c r="M29" s="23"/>
       <c r="N29" s="23"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="23" t="s">
         <v>623</v>
       </c>
@@ -15502,7 +15562,7 @@
       <c r="M30" s="23"/>
       <c r="N30" s="23"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="23" t="s">
         <v>624</v>
       </c>
@@ -15536,7 +15596,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="23" t="s">
         <v>625</v>
       </c>
@@ -15568,7 +15628,7 @@
       </c>
       <c r="N32" s="23"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="23" t="s">
         <v>627</v>
       </c>
@@ -15602,7 +15662,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="23" t="s">
         <v>628</v>
       </c>
@@ -15636,7 +15696,7 @@
       </c>
       <c r="N34" s="23"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="23" t="s">
         <v>629</v>
       </c>
@@ -15676,7 +15736,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="23" t="s">
         <v>630</v>
       </c>
@@ -15712,7 +15772,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="23" t="s">
         <v>631</v>
       </c>
@@ -15744,7 +15804,7 @@
       </c>
       <c r="N37" s="23"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="23" t="s">
         <v>643</v>
       </c>
@@ -15772,7 +15832,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="23" t="s">
         <v>632</v>
       </c>
@@ -15798,7 +15858,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="23" t="s">
         <v>633</v>
       </c>
@@ -15822,7 +15882,7 @@
       </c>
       <c r="N40" s="23"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="23" t="s">
         <v>634</v>
       </c>
@@ -15850,7 +15910,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="23" t="s">
         <v>635</v>
       </c>
@@ -15876,7 +15936,7 @@
       </c>
       <c r="N42" s="23"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="23" t="s">
         <v>636</v>
       </c>
@@ -15904,7 +15964,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="23" t="s">
         <v>637</v>
       </c>
@@ -15930,7 +15990,7 @@
       </c>
       <c r="N44" s="23"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="23" t="s">
         <v>638</v>
       </c>
@@ -15952,7 +16012,7 @@
       </c>
       <c r="N45" s="23"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="23" t="s">
         <v>639</v>
       </c>
@@ -15978,7 +16038,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="23"/>
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
@@ -15998,7 +16058,7 @@
       </c>
       <c r="N47" s="23"/>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="23"/>
       <c r="B48" s="23"/>
       <c r="C48" s="23"/>
@@ -16020,7 +16080,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="23"/>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -16053,7 +16113,7 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.625" style="6" customWidth="1"/>
     <col min="2" max="2" width="10.375" style="6" customWidth="1"/>
@@ -16067,7 +16127,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -16105,7 +16165,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -16143,7 +16203,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -16181,7 +16241,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -16219,7 +16279,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -16257,7 +16317,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -16289,7 +16349,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
@@ -16321,7 +16381,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
@@ -16353,7 +16413,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
@@ -16385,7 +16445,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
@@ -16417,7 +16477,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
@@ -16449,7 +16509,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
@@ -16481,7 +16541,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
@@ -16513,7 +16573,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>25</v>
       </c>
@@ -16545,7 +16605,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>27</v>
       </c>
@@ -16577,7 +16637,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>28</v>
       </c>
@@ -16609,7 +16669,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>31</v>
       </c>
@@ -16641,7 +16701,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>96</v>
       </c>
@@ -16673,7 +16733,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>97</v>
       </c>
@@ -16705,7 +16765,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>99</v>
       </c>
@@ -16737,7 +16797,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
         <v>102</v>
       </c>
@@ -16769,7 +16829,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
         <v>104</v>
       </c>
@@ -16801,7 +16861,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
         <v>106</v>
       </c>
@@ -16833,7 +16893,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
         <v>107</v>
       </c>
@@ -16865,7 +16925,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
         <v>109</v>
       </c>
@@ -16897,7 +16957,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
         <v>111</v>
       </c>
@@ -16929,7 +16989,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
         <v>113</v>
       </c>
@@ -16961,7 +17021,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
         <v>115</v>
       </c>
@@ -16993,7 +17053,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
         <v>116</v>
       </c>
@@ -17025,7 +17085,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
         <v>119</v>
       </c>
@@ -17057,7 +17117,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
         <v>120</v>
       </c>
@@ -17089,7 +17149,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
         <v>123</v>
       </c>
@@ -17121,7 +17181,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
         <v>124</v>
       </c>
@@ -17153,7 +17213,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
         <v>127</v>
       </c>
@@ -17185,7 +17245,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
         <v>129</v>
       </c>
@@ -17217,7 +17277,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
         <v>131</v>
       </c>
@@ -17249,7 +17309,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
         <v>133</v>
       </c>
@@ -17281,7 +17341,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
         <v>135</v>
       </c>
@@ -17313,7 +17373,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="6" t="s">
         <v>137</v>
       </c>
@@ -17345,7 +17405,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="6" t="s">
         <v>139</v>
       </c>
@@ -17377,7 +17437,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
         <v>140</v>
       </c>
@@ -17409,7 +17469,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="6" t="s">
         <v>142</v>
       </c>
@@ -17441,7 +17501,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
         <v>145</v>
       </c>
@@ -17473,7 +17533,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="6" t="s">
         <v>147</v>
       </c>
@@ -17505,7 +17565,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="6" t="s">
         <v>149</v>
       </c>
@@ -17537,7 +17597,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="6" t="s">
         <v>151</v>
       </c>
@@ -17569,7 +17629,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
         <v>153</v>
       </c>
@@ -17601,7 +17661,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
         <v>157</v>
       </c>
@@ -17633,7 +17693,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
         <v>159</v>
       </c>
@@ -17665,7 +17725,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
         <v>161</v>
       </c>
@@ -17697,7 +17757,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="6" t="s">
         <v>163</v>
       </c>
@@ -17729,7 +17789,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="6" t="s">
         <v>165</v>
       </c>
@@ -17761,7 +17821,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="6" t="s">
         <v>167</v>
       </c>
@@ -17793,7 +17853,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="6" t="s">
         <v>169</v>
       </c>
@@ -17825,7 +17885,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="6" t="s">
         <v>171</v>
       </c>
@@ -17857,7 +17917,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
         <v>173</v>
       </c>
@@ -17889,7 +17949,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
         <v>176</v>
       </c>
@@ -17921,7 +17981,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="6" t="s">
         <v>178</v>
       </c>
@@ -17953,7 +18013,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="6" t="s">
         <v>180</v>
       </c>

--- a/MachineSettings/keys.xlsx
+++ b/MachineSettings/keys.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="2199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="2207">
   <si>
     <t>exposure</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -7737,645 +7737,713 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>向右拆分复制编辑器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签切换左</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签切换右</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>左移标签</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>右移标签</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建文件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建文件夹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>开新外部终端</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt shift  k</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签切换</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新所有更改链接</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接对象</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新链接到新文件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3key 0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3key -</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3key =</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩小选区</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩大选区</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift F3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮廓描边</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>变换</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择相同色边</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏边缘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏画板</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift F1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift F7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift F8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl F8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift F6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl F6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>置入</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>画板</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl F1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏参考线</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3key /</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容识别填充</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接媒体</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>guide layer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl alt g</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出选中的剪辑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列化图层</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOLO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>栅格图层</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源管理器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一旦选定cell，可以批量删除/拷贝/剪切/粘贴/运行。当你需要移动notebook的一部分时这个很有用。</t>
+  </si>
+  <si>
+    <t>Esc + F 在代码中查找、替换，忽略输出。</t>
+  </si>
+  <si>
+    <t>Esc + O 在cell和输出结果间切换。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">选择多个cell: </t>
+  </si>
+  <si>
+    <t>Shift + J 或 Shift + Down 选择下一个cell。</t>
+  </si>
+  <si>
+    <t>Shift + K 或 Shift + Up 选择上一个cell。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shift + M 合并cell. </t>
+  </si>
+  <si>
+    <t>命令模式 (按键 Esc 开启)</t>
+  </si>
+  <si>
+    <t>Enter : 转入编辑模式</t>
+  </si>
+  <si>
+    <t>Shift-Enter : 运行本单元，选中下个单元</t>
+  </si>
+  <si>
+    <t>Ctrl-Enter : 运行本单元</t>
+  </si>
+  <si>
+    <t>Alt-Enter : 运行本单元，在其下插入新单元</t>
+  </si>
+  <si>
+    <t>Y : 单元转入代码状态</t>
+  </si>
+  <si>
+    <t>M :单元转入markdown状态</t>
+  </si>
+  <si>
+    <t>R : 单元转入raw状态</t>
+  </si>
+  <si>
+    <t>1 : 设定 1 级标题</t>
+  </si>
+  <si>
+    <t>2 : 设定 2 级标题</t>
+  </si>
+  <si>
+    <t>3 : 设定 3 级标题</t>
+  </si>
+  <si>
+    <t>4 : 设定 4 级标题</t>
+  </si>
+  <si>
+    <t>5 : 设定 5 级标题</t>
+  </si>
+  <si>
+    <t>6 : 设定 6 级标题</t>
+  </si>
+  <si>
+    <t>Up : 选中上方单元</t>
+  </si>
+  <si>
+    <t>K : 选中上方单元</t>
+  </si>
+  <si>
+    <t>Down : 选中下方单元</t>
+  </si>
+  <si>
+    <t>J : 选中下方单元</t>
+  </si>
+  <si>
+    <t>Shift-K : 扩大选中上方单元</t>
+  </si>
+  <si>
+    <t>Shift-J : 扩大选中下方单元</t>
+  </si>
+  <si>
+    <t>A : 在上方插入新单元</t>
+  </si>
+  <si>
+    <t>B : 在下方插入新单元</t>
+  </si>
+  <si>
+    <t>X : 剪切选中的单元</t>
+  </si>
+  <si>
+    <t>C : 复制选中的单元</t>
+  </si>
+  <si>
+    <t>Shift-V : 粘贴到上方单元</t>
+  </si>
+  <si>
+    <t>V : 粘贴到下方单元</t>
+  </si>
+  <si>
+    <t>Z : 恢复删除的最后一个单元</t>
+  </si>
+  <si>
+    <t>D,D : 删除选中的单元</t>
+  </si>
+  <si>
+    <t>Shift-M : 合并选中的单元</t>
+  </si>
+  <si>
+    <t>Ctrl-S : 文件存盘</t>
+  </si>
+  <si>
+    <t>S : 文件存盘</t>
+  </si>
+  <si>
+    <t>L : 转换行号</t>
+  </si>
+  <si>
+    <t>O : 转换输出</t>
+  </si>
+  <si>
+    <t>Shift-O : 转换输出滚动</t>
+  </si>
+  <si>
+    <t>Esc : 关闭页面</t>
+  </si>
+  <si>
+    <t>Q : 关闭页面</t>
+  </si>
+  <si>
+    <t>H : 显示快捷键帮助</t>
+  </si>
+  <si>
+    <t>I,I : 中断Notebook内核</t>
+  </si>
+  <si>
+    <t>0,0 : 重启Notebook内核</t>
+  </si>
+  <si>
+    <t>Shift : 忽略</t>
+  </si>
+  <si>
+    <t>Shift-Space : 向上滚动</t>
+  </si>
+  <si>
+    <t>Space : 向下滚动</t>
+  </si>
+  <si>
+    <t>编辑模式 ( Enter 键启动)</t>
+  </si>
+  <si>
+    <t>Tab : 代码补全或缩进</t>
+  </si>
+  <si>
+    <t>Shift-Tab : 提示</t>
+  </si>
+  <si>
+    <t>Ctrl-] : 缩进</t>
+  </si>
+  <si>
+    <t>Ctrl-[ : 解除缩进</t>
+  </si>
+  <si>
+    <t>Ctrl-A : 全选</t>
+  </si>
+  <si>
+    <t>Ctrl-Z : 复原</t>
+  </si>
+  <si>
+    <t>Ctrl-Shift-Z : 再做</t>
+  </si>
+  <si>
+    <t>Ctrl-Y : 再做</t>
+  </si>
+  <si>
+    <t>Ctrl-Home : 跳到单元开头</t>
+  </si>
+  <si>
+    <t>Ctrl-Up : 跳到单元开头</t>
+  </si>
+  <si>
+    <t>Ctrl-End : 跳到单元末尾</t>
+  </si>
+  <si>
+    <t>Ctrl-Down : 跳到单元末尾</t>
+  </si>
+  <si>
+    <t>Ctrl-Left : 跳到左边一个字首</t>
+  </si>
+  <si>
+    <t>Ctrl-Right : 跳到右边一个字首</t>
+  </si>
+  <si>
+    <t>Ctrl-Backspace : 删除前面一个字</t>
+  </si>
+  <si>
+    <t>Ctrl-Delete : 删除后面一个字</t>
+  </si>
+  <si>
+    <t>Esc : 进入命令模式</t>
+  </si>
+  <si>
+    <t>Ctrl-M : 进入命令模式</t>
+  </si>
+  <si>
+    <t>Shift-Enter : 运行本单元，选中下一单元</t>
+  </si>
+  <si>
+    <t>Alt-Enter : 运行本单元，在下面插入一单元</t>
+  </si>
+  <si>
+    <t>Ctrl-Shift-- : 分割单元</t>
+  </si>
+  <si>
+    <t>Ctrl-Shift-Subtract : 分割单元</t>
+  </si>
+  <si>
+    <t>Up : 光标上移或转入上一单元</t>
+  </si>
+  <si>
+    <t>Down :光标下移或转入下一单元</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ctrl space</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码提示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl space</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示提示完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt \</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt &lt;-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt -&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl alt \</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消所有组-合并</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt [</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt [</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳入左组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳入右组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>左移标签</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>右移标签</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt shift ctrl j</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt 2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pycharm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt 2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt 0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt 9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ipython运行窗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>document</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sciView</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>esc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>退回编辑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt -</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>折叠/展开选中块</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl +/-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>折叠/展开</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift ctrl +/-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部 折叠/展开</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift enter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt shift enter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下开新行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上开新行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift f3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt `</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl `</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦点在编辑器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦点在终端</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>侧栏显示切换</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl u</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl i</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt shift enter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt shift ctrl insert</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>列模式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt shift j</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt shift i</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt shift l</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt shift k</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上下左右</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>home/end</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>page up/down</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt ikjl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt h;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>altl um</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>ctrl shift p /f1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>向右拆分复制编辑器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签切换左</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签切换右</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>左移标签</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>右移标签</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建文件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建文件夹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>开新外部终端</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt shift  k</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签切换</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷新所有更改链接</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>链接对象</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>重新链接到新文件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3key 0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3key -</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3key =</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>缩小选区</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>扩大选区</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shift F3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>轮廓描边</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>变换</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择相同色边</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐藏边缘</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐藏画板</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shift F1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shift F7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shift F8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl F8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shift F6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl F6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>置入</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F9</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shift 1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>画板</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl F1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐藏参考线</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3key /</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容识别填充</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>链接媒体</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>guide layer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl alt g</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出选中的剪辑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>序列化图层</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOLO</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>栅格图层</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源管理器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一旦选定cell，可以批量删除/拷贝/剪切/粘贴/运行。当你需要移动notebook的一部分时这个很有用。</t>
-  </si>
-  <si>
-    <t>Esc + F 在代码中查找、替换，忽略输出。</t>
-  </si>
-  <si>
-    <t>Esc + O 在cell和输出结果间切换。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">选择多个cell: </t>
-  </si>
-  <si>
-    <t>Shift + J 或 Shift + Down 选择下一个cell。</t>
-  </si>
-  <si>
-    <t>Shift + K 或 Shift + Up 选择上一个cell。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shift + M 合并cell. </t>
-  </si>
-  <si>
-    <t>命令模式 (按键 Esc 开启)</t>
-  </si>
-  <si>
-    <t>Enter : 转入编辑模式</t>
-  </si>
-  <si>
-    <t>Shift-Enter : 运行本单元，选中下个单元</t>
-  </si>
-  <si>
-    <t>Ctrl-Enter : 运行本单元</t>
-  </si>
-  <si>
-    <t>Alt-Enter : 运行本单元，在其下插入新单元</t>
-  </si>
-  <si>
-    <t>Y : 单元转入代码状态</t>
-  </si>
-  <si>
-    <t>M :单元转入markdown状态</t>
-  </si>
-  <si>
-    <t>R : 单元转入raw状态</t>
-  </si>
-  <si>
-    <t>1 : 设定 1 级标题</t>
-  </si>
-  <si>
-    <t>2 : 设定 2 级标题</t>
-  </si>
-  <si>
-    <t>3 : 设定 3 级标题</t>
-  </si>
-  <si>
-    <t>4 : 设定 4 级标题</t>
-  </si>
-  <si>
-    <t>5 : 设定 5 级标题</t>
-  </si>
-  <si>
-    <t>6 : 设定 6 级标题</t>
-  </si>
-  <si>
-    <t>Up : 选中上方单元</t>
-  </si>
-  <si>
-    <t>K : 选中上方单元</t>
-  </si>
-  <si>
-    <t>Down : 选中下方单元</t>
-  </si>
-  <si>
-    <t>J : 选中下方单元</t>
-  </si>
-  <si>
-    <t>Shift-K : 扩大选中上方单元</t>
-  </si>
-  <si>
-    <t>Shift-J : 扩大选中下方单元</t>
-  </si>
-  <si>
-    <t>A : 在上方插入新单元</t>
-  </si>
-  <si>
-    <t>B : 在下方插入新单元</t>
-  </si>
-  <si>
-    <t>X : 剪切选中的单元</t>
-  </si>
-  <si>
-    <t>C : 复制选中的单元</t>
-  </si>
-  <si>
-    <t>Shift-V : 粘贴到上方单元</t>
-  </si>
-  <si>
-    <t>V : 粘贴到下方单元</t>
-  </si>
-  <si>
-    <t>Z : 恢复删除的最后一个单元</t>
-  </si>
-  <si>
-    <t>D,D : 删除选中的单元</t>
-  </si>
-  <si>
-    <t>Shift-M : 合并选中的单元</t>
-  </si>
-  <si>
-    <t>Ctrl-S : 文件存盘</t>
-  </si>
-  <si>
-    <t>S : 文件存盘</t>
-  </si>
-  <si>
-    <t>L : 转换行号</t>
-  </si>
-  <si>
-    <t>O : 转换输出</t>
-  </si>
-  <si>
-    <t>Shift-O : 转换输出滚动</t>
-  </si>
-  <si>
-    <t>Esc : 关闭页面</t>
-  </si>
-  <si>
-    <t>Q : 关闭页面</t>
-  </si>
-  <si>
-    <t>H : 显示快捷键帮助</t>
-  </si>
-  <si>
-    <t>I,I : 中断Notebook内核</t>
-  </si>
-  <si>
-    <t>0,0 : 重启Notebook内核</t>
-  </si>
-  <si>
-    <t>Shift : 忽略</t>
-  </si>
-  <si>
-    <t>Shift-Space : 向上滚动</t>
-  </si>
-  <si>
-    <t>Space : 向下滚动</t>
-  </si>
-  <si>
-    <t>编辑模式 ( Enter 键启动)</t>
-  </si>
-  <si>
-    <t>Tab : 代码补全或缩进</t>
-  </si>
-  <si>
-    <t>Shift-Tab : 提示</t>
-  </si>
-  <si>
-    <t>Ctrl-] : 缩进</t>
-  </si>
-  <si>
-    <t>Ctrl-[ : 解除缩进</t>
-  </si>
-  <si>
-    <t>Ctrl-A : 全选</t>
-  </si>
-  <si>
-    <t>Ctrl-Z : 复原</t>
-  </si>
-  <si>
-    <t>Ctrl-Shift-Z : 再做</t>
-  </si>
-  <si>
-    <t>Ctrl-Y : 再做</t>
-  </si>
-  <si>
-    <t>Ctrl-Home : 跳到单元开头</t>
-  </si>
-  <si>
-    <t>Ctrl-Up : 跳到单元开头</t>
-  </si>
-  <si>
-    <t>Ctrl-End : 跳到单元末尾</t>
-  </si>
-  <si>
-    <t>Ctrl-Down : 跳到单元末尾</t>
-  </si>
-  <si>
-    <t>Ctrl-Left : 跳到左边一个字首</t>
-  </si>
-  <si>
-    <t>Ctrl-Right : 跳到右边一个字首</t>
-  </si>
-  <si>
-    <t>Ctrl-Backspace : 删除前面一个字</t>
-  </si>
-  <si>
-    <t>Ctrl-Delete : 删除后面一个字</t>
-  </si>
-  <si>
-    <t>Esc : 进入命令模式</t>
-  </si>
-  <si>
-    <t>Ctrl-M : 进入命令模式</t>
-  </si>
-  <si>
-    <t>Shift-Enter : 运行本单元，选中下一单元</t>
-  </si>
-  <si>
-    <t>Alt-Enter : 运行本单元，在下面插入一单元</t>
-  </si>
-  <si>
-    <t>Ctrl-Shift-- : 分割单元</t>
-  </si>
-  <si>
-    <t>Ctrl-Shift-Subtract : 分割单元</t>
-  </si>
-  <si>
-    <t>Up : 光标上移或转入上一单元</t>
-  </si>
-  <si>
-    <t>Down :光标下移或转入下一单元</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ctrl space</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码提示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl space</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示提示完成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt \</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt &lt;-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt -&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl alt \</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消所有组-合并</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt [</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt [</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳入左组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳入右组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>左移标签</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>右移标签</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt j</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt shift ctrl j</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt 2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt 1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pycharm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt 1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt 2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt 0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt 9</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ipython运行窗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>document</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sciView</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>esc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>退回编辑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt -</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>折叠/展开选中块</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl +/-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>折叠/展开</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shift ctrl +/-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部 折叠/展开</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shift enter</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt shift enter</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>下开新行</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>上开新行</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shift f3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt `</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl `</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦点在编辑器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦点在终端</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>侧栏显示切换</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl u</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl i</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt shift enter</t>
+    <t>ctrl l</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl j</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -8383,67 +8451,31 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>alt shift ctrl insert</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>列模式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt shift j</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt shift i</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt shift l</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt shift k</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>上下左右</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>home/end</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>page up/down</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl ikjl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl h;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl um</t>
+    <t>alt shift del</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除到行尾</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除到行首</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt d</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt s</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>backspace</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -8451,7 +8483,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8997,7 +9029,7 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="7.75" style="6" customWidth="1"/>
@@ -9011,7 +9043,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="17" customFormat="1">
       <c r="A1" s="17" t="s">
         <v>93</v>
       </c>
@@ -9028,7 +9060,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
         <v>33</v>
       </c>
@@ -9060,7 +9092,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" s="6" t="s">
         <v>39</v>
       </c>
@@ -9086,7 +9118,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
@@ -9106,7 +9138,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" s="6" t="s">
         <v>42</v>
       </c>
@@ -9138,7 +9170,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" s="6" t="s">
         <v>43</v>
       </c>
@@ -9164,7 +9196,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" s="6" t="s">
         <v>48</v>
       </c>
@@ -9196,7 +9228,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" s="6" t="s">
         <v>47</v>
       </c>
@@ -9222,7 +9254,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9" s="6" t="s">
         <v>50</v>
       </c>
@@ -9254,7 +9286,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" s="6" t="s">
         <v>41</v>
       </c>
@@ -9280,7 +9312,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" s="6" t="s">
         <v>55</v>
       </c>
@@ -9312,7 +9344,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" s="6" t="s">
         <v>60</v>
       </c>
@@ -9338,7 +9370,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" s="6" t="s">
         <v>61</v>
       </c>
@@ -9358,12 +9390,12 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" s="6" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>2053</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>2054</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>35</v>
@@ -9390,7 +9422,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" s="6" t="s">
         <v>1133</v>
       </c>
@@ -9422,7 +9454,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16" s="6" t="s">
         <v>1174</v>
       </c>
@@ -9448,7 +9480,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10">
       <c r="C17" s="7" t="s">
         <v>1137</v>
       </c>
@@ -9462,7 +9494,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10">
       <c r="A18" s="6" t="s">
         <v>1188</v>
       </c>
@@ -9488,7 +9520,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10">
       <c r="A19" s="6" t="s">
         <v>1190</v>
       </c>
@@ -9508,7 +9540,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="C20" s="7" t="s">
         <v>1122</v>
       </c>
@@ -9534,7 +9566,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="A21" s="6" t="s">
         <v>1589</v>
       </c>
@@ -9560,7 +9592,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="A22" s="6" t="s">
         <v>1623</v>
       </c>
@@ -9574,7 +9606,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10">
       <c r="A23" s="6" t="s">
         <v>1352</v>
       </c>
@@ -9600,7 +9632,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10">
       <c r="A25" s="6" t="s">
         <v>1595</v>
       </c>
@@ -9626,7 +9658,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10">
       <c r="A26" s="6" t="s">
         <v>1940</v>
       </c>
@@ -9652,7 +9684,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10">
       <c r="E27" s="7" t="s">
         <v>1166</v>
       </c>
@@ -9666,7 +9698,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10">
       <c r="A28" s="6" t="s">
         <v>1952</v>
       </c>
@@ -9686,7 +9718,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10">
       <c r="A29" s="6" t="s">
         <v>1958</v>
       </c>
@@ -9694,7 +9726,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10">
       <c r="A31" s="6" t="s">
         <v>1960</v>
       </c>
@@ -9702,7 +9734,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:2">
       <c r="B33" s="6" t="s">
         <v>1353</v>
       </c>
@@ -9722,33 +9754,33 @@
       <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="136.75" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="136.75" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="136.75" style="2"/>
     <col min="2" max="16384" width="136.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" ht="22.5">
       <c r="A1" s="2" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" ht="22.5">
       <c r="A2" s="2" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="24" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" ht="33.75">
       <c r="A3" s="2" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="24" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" ht="22.5">
       <c r="A4" s="2" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="24" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" ht="22.5">
       <c r="A5" s="2" t="s">
         <v>935</v>
       </c>
@@ -9768,1563 +9800,1563 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="61.875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" s="3" t="s">
         <v>1625</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" s="3" t="s">
         <v>1626</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
         <v>1627</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
         <v>1628</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1">
       <c r="A8" s="3" t="s">
         <v>1629</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1">
       <c r="A9" s="3" t="s">
         <v>1630</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1">
       <c r="A10" s="3" t="s">
         <v>1631</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1">
       <c r="A11" s="3" t="s">
         <v>1632</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1">
       <c r="A12" s="3" t="s">
         <v>1633</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1">
       <c r="A13" s="3" t="s">
         <v>1634</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1">
       <c r="A14" s="3" t="s">
         <v>1635</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1">
       <c r="A16" s="3" t="s">
         <v>1636</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
         <v>1637</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" s="3" t="s">
         <v>1638</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" s="3" t="s">
         <v>1639</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" s="3" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" s="3" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1">
       <c r="A22" s="3" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1">
       <c r="A23" s="3" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1">
       <c r="A24" s="3" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1">
       <c r="A25" s="3" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1">
       <c r="A26" s="3" t="s">
         <v>1646</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1">
       <c r="A28" s="3" t="s">
         <v>1647</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1">
       <c r="A29" s="3" t="s">
         <v>1648</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1">
       <c r="A30" s="3" t="s">
         <v>1649</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1">
       <c r="A31" s="3" t="s">
         <v>1650</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1">
       <c r="A32" s="3" t="s">
         <v>1651</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1">
       <c r="A33" s="3" t="s">
         <v>1652</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1">
       <c r="A34" s="3" t="s">
         <v>1653</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1">
       <c r="A35" s="3" t="s">
         <v>1654</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:1">
       <c r="A36" s="3" t="s">
         <v>1655</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:1">
       <c r="A37" s="3" t="s">
         <v>1656</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:1">
       <c r="A38" s="3" t="s">
         <v>1657</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:1">
       <c r="A39" s="3" t="s">
         <v>1658</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:1">
       <c r="A40" s="3" t="s">
         <v>1659</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:1">
       <c r="A41" s="3" t="s">
         <v>1660</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:1">
       <c r="A42" s="3" t="s">
         <v>1661</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:1">
       <c r="A43" s="3" t="s">
         <v>1662</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:1">
       <c r="A44" s="3" t="s">
         <v>1663</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:1">
       <c r="A46" s="3" t="s">
         <v>1664</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:1">
       <c r="A47" s="3" t="s">
         <v>1665</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:1">
       <c r="A48" s="3" t="s">
         <v>1666</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1">
       <c r="A49" s="3" t="s">
         <v>1667</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1">
       <c r="A50" s="3" t="s">
         <v>1668</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1">
       <c r="A51" s="3" t="s">
         <v>1669</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1">
       <c r="A52" s="3" t="s">
         <v>1670</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1">
       <c r="A53" s="3" t="s">
         <v>1671</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1">
       <c r="A54" s="3" t="s">
         <v>1672</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1">
       <c r="A55" s="3" t="s">
         <v>1673</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1">
       <c r="A56" s="3" t="s">
         <v>1674</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1">
       <c r="A57" s="3" t="s">
         <v>1675</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1">
       <c r="A58" s="3" t="s">
         <v>1676</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1">
       <c r="A59" s="3" t="s">
         <v>1677</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1">
       <c r="A61" s="3" t="s">
         <v>1678</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1">
       <c r="A62" s="3" t="s">
         <v>1679</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1">
       <c r="A63" s="3" t="s">
         <v>1680</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1">
       <c r="A64" s="3" t="s">
         <v>1681</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1">
       <c r="A65" s="3" t="s">
         <v>1682</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1">
       <c r="A66" s="3" t="s">
         <v>1683</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1">
       <c r="A67" s="3" t="s">
         <v>1684</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1">
       <c r="A68" s="3" t="s">
         <v>1685</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1">
       <c r="A69" s="3" t="s">
         <v>1686</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1">
       <c r="A70" s="3" t="s">
         <v>1687</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1">
       <c r="A71" s="3" t="s">
         <v>1688</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1">
       <c r="A72" s="3" t="s">
         <v>1689</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1">
       <c r="A73" s="3" t="s">
         <v>1690</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1">
       <c r="A74" s="3" t="s">
         <v>1691</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1">
       <c r="A75" s="3" t="s">
         <v>1692</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1">
       <c r="A76" s="3" t="s">
         <v>1693</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1">
       <c r="A77" s="3" t="s">
         <v>1694</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1">
       <c r="A78" s="3" t="s">
         <v>1695</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1">
       <c r="A79" s="3" t="s">
         <v>1696</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1">
       <c r="A80" s="3" t="s">
         <v>1697</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1">
       <c r="A81" s="3" t="s">
         <v>1698</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1">
       <c r="A82" s="3" t="s">
         <v>1699</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1">
       <c r="A83" s="3" t="s">
         <v>1700</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1">
       <c r="A84" s="3" t="s">
         <v>1701</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1">
       <c r="A85" s="3" t="s">
         <v>1702</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1">
       <c r="A86" s="3" t="s">
         <v>1703</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1">
       <c r="A87" s="3" t="s">
         <v>1704</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1">
       <c r="A88" s="3" t="s">
         <v>1705</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1">
       <c r="A89" s="3" t="s">
         <v>1706</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1">
       <c r="A90" s="3" t="s">
         <v>1707</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1">
       <c r="A91" s="3" t="s">
         <v>1708</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1">
       <c r="A92" s="3" t="s">
         <v>1709</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1">
       <c r="A93" s="3" t="s">
         <v>1710</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1">
       <c r="A94" s="3" t="s">
         <v>1711</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1">
       <c r="A96" s="3" t="s">
         <v>1712</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1">
       <c r="A97" s="3" t="s">
         <v>1713</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1">
       <c r="A98" s="3" t="s">
         <v>1714</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1">
       <c r="A99" s="3" t="s">
         <v>1715</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1">
       <c r="A100" s="3" t="s">
         <v>1716</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1">
       <c r="A101" s="3" t="s">
         <v>1717</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1">
       <c r="A102" s="3" t="s">
         <v>1718</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1">
       <c r="A103" s="3" t="s">
         <v>1719</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1">
       <c r="A104" s="3" t="s">
         <v>1720</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1">
       <c r="A105" s="3" t="s">
         <v>1721</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1">
       <c r="A106" s="3" t="s">
         <v>1722</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1">
       <c r="A107" s="3" t="s">
         <v>1723</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1">
       <c r="A108" s="3" t="s">
         <v>1724</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1">
       <c r="A109" s="3" t="s">
         <v>1725</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1">
       <c r="A110" s="3" t="s">
         <v>1726</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1">
       <c r="A111" s="3" t="s">
         <v>1727</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1">
       <c r="A112" s="3" t="s">
         <v>1728</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1">
       <c r="A113" s="3" t="s">
         <v>1729</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1">
       <c r="A114" s="3" t="s">
         <v>1730</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1">
       <c r="A115" s="3" t="s">
         <v>1731</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1">
       <c r="A116" s="3" t="s">
         <v>1732</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1">
       <c r="A117" s="3" t="s">
         <v>1733</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1">
       <c r="A118" s="3" t="s">
         <v>1734</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1">
       <c r="A119" s="3" t="s">
         <v>1735</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1">
       <c r="A120" s="3" t="s">
         <v>1736</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1">
       <c r="A121" s="3" t="s">
         <v>1737</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1">
       <c r="A122" s="3" t="s">
         <v>1738</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1">
       <c r="A123" s="3" t="s">
         <v>1739</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1">
       <c r="A124" s="3" t="s">
         <v>1740</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1">
       <c r="A125" s="3" t="s">
         <v>1741</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1">
       <c r="A126" s="3" t="s">
         <v>1742</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1">
       <c r="A127" s="3" t="s">
         <v>1743</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1">
       <c r="A128" s="3" t="s">
         <v>1744</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1">
       <c r="A129" s="3" t="s">
         <v>1745</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1">
       <c r="A130" s="3" t="s">
         <v>1746</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1">
       <c r="A131" s="3" t="s">
         <v>1747</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1">
       <c r="A132" s="3" t="s">
         <v>1748</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1">
       <c r="A134" s="3" t="s">
         <v>1749</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1">
       <c r="A135" s="3" t="s">
         <v>1750</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1">
       <c r="A136" s="3" t="s">
         <v>1751</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1">
       <c r="A137" s="3" t="s">
         <v>1752</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1">
       <c r="A138" s="3" t="s">
         <v>1753</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1">
       <c r="A139" s="3" t="s">
         <v>1754</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1">
       <c r="A140" s="3" t="s">
         <v>1755</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1">
       <c r="A141" s="3" t="s">
         <v>1756</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1">
       <c r="A143" s="3" t="s">
         <v>1757</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1">
       <c r="A144" s="3" t="s">
         <v>1758</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1">
       <c r="A145" s="3" t="s">
         <v>1759</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1">
       <c r="A146" s="3" t="s">
         <v>1760</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1">
       <c r="A147" s="3" t="s">
         <v>1761</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1">
       <c r="A148" s="3" t="s">
         <v>1762</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1">
       <c r="A149" s="3" t="s">
         <v>1763</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1">
       <c r="A150" s="3" t="s">
         <v>1764</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1">
       <c r="A151" s="3" t="s">
         <v>1765</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1">
       <c r="A152" s="3" t="s">
         <v>1766</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1">
       <c r="A153" s="3" t="s">
         <v>1767</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1">
       <c r="A154" s="3" t="s">
         <v>1768</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1">
       <c r="A155" s="3" t="s">
         <v>1769</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1">
       <c r="A156" s="3" t="s">
         <v>1770</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1">
       <c r="A157" s="3" t="s">
         <v>1771</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1">
       <c r="A158" s="3" t="s">
         <v>1772</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1">
       <c r="A159" s="3" t="s">
         <v>1773</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1">
       <c r="A160" s="3" t="s">
         <v>1774</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1">
       <c r="A161" s="3" t="s">
         <v>1775</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1">
       <c r="A162" s="3" t="s">
         <v>1776</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1">
       <c r="A163" s="3" t="s">
         <v>1777</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1">
       <c r="A164" s="3" t="s">
         <v>1778</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1">
       <c r="A165" s="3" t="s">
         <v>1779</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1">
       <c r="A166" s="3" t="s">
         <v>1780</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1">
       <c r="A167" s="3" t="s">
         <v>1781</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1">
       <c r="A168" s="3" t="s">
         <v>1782</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1">
       <c r="A169" s="3" t="s">
         <v>1783</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1">
       <c r="A171" s="3" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1">
       <c r="A172" s="3" t="s">
         <v>1785</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1">
       <c r="A173" s="3" t="s">
         <v>1786</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1">
       <c r="A174" s="3" t="s">
         <v>1787</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1">
       <c r="A175" s="3" t="s">
         <v>1788</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1">
       <c r="A176" s="3" t="s">
         <v>1789</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1">
       <c r="A177" s="3" t="s">
         <v>1790</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1">
       <c r="A178" s="3" t="s">
         <v>1791</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1">
       <c r="A179" s="3" t="s">
         <v>1792</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1">
       <c r="A180" s="3" t="s">
         <v>1793</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1">
       <c r="A181" s="3" t="s">
         <v>1794</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1">
       <c r="A182" s="3" t="s">
         <v>1795</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1">
       <c r="A183" s="3" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1">
       <c r="A185" s="3" t="s">
         <v>1797</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1">
       <c r="A186" s="3" t="s">
         <v>1798</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1">
       <c r="A187" s="3" t="s">
         <v>1799</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1">
       <c r="A188" s="3" t="s">
         <v>1800</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1">
       <c r="A189" s="3" t="s">
         <v>1801</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1">
       <c r="A190" s="3" t="s">
         <v>1802</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1">
       <c r="A191" s="3" t="s">
         <v>1803</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1">
       <c r="A192" s="3" t="s">
         <v>1804</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1">
       <c r="A193" s="3" t="s">
         <v>1805</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1">
       <c r="A194" s="3" t="s">
         <v>1806</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1">
       <c r="A195" s="3" t="s">
         <v>1807</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1">
       <c r="A197" s="3" t="s">
         <v>1808</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1">
       <c r="A198" s="3" t="s">
         <v>1809</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1">
       <c r="A199" s="3" t="s">
         <v>1810</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1">
       <c r="A200" s="3" t="s">
         <v>1811</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1">
       <c r="A201" s="3" t="s">
         <v>1812</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1">
       <c r="A202" s="3" t="s">
         <v>1813</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1">
       <c r="A204" s="3" t="s">
         <v>1814</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1">
       <c r="A205" s="3" t="s">
         <v>1815</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1">
       <c r="A206" s="3" t="s">
         <v>1816</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1">
       <c r="A207" s="3" t="s">
         <v>1817</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1">
       <c r="A208" s="3" t="s">
         <v>1818</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1">
       <c r="A209" s="3" t="s">
         <v>1819</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1">
       <c r="A210" s="3" t="s">
         <v>1820</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1">
       <c r="A211" s="3" t="s">
         <v>1821</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1">
       <c r="A212" s="3" t="s">
         <v>1822</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1">
       <c r="A213" s="3" t="s">
         <v>1823</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1">
       <c r="A214" s="3" t="s">
         <v>1824</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1">
       <c r="A215" s="3" t="s">
         <v>1825</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1">
       <c r="A217" s="3" t="s">
         <v>1826</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1">
       <c r="A218" s="3" t="s">
         <v>1827</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1">
       <c r="A219" s="3" t="s">
         <v>1828</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1">
       <c r="A220" s="3" t="s">
         <v>1829</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1">
       <c r="A221" s="3" t="s">
         <v>1830</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1">
       <c r="A222" s="3" t="s">
         <v>1831</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1">
       <c r="A223" s="3" t="s">
         <v>1832</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1">
       <c r="A224" s="3" t="s">
         <v>1833</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1">
       <c r="A225" s="3" t="s">
         <v>1834</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1">
       <c r="A226" s="3" t="s">
         <v>1835</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1">
       <c r="A227" s="3" t="s">
         <v>1836</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1">
       <c r="A229" s="3" t="s">
         <v>1837</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1">
       <c r="A230" s="3" t="s">
         <v>1838</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1">
       <c r="A231" s="3" t="s">
         <v>1839</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1">
       <c r="A232" s="3" t="s">
         <v>1840</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1">
       <c r="A233" s="3" t="s">
         <v>1841</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1">
       <c r="A234" s="3" t="s">
         <v>1842</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1">
       <c r="A235" s="3" t="s">
         <v>1843</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1">
       <c r="A236" s="3" t="s">
         <v>1844</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1">
       <c r="A237" s="3" t="s">
         <v>1845</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1">
       <c r="A238" s="3" t="s">
         <v>1846</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1">
       <c r="A239" s="3" t="s">
         <v>1847</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1">
       <c r="A241" s="3" t="s">
         <v>1848</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1">
       <c r="A242" s="3" t="s">
         <v>1849</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1">
       <c r="A243" s="3" t="s">
         <v>1850</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1">
       <c r="A244" s="3" t="s">
         <v>1851</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1">
       <c r="A245" s="3" t="s">
         <v>1852</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:1">
       <c r="A246" s="3" t="s">
         <v>1853</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:1">
       <c r="A247" s="3" t="s">
         <v>1854</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:1">
       <c r="A248" s="3" t="s">
         <v>1855</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:1">
       <c r="A249" s="3" t="s">
         <v>1856</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:1">
       <c r="A250" s="3" t="s">
         <v>1857</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:1">
       <c r="A251" s="3" t="s">
         <v>1858</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:1">
       <c r="A252" s="3" t="s">
         <v>1859</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:1">
       <c r="A253" s="3" t="s">
         <v>1860</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:1">
       <c r="A254" s="3" t="s">
         <v>1861</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:1">
       <c r="A255" s="3" t="s">
         <v>1862</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:1">
       <c r="A256" s="3" t="s">
         <v>1863</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:1">
       <c r="A257" s="3" t="s">
         <v>1864</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:1">
       <c r="A258" s="3" t="s">
         <v>1865</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:1">
       <c r="A259" s="3" t="s">
         <v>1866</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:1">
       <c r="A261" s="3" t="s">
         <v>1867</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:1">
       <c r="A262" s="3" t="s">
         <v>1868</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:1">
       <c r="A263" s="3" t="s">
         <v>1869</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:1">
       <c r="A264" s="3" t="s">
         <v>1870</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:1">
       <c r="A265" s="3" t="s">
         <v>1871</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:1">
       <c r="A266" s="3" t="s">
         <v>1872</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:1">
       <c r="A267" s="3" t="s">
         <v>1873</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:1">
       <c r="A268" s="3" t="s">
         <v>1874</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:1">
       <c r="A269" s="3" t="s">
         <v>1875</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:1">
       <c r="A270" s="3" t="s">
         <v>1876</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:1">
       <c r="A271" s="3" t="s">
         <v>1877</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:1">
       <c r="A272" s="3" t="s">
         <v>1878</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:1">
       <c r="A273" s="3" t="s">
         <v>1879</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:1">
       <c r="A274" s="3" t="s">
         <v>1880</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:1">
       <c r="A275" s="3" t="s">
         <v>1881</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:1">
       <c r="A276" s="3" t="s">
         <v>1882</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:1">
       <c r="A277" s="3" t="s">
         <v>1883</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:1">
       <c r="A278" s="3" t="s">
         <v>1884</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:1">
       <c r="A279" s="3" t="s">
         <v>1885</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:1">
       <c r="A280" s="3" t="s">
         <v>1886</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:1">
       <c r="A281" s="3" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:1">
       <c r="A282" s="3" t="s">
         <v>1888</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:1">
       <c r="A283" s="3" t="s">
         <v>1889</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:1">
       <c r="A284" s="3" t="s">
         <v>1890</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:1">
       <c r="A285" s="3" t="s">
         <v>1891</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:1">
       <c r="A286" s="3" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:1">
       <c r="A288" s="3" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:1">
       <c r="A289" s="3" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:1">
       <c r="A290" s="3" t="s">
         <v>1895</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:1">
       <c r="A292" s="3" t="s">
         <v>1896</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:1">
       <c r="A293" s="3" t="s">
         <v>1897</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:1">
       <c r="A294" s="3" t="s">
         <v>1898</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:1">
       <c r="A295" s="3" t="s">
         <v>1899</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:1">
       <c r="A296" s="3" t="s">
         <v>1900</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:1">
       <c r="A297" s="3" t="s">
         <v>1901</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:1">
       <c r="A298" s="3" t="s">
         <v>1902</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:1">
       <c r="A299" s="3" t="s">
         <v>1903</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:1">
       <c r="A300" s="3" t="s">
         <v>1904</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:1">
       <c r="A302" s="3" t="s">
         <v>1905</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:1">
       <c r="A303" s="3" t="s">
         <v>1906</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:1">
       <c r="A304" s="3" t="s">
         <v>1907</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:1">
       <c r="A305" s="3" t="s">
         <v>1908</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:1">
       <c r="A306" s="3" t="s">
         <v>1909</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:1">
       <c r="A307" s="3" t="s">
         <v>1910</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:1">
       <c r="A308" s="3" t="s">
         <v>1911</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:1">
       <c r="A309" s="3" t="s">
         <v>1912</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:1">
       <c r="A310" s="3" t="s">
         <v>1913</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:1">
       <c r="A311" s="3" t="s">
         <v>1914</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:1">
       <c r="A312" s="3" t="s">
         <v>1915</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:1">
       <c r="A313" s="3" t="s">
         <v>1916</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:1">
       <c r="A314" s="3" t="s">
         <v>1917</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:1">
       <c r="A315" s="3" t="s">
         <v>1918</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:1">
       <c r="A316" s="3" t="s">
         <v>1919</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:1">
       <c r="A317" s="3" t="s">
         <v>1920</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:1">
       <c r="A318" s="3" t="s">
         <v>1921</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:1">
       <c r="A320" s="3" t="s">
         <v>1922</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:1">
       <c r="A321" s="3" t="s">
         <v>1923</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:1">
       <c r="A322" s="3" t="s">
         <v>1924</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:1">
       <c r="A323" s="3" t="s">
         <v>1925</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:1">
       <c r="A324" s="3" t="s">
         <v>1926</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:1">
       <c r="A325" s="3" t="s">
         <v>1927</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:1">
       <c r="A326" s="3" t="s">
         <v>1928</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:1">
       <c r="A327" s="3" t="s">
         <v>1929</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:1">
       <c r="A328" s="3" t="s">
         <v>1930</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:1">
       <c r="A332" s="3" t="s">
         <v>1931</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:1">
       <c r="A333" s="3" t="s">
         <v>1932</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:1">
       <c r="A334" s="3" t="s">
         <v>1933</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:1">
       <c r="A335" s="3" t="s">
         <v>1934</v>
       </c>
@@ -11344,12 +11376,12 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="26" t="s">
         <v>1942</v>
       </c>
@@ -11359,7 +11391,7 @@
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="26" t="s">
         <v>1944</v>
       </c>
@@ -11371,7 +11403,7 @@
       </c>
       <c r="F2" s="26"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="26" t="s">
         <v>1946</v>
       </c>
@@ -11381,7 +11413,7 @@
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="26"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -11389,7 +11421,7 @@
       <c r="E4" s="26"/>
       <c r="F4" s="26"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="26"/>
       <c r="B5" s="26" t="s">
         <v>1947</v>
@@ -11399,7 +11431,7 @@
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="26"/>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
@@ -11407,7 +11439,7 @@
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" s="26"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -11415,7 +11447,7 @@
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -11423,7 +11455,7 @@
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" s="26"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -11431,7 +11463,7 @@
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -11439,7 +11471,7 @@
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
@@ -11447,7 +11479,7 @@
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
@@ -11455,7 +11487,7 @@
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
@@ -11463,27 +11495,27 @@
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="25" t="s">
         <v>1943</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="27" t="s">
         <v>1951</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" s="25" t="s">
         <v>1949</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" s="25" t="s">
         <v>1948</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1">
       <c r="A23" s="27" t="s">
         <v>1950</v>
       </c>
@@ -11503,7 +11535,7 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15" style="7" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="6" customWidth="1"/>
@@ -11520,7 +11552,7 @@
     <col min="13" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="15" customFormat="1">
       <c r="A1" s="14" t="s">
         <v>1259</v>
       </c>
@@ -11539,7 +11571,7 @@
       <c r="J1" s="11"/>
       <c r="K1" s="14"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="7" t="s">
         <v>1285</v>
       </c>
@@ -11571,7 +11603,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="7" t="s">
         <v>1232</v>
       </c>
@@ -11606,7 +11638,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="7" t="s">
         <v>1234</v>
       </c>
@@ -11641,7 +11673,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="7" t="s">
         <v>1236</v>
       </c>
@@ -11673,7 +11705,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="C6" s="7" t="s">
         <v>1255</v>
       </c>
@@ -11687,7 +11719,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="7" t="s">
         <v>33</v>
       </c>
@@ -11719,7 +11751,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="7" t="s">
         <v>1326</v>
       </c>
@@ -11754,7 +11786,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="C9" s="7" t="s">
         <v>1545</v>
       </c>
@@ -11771,7 +11803,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="7" t="s">
         <v>1238</v>
       </c>
@@ -11794,7 +11826,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" s="7" t="s">
         <v>1333</v>
       </c>
@@ -11811,7 +11843,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" s="7" t="s">
         <v>1579</v>
       </c>
@@ -11834,7 +11866,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13" s="7" t="s">
         <v>1334</v>
       </c>
@@ -11861,7 +11893,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="C14" s="7" t="s">
         <v>1424</v>
       </c>
@@ -11884,7 +11916,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="A15" s="7" t="s">
         <v>1174</v>
       </c>
@@ -11904,7 +11936,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="C16" s="7" t="s">
         <v>1251</v>
       </c>
@@ -11924,7 +11956,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10">
       <c r="A17" s="7" t="s">
         <v>1354</v>
       </c>
@@ -11950,7 +11982,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10">
       <c r="G18" s="14" t="s">
         <v>1375</v>
       </c>
@@ -11962,7 +11994,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10">
       <c r="C19" s="7" t="s">
         <v>1316</v>
       </c>
@@ -11982,7 +12014,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="A20" s="7" t="s">
         <v>1586</v>
       </c>
@@ -12002,7 +12034,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="E21" s="7" t="s">
         <v>1038</v>
       </c>
@@ -12022,7 +12054,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="C22" s="7" t="s">
         <v>1293</v>
       </c>
@@ -12042,7 +12074,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10">
       <c r="C23" s="7" t="s">
         <v>1295</v>
       </c>
@@ -12050,7 +12082,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10">
       <c r="C24" s="7" t="s">
         <v>1318</v>
       </c>
@@ -12061,7 +12093,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10">
       <c r="A25" s="7" t="s">
         <v>1184</v>
       </c>
@@ -12075,7 +12107,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10">
       <c r="A26" s="7" t="s">
         <v>1577</v>
       </c>
@@ -12089,7 +12121,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10">
       <c r="A27" s="7" t="s">
         <v>1581</v>
       </c>
@@ -12109,7 +12141,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10">
       <c r="A28" s="7" t="s">
         <v>1587</v>
       </c>
@@ -12129,7 +12161,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10">
       <c r="A29" s="7" t="s">
         <v>1584</v>
       </c>
@@ -12149,7 +12181,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10">
       <c r="C30" s="7" t="s">
         <v>1345</v>
       </c>
@@ -12163,7 +12195,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10">
       <c r="A31" s="7" t="s">
         <v>1615</v>
       </c>
@@ -12183,7 +12215,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10">
       <c r="E32" s="7" t="s">
         <v>1563</v>
       </c>
@@ -12191,7 +12223,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:6">
       <c r="C33" s="7" t="s">
         <v>1340</v>
       </c>
@@ -12199,7 +12231,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:6">
       <c r="C34" s="7" t="s">
         <v>1342</v>
       </c>
@@ -12207,7 +12239,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:6">
       <c r="C35" s="7" t="s">
         <v>1344</v>
       </c>
@@ -12221,7 +12253,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:6">
       <c r="E36" s="7" t="s">
         <v>1575</v>
       </c>
@@ -12229,7 +12261,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:6">
       <c r="C37" s="7" t="s">
         <v>1552</v>
       </c>
@@ -12237,7 +12269,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:6">
       <c r="C38" s="7" t="s">
         <v>1552</v>
       </c>
@@ -12251,7 +12283,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:6">
       <c r="C39" s="7" t="s">
         <v>1555</v>
       </c>
@@ -12265,7 +12297,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:6">
       <c r="C40" s="7" t="s">
         <v>1557</v>
       </c>
@@ -12273,7 +12305,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:6">
       <c r="C41" s="7" t="s">
         <v>1564</v>
       </c>
@@ -12281,7 +12313,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:6">
       <c r="C42" s="7" t="s">
         <v>1565</v>
       </c>
@@ -12295,7 +12327,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:6">
       <c r="E43" s="7" t="s">
         <v>1569</v>
       </c>
@@ -12317,7 +12349,7 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15.5" style="18" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="6" customWidth="1"/>
@@ -12333,7 +12365,7 @@
     <col min="12" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="11" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>93</v>
       </c>
@@ -12354,7 +12386,7 @@
       <c r="J1" s="17"/>
       <c r="K1" s="13"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="18" t="s">
         <v>1048</v>
       </c>
@@ -12386,7 +12418,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="18" t="s">
         <v>1395</v>
       </c>
@@ -12418,7 +12450,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="G4" s="19" t="s">
         <v>1434</v>
       </c>
@@ -12432,7 +12464,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="18" t="s">
         <v>1440</v>
       </c>
@@ -12458,7 +12490,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="18" t="s">
         <v>1446</v>
       </c>
@@ -12484,7 +12516,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="7" t="s">
         <v>1445</v>
       </c>
@@ -12504,7 +12536,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="C8" s="19" t="s">
         <v>1454</v>
       </c>
@@ -12518,7 +12550,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="18" t="s">
         <v>1426</v>
       </c>
@@ -12532,7 +12564,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="18" t="s">
         <v>1427</v>
       </c>
@@ -12552,7 +12584,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="C11" s="19" t="s">
         <v>1388</v>
       </c>
@@ -12572,7 +12604,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" s="18" t="s">
         <v>1489</v>
       </c>
@@ -12598,7 +12630,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13" s="18" t="s">
         <v>1491</v>
       </c>
@@ -12624,7 +12656,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="C14" s="18" t="s">
         <v>1465</v>
       </c>
@@ -12644,7 +12676,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="A15" s="18">
         <v>1</v>
       </c>
@@ -12664,7 +12696,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="A16" s="19" t="s">
         <v>1431</v>
       </c>
@@ -12684,7 +12716,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="19">
         <v>2</v>
       </c>
@@ -12710,7 +12742,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="19">
         <v>3</v>
       </c>
@@ -12724,7 +12756,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="19">
         <v>4</v>
       </c>
@@ -12738,7 +12770,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="A20" s="19">
         <v>5</v>
       </c>
@@ -12758,7 +12790,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="A21" s="19" t="s">
         <v>1528</v>
       </c>
@@ -12772,7 +12804,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="C22" s="19" t="s">
         <v>1406</v>
       </c>
@@ -12780,7 +12812,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8">
       <c r="A23" s="18">
         <v>6</v>
       </c>
@@ -12794,7 +12826,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8">
       <c r="A24" s="18" t="s">
         <v>1535</v>
       </c>
@@ -12808,7 +12840,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="A26" s="19" t="s">
         <v>1521</v>
       </c>
@@ -12822,7 +12854,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="A27" s="19" t="s">
         <v>1522</v>
       </c>
@@ -12836,7 +12868,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8">
       <c r="A29" s="19" t="s">
         <v>1410</v>
       </c>
@@ -12850,7 +12882,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8">
       <c r="C30" s="18" t="s">
         <v>1508</v>
       </c>
@@ -12858,7 +12890,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8">
       <c r="A32" s="18" t="s">
         <v>1509</v>
       </c>
@@ -12872,7 +12904,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4">
       <c r="A33" s="18" t="s">
         <v>1540</v>
       </c>
@@ -12886,49 +12918,49 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4">
       <c r="A35" s="18" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="18" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="18" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="18" t="s">
         <v>2047</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>2056</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="18" t="s">
-        <v>2052</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="18" t="s">
-        <v>2055</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>2051</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="18" t="s">
-        <v>2048</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>1597</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4">
       <c r="B39" s="6" t="s">
         <v>1954</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4">
       <c r="A40" s="18" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
   </sheetData>
@@ -12946,7 +12978,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="3" customWidth="1"/>
@@ -12960,7 +12992,7 @@
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
         <v>954</v>
       </c>
@@ -12986,7 +13018,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="6" t="s">
         <v>964</v>
       </c>
@@ -13012,7 +13044,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="6" t="s">
         <v>954</v>
       </c>
@@ -13034,7 +13066,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>1617</v>
       </c>
@@ -13056,7 +13088,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6" t="s">
         <v>951</v>
       </c>
@@ -13067,36 +13099,36 @@
         <v>981</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>1017</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7" t="s">
         <v>982</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>1018</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6" t="s">
         <v>1616</v>
       </c>
@@ -13113,7 +13145,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6" t="s">
         <v>971</v>
       </c>
@@ -13134,7 +13166,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
@@ -13150,7 +13182,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6" t="s">
         <v>957</v>
       </c>
@@ -13172,7 +13204,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7" t="s">
@@ -13188,7 +13220,7 @@
       <c r="G11" s="7"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6" t="s">
         <v>953</v>
       </c>
@@ -13212,7 +13244,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6" t="s">
         <v>959</v>
       </c>
@@ -13226,7 +13258,7 @@
       <c r="G13" s="7"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6" t="s">
         <v>974</v>
       </c>
@@ -13234,7 +13266,7 @@
         <v>975</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>1612</v>
@@ -13244,7 +13276,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
         <v>961</v>
       </c>
@@ -13252,17 +13284,17 @@
         <v>976</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="6" t="s">
         <v>962</v>
       </c>
@@ -13270,17 +13302,17 @@
         <v>963</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="6"/>
       <c r="G16" s="7"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="6" t="s">
         <v>967</v>
       </c>
@@ -13288,17 +13320,17 @@
         <v>968</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>2043</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>2044</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>2045</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="6" t="s">
         <v>969</v>
       </c>
@@ -13312,7 +13344,7 @@
       <c r="G18" s="7"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
         <v>999</v>
       </c>
@@ -13320,7 +13352,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="A21" s="3" t="s">
         <v>1001</v>
       </c>
@@ -13328,7 +13360,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
         <v>1002</v>
       </c>
@@ -13336,7 +13368,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8">
       <c r="A24" s="3" t="s">
         <v>1014</v>
       </c>
@@ -13344,7 +13376,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="A27" s="4" t="s">
         <v>1016</v>
       </c>
@@ -13352,7 +13384,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8">
       <c r="A28" s="4" t="s">
         <v>1006</v>
       </c>
@@ -13360,7 +13392,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8">
       <c r="A29" s="4" t="s">
         <v>1010</v>
       </c>
@@ -13368,7 +13400,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8">
       <c r="A30" s="4" t="s">
         <v>1009</v>
       </c>
@@ -13376,7 +13408,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8">
       <c r="A31" s="4" t="s">
         <v>1008</v>
       </c>
@@ -13384,7 +13416,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
         <v>1607</v>
       </c>
@@ -13407,7 +13439,7 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="18" style="6" customWidth="1"/>
     <col min="2" max="2" width="15.25" style="6" customWidth="1"/>
@@ -13416,7 +13448,7 @@
     <col min="5" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
         <v>33</v>
       </c>
@@ -13427,51 +13459,51 @@
         <v>1223</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>2028</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>2030</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>2029</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>2031</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>2030</v>
-      </c>
       <c r="G1" s="6" t="s">
+        <v>2041</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>2042</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>2043</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:8">
       <c r="C2" s="7" t="s">
         <v>1530</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="C3" s="7" t="s">
         <v>1531</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="C4" s="7" t="s">
         <v>1532</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="C5" s="7" t="s">
         <v>1533</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6" t="s">
         <v>1224</v>
       </c>
@@ -13479,53 +13511,53 @@
         <v>1225</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>2035</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>2036</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:8">
       <c r="C7" s="6" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>1221</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="C8" s="7" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>1217</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6" t="s">
         <v>1602</v>
       </c>
@@ -13533,13 +13565,13 @@
         <v>1603</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6" t="s">
         <v>1604</v>
       </c>
@@ -13547,7 +13579,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6" t="s">
         <v>1600</v>
       </c>
@@ -13567,12 +13599,12 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>2040</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>2041</v>
       </c>
     </row>
   </sheetData>
@@ -13587,10 +13619,10 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="19.75" style="6" customWidth="1"/>
@@ -13600,33 +13632,45 @@
     <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="C1" s="6" t="s">
-        <v>2148</v>
+        <v>2198</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>1974</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E1" s="6" t="s">
+        <v>2199</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="6" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>1970</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E2" s="6" t="s">
+        <v>2200</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="C3" s="6" t="s">
-        <v>2183</v>
+        <v>2180</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>2184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="C4" s="6" t="s">
         <v>1971</v>
       </c>
@@ -13634,59 +13678,71 @@
         <v>1972</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>2196</v>
+        <v>2203</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>2193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="C5" s="6" t="s">
-        <v>2182</v>
+        <v>2197</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>1973</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>2197</v>
+        <v>2204</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>2194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E6" s="6" t="s">
-        <v>2198</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>2195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="C7" s="6" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>1977</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="C8" s="6" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>1978</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E8" s="6" t="s">
+        <v>2193</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="E9" s="6" t="s">
+        <v>2194</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="C10" s="6" t="s">
-        <v>2003</v>
+        <v>2196</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>1979</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E10" s="6" t="s">
+        <v>2195</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="C12" s="6" t="s">
         <v>1982</v>
       </c>
@@ -13694,7 +13750,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="C13" s="6" t="s">
         <v>1984</v>
       </c>
@@ -13702,15 +13758,15 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="E14" s="6" t="s">
-        <v>2185</v>
+        <v>2182</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>2189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="C15" s="6" t="s">
         <v>1986</v>
       </c>
@@ -13718,13 +13774,13 @@
         <v>1987</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>2190</v>
+        <v>2187</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>2191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="C16" s="6" t="s">
         <v>1980</v>
       </c>
@@ -13732,13 +13788,13 @@
         <v>1981</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>2186</v>
+        <v>2183</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>2192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="C17" s="6" t="s">
         <v>1988</v>
       </c>
@@ -13746,13 +13802,13 @@
         <v>1989</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>2187</v>
+        <v>2184</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>2188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="C18" s="6" t="s">
         <v>1990</v>
       </c>
@@ -13760,7 +13816,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="C19" s="6" t="s">
         <v>1993</v>
       </c>
@@ -13768,26 +13824,26 @@
         <v>1992</v>
       </c>
       <c r="E19" s="6" t="s">
+        <v>2134</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>2135</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>2136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:6">
       <c r="C20" s="6" t="s">
         <v>1994</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="E21" s="6" t="s">
-        <v>2152</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="C22" s="6" t="s">
         <v>1998</v>
       </c>
@@ -13795,13 +13851,13 @@
         <v>1995</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>2157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="C23" s="6" t="s">
         <v>1996</v>
       </c>
@@ -13809,141 +13865,141 @@
         <v>1997</v>
       </c>
       <c r="E23" s="6" t="s">
+        <v>2152</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="E24" s="6" t="s">
+        <v>2153</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="E25" s="6" t="s">
         <v>2154</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F25" s="6" t="s">
         <v>2158</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E24" s="6" t="s">
-        <v>2155</v>
-      </c>
-      <c r="F24" s="6" t="s">
+    <row r="26" spans="1:6">
+      <c r="C26" s="6" t="s">
+        <v>2136</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>2003</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>2159</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E25" s="6" t="s">
-        <v>2156</v>
-      </c>
-      <c r="F25" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>2160</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C26" s="6" t="s">
+    <row r="27" spans="1:6">
+      <c r="C27" s="6" t="s">
+        <v>2139</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="C28" s="6" t="s">
         <v>2137</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>2004</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E28" s="6" t="s">
         <v>2161</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F28" s="6" t="s">
         <v>2162</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C27" s="6" t="s">
-        <v>2140</v>
-      </c>
-      <c r="D27" s="6" t="s">
+    <row r="29" spans="1:6">
+      <c r="C29" s="6" t="s">
+        <v>2138</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>2005</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>2163</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="C30" s="6" t="s">
         <v>2141</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C28" s="6" t="s">
-        <v>2138</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>2005</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>2163</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>2164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C29" s="6" t="s">
-        <v>2139</v>
-      </c>
-      <c r="D29" s="6" t="s">
+      <c r="D30" s="6" t="s">
+        <v>2143</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>2165</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="6" t="s">
         <v>2006</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>2165</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>2166</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C30" s="6" t="s">
+      <c r="B31" s="6" t="s">
+        <v>2177</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>2142</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>2144</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>2167</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>2168</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="6" t="s">
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="6" t="s">
         <v>2007</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>2179</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>2143</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>2145</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="6" t="s">
-        <v>2008</v>
-      </c>
       <c r="B32" s="6" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>1999</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="E32" s="6" t="s">
+        <v>2167</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>2169</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>2171</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="3:6">
       <c r="C33" s="6" t="s">
         <v>2000</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="E33" s="6" t="s">
+        <v>2168</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>2170</v>
       </c>
-      <c r="F33" s="6" t="s">
-        <v>2172</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="3:6">
       <c r="C34" s="6" t="s">
         <v>2001</v>
       </c>
@@ -13951,7 +14007,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:6">
       <c r="C35" s="6" t="s">
         <v>2002</v>
       </c>
@@ -13959,68 +14015,68 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:6">
       <c r="C37" s="6" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6">
+      <c r="C38" s="6" t="s">
+        <v>2149</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6">
+      <c r="C39" s="6" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>2175</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>2178</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C38" s="6" t="s">
-        <v>2151</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>2176</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C39" s="6" t="s">
-        <v>2150</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>2177</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="3:6">
       <c r="C40" s="6" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>2058</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.15">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6">
       <c r="C44" s="6" t="s">
+        <v>2008</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>2009</v>
       </c>
-      <c r="D44" s="6" t="s">
+    </row>
+    <row r="45" spans="3:6">
+      <c r="C45" s="6" t="s">
+        <v>2171</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>2010</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C45" s="6" t="s">
-        <v>2173</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:6">
       <c r="C47" s="6" t="s">
+        <v>2012</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>2013</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="3:4">
       <c r="C49" s="6" t="s">
+        <v>2132</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>2133</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>2134</v>
       </c>
     </row>
   </sheetData>
@@ -14038,480 +14094,480 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="79.5" style="29" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="29" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B1" s="29"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="29" t="s">
         <v>2060</v>
       </c>
-      <c r="B1" s="29"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+      <c r="B2" s="29"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="29" t="s">
         <v>2061</v>
       </c>
-      <c r="B2" s="29"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
+      <c r="B3" s="29"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="29" t="s">
         <v>2062</v>
       </c>
-      <c r="B3" s="29"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="29" t="s">
+      <c r="B4" s="29"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="29" t="s">
         <v>2063</v>
       </c>
-      <c r="B4" s="29"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="29" t="s">
+      <c r="B5" s="29"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="29" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B6" s="29"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="29" t="s">
         <v>2064</v>
       </c>
-      <c r="B5" s="29"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="29" t="s">
-        <v>2059</v>
-      </c>
-      <c r="B6" s="29"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="29" t="s">
+      <c r="B7" s="29"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="29"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="29"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="29" t="s">
         <v>2065</v>
       </c>
-      <c r="B7" s="29"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B8" s="29"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B9" s="29"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="29" t="s">
+      <c r="B10" s="29"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="29" t="s">
         <v>2066</v>
       </c>
-      <c r="B10" s="29"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="29" t="s">
+      <c r="B11" s="29"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="29" t="s">
         <v>2067</v>
       </c>
-      <c r="B11" s="29"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="29" t="s">
+      <c r="B12" s="29"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="29" t="s">
         <v>2068</v>
       </c>
-      <c r="B12" s="29"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="29" t="s">
+      <c r="B13" s="29"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="29" t="s">
         <v>2069</v>
       </c>
-      <c r="B13" s="29"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="29" t="s">
+      <c r="B14" s="29"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="29" t="s">
         <v>2070</v>
       </c>
-      <c r="B14" s="29"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="29" t="s">
+      <c r="B15" s="29"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="29" t="s">
         <v>2071</v>
       </c>
-      <c r="B15" s="29"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="29" t="s">
+      <c r="B16" s="29"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="29" t="s">
         <v>2072</v>
       </c>
-      <c r="B16" s="29"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="29" t="s">
+      <c r="B17" s="29"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="29" t="s">
         <v>2073</v>
       </c>
-      <c r="B17" s="29"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="29" t="s">
+      <c r="B18" s="29"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="29" t="s">
         <v>2074</v>
       </c>
-      <c r="B18" s="29"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="29" t="s">
+      <c r="B19" s="29"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="29" t="s">
         <v>2075</v>
       </c>
-      <c r="B19" s="29"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="29" t="s">
+      <c r="B20" s="29"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="29" t="s">
         <v>2076</v>
       </c>
-      <c r="B20" s="29"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="29" t="s">
+      <c r="B21" s="29"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="29" t="s">
         <v>2077</v>
       </c>
-      <c r="B21" s="29"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="29" t="s">
+      <c r="B22" s="29"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="29" t="s">
         <v>2078</v>
       </c>
-      <c r="B22" s="29"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="29" t="s">
+      <c r="B23" s="29"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="29" t="s">
         <v>2079</v>
       </c>
-      <c r="B23" s="29"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="29" t="s">
+      <c r="B24" s="29"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="29" t="s">
         <v>2080</v>
       </c>
-      <c r="B24" s="29"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="29" t="s">
+      <c r="B25" s="29"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="29" t="s">
         <v>2081</v>
       </c>
-      <c r="B25" s="29"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="29" t="s">
+      <c r="B26" s="29"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="29" t="s">
         <v>2082</v>
       </c>
-      <c r="B26" s="29"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="29" t="s">
+      <c r="B27" s="29"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="29" t="s">
         <v>2083</v>
       </c>
-      <c r="B27" s="29"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="29" t="s">
+      <c r="B28" s="29"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="29" t="s">
         <v>2084</v>
       </c>
-      <c r="B28" s="29"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="29" t="s">
+      <c r="B29" s="29"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="29" t="s">
         <v>2085</v>
       </c>
-      <c r="B29" s="29"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="29" t="s">
+      <c r="B30" s="29"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="29" t="s">
         <v>2086</v>
       </c>
-      <c r="B30" s="29"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="29" t="s">
+      <c r="B31" s="29"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="29" t="s">
         <v>2087</v>
       </c>
-      <c r="B31" s="29"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="29" t="s">
+      <c r="B32" s="29"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="29" t="s">
         <v>2088</v>
       </c>
-      <c r="B32" s="29"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="29" t="s">
+      <c r="B33" s="29"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="29" t="s">
         <v>2089</v>
       </c>
-      <c r="B33" s="29"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="29" t="s">
+      <c r="B34" s="29"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="29" t="s">
         <v>2090</v>
       </c>
-      <c r="B34" s="29"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="29" t="s">
+      <c r="B35" s="29"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="29" t="s">
         <v>2091</v>
       </c>
-      <c r="B35" s="29"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="29" t="s">
+      <c r="B36" s="29"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="29" t="s">
         <v>2092</v>
       </c>
-      <c r="B36" s="29"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="29" t="s">
+      <c r="B37" s="29"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="29" t="s">
         <v>2093</v>
       </c>
-      <c r="B37" s="29"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="29" t="s">
+      <c r="B38" s="29"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="29" t="s">
         <v>2094</v>
       </c>
-      <c r="B38" s="29"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="29" t="s">
+      <c r="B39" s="29"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="29" t="s">
         <v>2095</v>
       </c>
-      <c r="B39" s="29"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="29" t="s">
+      <c r="B40" s="29"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="29" t="s">
         <v>2096</v>
       </c>
-      <c r="B40" s="29"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="29" t="s">
+      <c r="B41" s="29"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="29" t="s">
         <v>2097</v>
       </c>
-      <c r="B41" s="29"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="29" t="s">
+      <c r="B42" s="29"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="29" t="s">
         <v>2098</v>
       </c>
-      <c r="B42" s="29"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="29" t="s">
+      <c r="B43" s="29"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="29" t="s">
         <v>2099</v>
       </c>
-      <c r="B43" s="29"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="29" t="s">
+      <c r="B44" s="29"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="29" t="s">
         <v>2100</v>
       </c>
-      <c r="B44" s="29"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="29" t="s">
+      <c r="B45" s="29"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="29" t="s">
         <v>2101</v>
       </c>
-      <c r="B45" s="29"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="29" t="s">
+      <c r="B46" s="29"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="29" t="s">
         <v>2102</v>
       </c>
-      <c r="B46" s="29"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="29" t="s">
+      <c r="B47" s="29"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="29" t="s">
         <v>2103</v>
       </c>
-      <c r="B47" s="29"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="29" t="s">
+      <c r="B48" s="29"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="29" t="s">
         <v>2104</v>
       </c>
-      <c r="B48" s="29"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="29" t="s">
+      <c r="B49" s="29"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="29" t="s">
         <v>2105</v>
       </c>
-      <c r="B49" s="29"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="29" t="s">
+      <c r="B50" s="29"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="29" t="s">
         <v>2106</v>
       </c>
-      <c r="B50" s="29"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="29" t="s">
+      <c r="B51" s="29"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="B52" s="29"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="29" t="s">
         <v>2107</v>
       </c>
-      <c r="B51" s="29"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B52" s="29"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="29" t="s">
+      <c r="B53" s="29"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="29" t="s">
         <v>2108</v>
       </c>
-      <c r="B53" s="29"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="29" t="s">
+      <c r="B54" s="29"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="29" t="s">
         <v>2109</v>
       </c>
-      <c r="B54" s="29"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="29" t="s">
+      <c r="B55" s="29"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="29" t="s">
         <v>2110</v>
       </c>
-      <c r="B55" s="29"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="29" t="s">
+      <c r="B56" s="29"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="29" t="s">
         <v>2111</v>
       </c>
-      <c r="B56" s="29"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="29" t="s">
+      <c r="B57" s="29"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="29" t="s">
         <v>2112</v>
       </c>
-      <c r="B57" s="29"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="29" t="s">
+      <c r="B58" s="29"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="29" t="s">
         <v>2113</v>
       </c>
-      <c r="B58" s="29"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" s="29" t="s">
+      <c r="B59" s="29"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="29" t="s">
         <v>2114</v>
       </c>
-      <c r="B59" s="29"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="29" t="s">
+      <c r="B60" s="29"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="29" t="s">
         <v>2115</v>
       </c>
-      <c r="B60" s="29"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="29" t="s">
+      <c r="B61" s="29"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="29" t="s">
         <v>2116</v>
       </c>
-      <c r="B61" s="29"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="29" t="s">
+      <c r="B62" s="29"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="29" t="s">
         <v>2117</v>
       </c>
-      <c r="B62" s="29"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" s="29" t="s">
+      <c r="B63" s="29"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="29" t="s">
         <v>2118</v>
       </c>
-      <c r="B63" s="29"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="29" t="s">
+      <c r="B64" s="29"/>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="29" t="s">
         <v>2119</v>
       </c>
-      <c r="B64" s="29"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="29" t="s">
+      <c r="B65" s="29"/>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="29" t="s">
         <v>2120</v>
       </c>
-      <c r="B65" s="29"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="29" t="s">
+      <c r="B66" s="29"/>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="29" t="s">
         <v>2121</v>
       </c>
-      <c r="B66" s="29"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" s="29" t="s">
+      <c r="B67" s="29"/>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="29" t="s">
         <v>2122</v>
       </c>
-      <c r="B67" s="29"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" s="29" t="s">
+      <c r="B68" s="29"/>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="29" t="s">
         <v>2123</v>
       </c>
-      <c r="B68" s="29"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" s="29" t="s">
+      <c r="B69" s="29"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="29" t="s">
         <v>2124</v>
       </c>
-      <c r="B69" s="29"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="29" t="s">
+      <c r="B70" s="29"/>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="29" t="s">
         <v>2125</v>
       </c>
-      <c r="B70" s="29"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="29" t="s">
+      <c r="B71" s="29"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="29" t="s">
         <v>2126</v>
       </c>
-      <c r="B71" s="29"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A72" s="29" t="s">
+      <c r="B72" s="29"/>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="29" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B73" s="29"/>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="29" t="s">
         <v>2127</v>
       </c>
-      <c r="B72" s="29"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A73" s="29" t="s">
-        <v>2069</v>
-      </c>
-      <c r="B73" s="29"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A74" s="29" t="s">
+      <c r="B74" s="29"/>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="29" t="s">
         <v>2128</v>
       </c>
-      <c r="B74" s="29"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A75" s="29" t="s">
+      <c r="B75" s="29"/>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="29" t="s">
         <v>2129</v>
       </c>
-      <c r="B75" s="29"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A76" s="29" t="s">
+      <c r="B76" s="29"/>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="29" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B77" s="29"/>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="29" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B78" s="29"/>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="29" t="s">
         <v>2130</v>
       </c>
-      <c r="B76" s="29"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A77" s="29" t="s">
-        <v>2095</v>
-      </c>
-      <c r="B77" s="29"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A78" s="29" t="s">
-        <v>2105</v>
-      </c>
-      <c r="B78" s="29"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A79" s="29" t="s">
+      <c r="B79" s="29"/>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="29" t="s">
         <v>2131</v>
-      </c>
-      <c r="B79" s="29"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A80" s="29" t="s">
-        <v>2132</v>
       </c>
       <c r="B80" s="29"/>
     </row>
@@ -14533,7 +14589,7 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="18.875" style="22" customWidth="1"/>
     <col min="2" max="2" width="13.125" style="22" bestFit="1" customWidth="1"/>
@@ -14554,7 +14610,7 @@
     <col min="17" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14">
       <c r="A1" s="21" t="s">
         <v>271</v>
       </c>
@@ -14586,7 +14642,7 @@
       </c>
       <c r="N1" s="21"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14">
       <c r="A2" s="23" t="s">
         <v>292</v>
       </c>
@@ -14622,7 +14678,7 @@
       </c>
       <c r="N2" s="23"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14">
       <c r="A3" s="23" t="s">
         <v>293</v>
       </c>
@@ -14656,7 +14712,7 @@
       </c>
       <c r="N3" s="23"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14">
       <c r="A4" s="23" t="s">
         <v>294</v>
       </c>
@@ -14692,7 +14748,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14">
       <c r="A5" s="23" t="s">
         <v>295</v>
       </c>
@@ -14728,7 +14784,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14">
       <c r="A6" s="23" t="s">
         <v>296</v>
       </c>
@@ -14764,7 +14820,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14">
       <c r="A7" s="23" t="s">
         <v>297</v>
       </c>
@@ -14802,7 +14858,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14">
       <c r="A8" s="23" t="s">
         <v>298</v>
       </c>
@@ -14838,7 +14894,7 @@
       </c>
       <c r="N8" s="23"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14">
       <c r="A9" s="23" t="s">
         <v>299</v>
       </c>
@@ -14870,7 +14926,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14">
       <c r="A10" s="23" t="s">
         <v>300</v>
       </c>
@@ -14902,7 +14958,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14">
       <c r="A11" s="23" t="s">
         <v>306</v>
       </c>
@@ -14938,7 +14994,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14">
       <c r="A12" s="23"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23" t="s">
@@ -14968,7 +15024,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14">
       <c r="A13" s="23"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23" t="s">
@@ -15002,7 +15058,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14">
       <c r="A14" s="23"/>
       <c r="B14" s="23"/>
       <c r="C14" s="23" t="s">
@@ -15032,7 +15088,7 @@
       </c>
       <c r="N14" s="23"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14">
       <c r="A15" s="21" t="s">
         <v>289</v>
       </c>
@@ -15060,7 +15116,7 @@
       </c>
       <c r="N15" s="23"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14">
       <c r="A16" s="23" t="s">
         <v>502</v>
       </c>
@@ -15092,7 +15148,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14">
       <c r="A17" s="23" t="s">
         <v>512</v>
       </c>
@@ -15128,7 +15184,7 @@
       </c>
       <c r="N17" s="23"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14">
       <c r="A18" s="23" t="s">
         <v>503</v>
       </c>
@@ -15162,7 +15218,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14">
       <c r="A19" s="23" t="s">
         <v>504</v>
       </c>
@@ -15194,7 +15250,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14">
       <c r="A20" s="23" t="s">
         <v>505</v>
       </c>
@@ -15232,7 +15288,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14">
       <c r="A21" s="23" t="s">
         <v>506</v>
       </c>
@@ -15270,7 +15326,7 @@
       </c>
       <c r="N21" s="23"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14">
       <c r="A22" s="23" t="s">
         <v>507</v>
       </c>
@@ -15310,7 +15366,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14">
       <c r="A23" s="23" t="s">
         <v>508</v>
       </c>
@@ -15346,7 +15402,7 @@
       </c>
       <c r="N23" s="23"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14">
       <c r="A24" s="23" t="s">
         <v>509</v>
       </c>
@@ -15380,7 +15436,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14">
       <c r="A25" s="23" t="s">
         <v>510</v>
       </c>
@@ -15410,7 +15466,7 @@
       </c>
       <c r="N25" s="23"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14">
       <c r="A26" s="23"/>
       <c r="B26" s="23"/>
       <c r="C26" s="23" t="s">
@@ -15444,7 +15500,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14">
       <c r="A27" s="23"/>
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
@@ -15476,7 +15532,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14">
       <c r="A28" s="23"/>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
@@ -15500,7 +15556,7 @@
       <c r="M28" s="23"/>
       <c r="N28" s="23"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14">
       <c r="A29" s="21" t="s">
         <v>285</v>
       </c>
@@ -15528,7 +15584,7 @@
       <c r="M29" s="23"/>
       <c r="N29" s="23"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14">
       <c r="A30" s="23" t="s">
         <v>623</v>
       </c>
@@ -15562,7 +15618,7 @@
       <c r="M30" s="23"/>
       <c r="N30" s="23"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14">
       <c r="A31" s="23" t="s">
         <v>624</v>
       </c>
@@ -15596,7 +15652,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14">
       <c r="A32" s="23" t="s">
         <v>625</v>
       </c>
@@ -15628,7 +15684,7 @@
       </c>
       <c r="N32" s="23"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14">
       <c r="A33" s="23" t="s">
         <v>627</v>
       </c>
@@ -15662,7 +15718,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14">
       <c r="A34" s="23" t="s">
         <v>628</v>
       </c>
@@ -15696,7 +15752,7 @@
       </c>
       <c r="N34" s="23"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14">
       <c r="A35" s="23" t="s">
         <v>629</v>
       </c>
@@ -15736,7 +15792,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14">
       <c r="A36" s="23" t="s">
         <v>630</v>
       </c>
@@ -15772,7 +15828,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14">
       <c r="A37" s="23" t="s">
         <v>631</v>
       </c>
@@ -15804,7 +15860,7 @@
       </c>
       <c r="N37" s="23"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14">
       <c r="A38" s="23" t="s">
         <v>643</v>
       </c>
@@ -15832,7 +15888,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14">
       <c r="A39" s="23" t="s">
         <v>632</v>
       </c>
@@ -15858,7 +15914,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14">
       <c r="A40" s="23" t="s">
         <v>633</v>
       </c>
@@ -15882,7 +15938,7 @@
       </c>
       <c r="N40" s="23"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14">
       <c r="A41" s="23" t="s">
         <v>634</v>
       </c>
@@ -15910,7 +15966,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14">
       <c r="A42" s="23" t="s">
         <v>635</v>
       </c>
@@ -15936,7 +15992,7 @@
       </c>
       <c r="N42" s="23"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14">
       <c r="A43" s="23" t="s">
         <v>636</v>
       </c>
@@ -15964,7 +16020,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14">
       <c r="A44" s="23" t="s">
         <v>637</v>
       </c>
@@ -15990,7 +16046,7 @@
       </c>
       <c r="N44" s="23"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14">
       <c r="A45" s="23" t="s">
         <v>638</v>
       </c>
@@ -16012,7 +16068,7 @@
       </c>
       <c r="N45" s="23"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14">
       <c r="A46" s="23" t="s">
         <v>639</v>
       </c>
@@ -16038,7 +16094,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14">
       <c r="A47" s="23"/>
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
@@ -16058,7 +16114,7 @@
       </c>
       <c r="N47" s="23"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14">
       <c r="A48" s="23"/>
       <c r="B48" s="23"/>
       <c r="C48" s="23"/>
@@ -16080,7 +16136,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14">
       <c r="A49" s="23"/>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -16113,7 +16169,7 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.625" style="6" customWidth="1"/>
     <col min="2" max="2" width="10.375" style="6" customWidth="1"/>
@@ -16127,7 +16183,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -16165,7 +16221,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -16203,7 +16259,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -16241,7 +16297,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -16279,7 +16335,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -16317,7 +16373,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -16349,7 +16405,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
@@ -16381,7 +16437,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
@@ -16413,7 +16469,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
@@ -16445,7 +16501,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
@@ -16477,7 +16533,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
@@ -16509,7 +16565,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
@@ -16541,7 +16597,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
@@ -16573,7 +16629,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="A14" s="6" t="s">
         <v>25</v>
       </c>
@@ -16605,7 +16661,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="A15" s="6" t="s">
         <v>27</v>
       </c>
@@ -16637,7 +16693,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="A16" s="6" t="s">
         <v>28</v>
       </c>
@@ -16669,7 +16725,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10">
       <c r="A17" s="6" t="s">
         <v>31</v>
       </c>
@@ -16701,7 +16757,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10">
       <c r="A18" s="6" t="s">
         <v>96</v>
       </c>
@@ -16733,7 +16789,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10">
       <c r="A19" s="6" t="s">
         <v>97</v>
       </c>
@@ -16765,7 +16821,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="A20" s="6" t="s">
         <v>99</v>
       </c>
@@ -16797,7 +16853,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="A21" s="6" t="s">
         <v>102</v>
       </c>
@@ -16829,7 +16885,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="A22" s="6" t="s">
         <v>104</v>
       </c>
@@ -16861,7 +16917,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10">
       <c r="A23" s="6" t="s">
         <v>106</v>
       </c>
@@ -16893,7 +16949,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10">
       <c r="A24" s="6" t="s">
         <v>107</v>
       </c>
@@ -16925,7 +16981,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10">
       <c r="A25" s="6" t="s">
         <v>109</v>
       </c>
@@ -16957,7 +17013,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10">
       <c r="A26" s="6" t="s">
         <v>111</v>
       </c>
@@ -16989,7 +17045,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10">
       <c r="A27" s="6" t="s">
         <v>113</v>
       </c>
@@ -17021,7 +17077,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10">
       <c r="A28" s="6" t="s">
         <v>115</v>
       </c>
@@ -17053,7 +17109,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10">
       <c r="A29" s="6" t="s">
         <v>116</v>
       </c>
@@ -17085,7 +17141,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10">
       <c r="A30" s="6" t="s">
         <v>119</v>
       </c>
@@ -17117,7 +17173,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10">
       <c r="A31" s="6" t="s">
         <v>120</v>
       </c>
@@ -17149,7 +17205,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10">
       <c r="A32" s="6" t="s">
         <v>123</v>
       </c>
@@ -17181,7 +17237,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10">
       <c r="A33" s="6" t="s">
         <v>124</v>
       </c>
@@ -17213,7 +17269,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10">
       <c r="A34" s="6" t="s">
         <v>127</v>
       </c>
@@ -17245,7 +17301,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10">
       <c r="A35" s="6" t="s">
         <v>129</v>
       </c>
@@ -17277,7 +17333,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10">
       <c r="A36" s="6" t="s">
         <v>131</v>
       </c>
@@ -17309,7 +17365,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10">
       <c r="A37" s="6" t="s">
         <v>133</v>
       </c>
@@ -17341,7 +17397,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10">
       <c r="A38" s="6" t="s">
         <v>135</v>
       </c>
@@ -17373,7 +17429,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10">
       <c r="A39" s="6" t="s">
         <v>137</v>
       </c>
@@ -17405,7 +17461,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10">
       <c r="A40" s="6" t="s">
         <v>139</v>
       </c>
@@ -17437,7 +17493,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10">
       <c r="A41" s="6" t="s">
         <v>140</v>
       </c>
@@ -17469,7 +17525,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10">
       <c r="A42" s="6" t="s">
         <v>142</v>
       </c>
@@ -17501,7 +17557,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10">
       <c r="A43" s="6" t="s">
         <v>145</v>
       </c>
@@ -17533,7 +17589,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10">
       <c r="A44" s="6" t="s">
         <v>147</v>
       </c>
@@ -17565,7 +17621,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10">
       <c r="A45" s="6" t="s">
         <v>149</v>
       </c>
@@ -17597,7 +17653,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10">
       <c r="A46" s="6" t="s">
         <v>151</v>
       </c>
@@ -17629,7 +17685,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10">
       <c r="A47" s="6" t="s">
         <v>153</v>
       </c>
@@ -17661,7 +17717,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10">
       <c r="A48" s="6" t="s">
         <v>157</v>
       </c>
@@ -17693,7 +17749,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10">
       <c r="A49" s="6" t="s">
         <v>159</v>
       </c>
@@ -17725,7 +17781,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10">
       <c r="A50" s="6" t="s">
         <v>161</v>
       </c>
@@ -17757,7 +17813,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10">
       <c r="A51" s="6" t="s">
         <v>163</v>
       </c>
@@ -17789,7 +17845,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10">
       <c r="A52" s="6" t="s">
         <v>165</v>
       </c>
@@ -17821,7 +17877,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10">
       <c r="A53" s="6" t="s">
         <v>167</v>
       </c>
@@ -17853,7 +17909,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10">
       <c r="A54" s="6" t="s">
         <v>169</v>
       </c>
@@ -17885,7 +17941,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10">
       <c r="A55" s="6" t="s">
         <v>171</v>
       </c>
@@ -17917,7 +17973,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10">
       <c r="A56" s="6" t="s">
         <v>173</v>
       </c>
@@ -17949,7 +18005,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10">
       <c r="A57" s="6" t="s">
         <v>176</v>
       </c>
@@ -17981,7 +18037,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10">
       <c r="A58" s="6" t="s">
         <v>178</v>
       </c>
@@ -18013,7 +18069,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10">
       <c r="A59" s="6" t="s">
         <v>180</v>
       </c>

--- a/MachineSettings/keys.xlsx
+++ b/MachineSettings/keys.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="2207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="2210">
   <si>
     <t>exposure</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -7609,10 +7609,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">ctrl d </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>复制行</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -8323,54 +8319,50 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>下开新行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上开新行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift f3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt `</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl `</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦点在编辑器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦点在终端</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>侧栏显示切换</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl u</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl i</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>alt shift enter</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>下开新行</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>上开新行</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shift f3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt `</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl `</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦点在编辑器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦点在终端</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>侧栏显示切换</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl u</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl i</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt shift enter</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>alt shift ctrl insert</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -8431,18 +8423,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>altl um</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ctrl shift p /f1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ctrl l</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ctrl j</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -8463,19 +8447,47 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>alt d</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt s</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>delete</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>backspace</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt m</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt u</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>altl o.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift enter/alt n</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt shift enter/alt y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jupyter 上下格</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt p/</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl d / alt d</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl l /alt s</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -9392,10 +9404,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="6" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>2052</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>2053</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>35</v>
@@ -12920,31 +12932,31 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="18" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="18" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="18" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="18" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>1597</v>
@@ -12957,10 +12969,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="18" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
   </sheetData>
@@ -13099,13 +13111,13 @@
         <v>981</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>1017</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="6"/>
@@ -13117,13 +13129,13 @@
         <v>982</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>1018</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="6"/>
@@ -13266,7 +13278,7 @@
         <v>975</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>1612</v>
@@ -13284,10 +13296,10 @@
         <v>976</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="6"/>
@@ -13302,10 +13314,10 @@
         <v>963</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="6"/>
@@ -13320,10 +13332,10 @@
         <v>968</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>2042</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>2043</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>2044</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="6"/>
@@ -13459,19 +13471,19 @@
         <v>1223</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>2027</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>2029</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>2028</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>2030</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>2029</v>
-      </c>
       <c r="G1" s="6" t="s">
+        <v>2040</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>2041</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>2042</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -13479,7 +13491,7 @@
         <v>1530</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -13487,10 +13499,10 @@
         <v>1531</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -13511,27 +13523,27 @@
         <v>1225</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>2034</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>2035</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>2036</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="C7" s="6" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>1221</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>1222</v>
@@ -13539,19 +13551,19 @@
     </row>
     <row r="8" spans="1:8">
       <c r="C8" s="7" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>1217</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>1218</v>
@@ -13565,7 +13577,7 @@
         <v>1603</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>1220</v>
@@ -13601,10 +13613,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="6" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>2039</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>2040</v>
       </c>
     </row>
   </sheetData>
@@ -13619,7 +13631,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13634,449 +13646,457 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="C1" s="6" t="s">
-        <v>2198</v>
+        <v>2194</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>2199</v>
+        <v>2195</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>2201</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="6" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>1970</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>2200</v>
+        <v>2196</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>2202</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="C3" s="6" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="C4" s="6" t="s">
+        <v>2208</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>1971</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>1972</v>
-      </c>
       <c r="E4" s="6" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="C5" s="6" t="s">
-        <v>2197</v>
+        <v>2209</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>2206</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="C7" s="6" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="C8" s="6" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="E9" s="6" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="C10" s="6" t="s">
-        <v>2196</v>
+        <v>2193</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>2195</v>
+        <v>2203</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>2192</v>
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="E11" s="6" t="s">
+        <v>2207</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>2206</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="C12" s="6" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>1982</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>1983</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" s="6" t="s">
+        <v>1983</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>1984</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>1985</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="E14" s="6" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" s="6" t="s">
+        <v>1985</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>1986</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>1987</v>
-      </c>
       <c r="E15" s="6" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" s="6" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>1980</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>1981</v>
-      </c>
       <c r="E16" s="6" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="C17" s="6" t="s">
+        <v>1987</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>1988</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>1989</v>
-      </c>
       <c r="E17" s="6" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="C18" s="6" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>1990</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>1991</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="C19" s="6" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="E19" s="6" t="s">
+        <v>2133</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>2134</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>2135</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="C20" s="6" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="E21" s="6" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="C22" s="6" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="C23" s="6" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>1996</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>1997</v>
-      </c>
       <c r="E23" s="6" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="E24" s="6" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="E25" s="6" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="C26" s="6" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="E26" s="6" t="s">
+        <v>2158</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>2159</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>2160</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="C27" s="6" t="s">
+        <v>2138</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>2139</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>2140</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="C28" s="6" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="E28" s="6" t="s">
+        <v>2160</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>2161</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>2162</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="C29" s="6" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E29" s="6" t="s">
+        <v>2162</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>2163</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>2164</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="C30" s="6" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="E30" s="6" t="s">
+        <v>2164</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>2165</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>2166</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="6" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="6" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="E32" s="6" t="s">
+        <v>2204</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>2167</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>2169</v>
       </c>
     </row>
     <row r="33" spans="3:6">
       <c r="C33" s="6" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="E33" s="6" t="s">
+        <v>2205</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>2168</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>2170</v>
       </c>
     </row>
     <row r="34" spans="3:6">
       <c r="C34" s="6" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="35" spans="3:6">
       <c r="C35" s="6" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="37" spans="3:6">
       <c r="C37" s="6" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="38" spans="3:6">
       <c r="C38" s="6" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="39" spans="3:6">
       <c r="C39" s="6" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="40" spans="3:6">
       <c r="C40" s="6" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="44" spans="3:6">
       <c r="C44" s="6" t="s">
+        <v>2007</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>2008</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>2009</v>
       </c>
     </row>
     <row r="45" spans="3:6">
       <c r="C45" s="6" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="47" spans="3:6">
       <c r="C47" s="6" t="s">
+        <v>2011</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>2012</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>2013</v>
       </c>
     </row>
     <row r="49" spans="3:4">
       <c r="C49" s="6" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>2132</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>2133</v>
       </c>
     </row>
   </sheetData>
@@ -14102,43 +14122,43 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="29" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="B1" s="29"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="29" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="B2" s="29"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="29" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="B3" s="29"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="29" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="B4" s="29"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="29" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="B5" s="29"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="29" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="B6" s="29"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="29" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="B7" s="29"/>
     </row>
@@ -14150,253 +14170,253 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="29" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="B10" s="29"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="29" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="B11" s="29"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="29" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B12" s="29"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="29" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="B13" s="29"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="29" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="B14" s="29"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="29" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="B15" s="29"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="29" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="B16" s="29"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="29" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="B17" s="29"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="29" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B18" s="29"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="29" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B19" s="29"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="29" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B20" s="29"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="29" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="B21" s="29"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="29" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="B22" s="29"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="29" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="B23" s="29"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="29" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="B24" s="29"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="29" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="B25" s="29"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="29" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="B26" s="29"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="29" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="B27" s="29"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="29" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="B28" s="29"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="29" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="B29" s="29"/>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="29" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="B30" s="29"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="29" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="B31" s="29"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="29" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="B32" s="29"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="29" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="B33" s="29"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="29" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="B34" s="29"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="29" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="B35" s="29"/>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="29" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="B36" s="29"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="29" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="B37" s="29"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="29" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="B38" s="29"/>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="29" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="B39" s="29"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="29" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="B40" s="29"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="29" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B41" s="29"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="29" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="B42" s="29"/>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="29" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="B43" s="29"/>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="29" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B44" s="29"/>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="29" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="B45" s="29"/>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="29" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B46" s="29"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="29" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B47" s="29"/>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="29" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B48" s="29"/>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="29" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B49" s="29"/>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="29" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B50" s="29"/>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="29" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="B51" s="29"/>
     </row>
@@ -14405,169 +14425,169 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="29" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="B53" s="29"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="29" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="B54" s="29"/>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="29" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B55" s="29"/>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="29" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B56" s="29"/>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="29" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="B57" s="29"/>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="29" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B58" s="29"/>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="29" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="B59" s="29"/>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="29" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B60" s="29"/>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="29" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="B61" s="29"/>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="29" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B62" s="29"/>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="29" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="B63" s="29"/>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="29" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="B64" s="29"/>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="29" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="B65" s="29"/>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="29" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="B66" s="29"/>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="29" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="B67" s="29"/>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="29" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B68" s="29"/>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="29" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="B69" s="29"/>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="29" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="B70" s="29"/>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="29" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="B71" s="29"/>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="29" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="B72" s="29"/>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="29" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="B73" s="29"/>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="29" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="B74" s="29"/>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="29" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="B75" s="29"/>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="29" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="B76" s="29"/>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="29" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="B77" s="29"/>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="29" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B78" s="29"/>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="29" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="B79" s="29"/>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="29" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="B80" s="29"/>
     </row>

--- a/MachineSettings/keys.xlsx
+++ b/MachineSettings/keys.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="2210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="2220">
   <si>
     <t>exposure</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -8488,6 +8488,46 @@
   </si>
   <si>
     <t>ctrl l /alt s</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl b</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>源码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt shift h;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除到行首/尾</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">alt shift u </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上下文</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl alt u</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>图表小</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt shift ctrl u</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>图表大</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -13628,10 +13668,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13644,7 +13684,7 @@
     <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="C1" s="6" t="s">
         <v>2194</v>
       </c>
@@ -13658,7 +13698,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="6" t="s">
@@ -13674,7 +13714,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="C3" s="6" t="s">
         <v>2178</v>
       </c>
@@ -13682,7 +13722,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="C4" s="6" t="s">
         <v>2208</v>
       </c>
@@ -13696,7 +13736,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="C5" s="6" t="s">
         <v>2209</v>
       </c>
@@ -13710,7 +13750,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="C7" s="6" t="s">
         <v>2166</v>
       </c>
@@ -13718,7 +13758,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="C8" s="6" t="s">
         <v>2177</v>
       </c>
@@ -13732,15 +13772,21 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:8">
       <c r="E9" s="6" t="s">
         <v>2192</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>2189</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="6" t="s">
+        <v>2212</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="C10" s="6" t="s">
         <v>2193</v>
       </c>
@@ -13754,7 +13800,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:8">
       <c r="E11" s="6" t="s">
         <v>2207</v>
       </c>
@@ -13762,7 +13808,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:8">
       <c r="C12" s="6" t="s">
         <v>1981</v>
       </c>
@@ -13770,7 +13816,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:8">
       <c r="C13" s="6" t="s">
         <v>1983</v>
       </c>
@@ -13778,7 +13824,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:8">
       <c r="E14" s="6" t="s">
         <v>2180</v>
       </c>
@@ -13786,7 +13832,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:8">
       <c r="C15" s="6" t="s">
         <v>1985</v>
       </c>
@@ -13800,7 +13846,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:8">
       <c r="C16" s="6" t="s">
         <v>1979</v>
       </c>
@@ -14035,6 +14081,14 @@
         <v>1974</v>
       </c>
     </row>
+    <row r="36" spans="3:6">
+      <c r="E36" s="6" t="s">
+        <v>2210</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>2211</v>
+      </c>
+    </row>
     <row r="37" spans="3:6">
       <c r="C37" s="6" t="s">
         <v>2171</v>
@@ -14050,6 +14104,12 @@
       <c r="D38" s="6" t="s">
         <v>2172</v>
       </c>
+      <c r="E38" s="6" t="s">
+        <v>2214</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>2215</v>
+      </c>
     </row>
     <row r="39" spans="3:6">
       <c r="C39" s="6" t="s">
@@ -14058,6 +14118,12 @@
       <c r="D39" s="6" t="s">
         <v>2173</v>
       </c>
+      <c r="E39" s="6" t="s">
+        <v>2216</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>2217</v>
+      </c>
     </row>
     <row r="40" spans="3:6">
       <c r="C40" s="6" t="s">
@@ -14065,6 +14131,12 @@
       </c>
       <c r="D40" s="6" t="s">
         <v>2056</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>2218</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>2219</v>
       </c>
     </row>
     <row r="44" spans="3:6">

--- a/MachineSettings/keys.xlsx
+++ b/MachineSettings/keys.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="2220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="2224">
   <si>
     <t>exposure</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -8528,6 +8528,22 @@
   </si>
   <si>
     <t>图表大</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl enter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt enter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>格子ipython运行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -13670,8 +13686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -14139,12 +14155,26 @@
         <v>2219</v>
       </c>
     </row>
+    <row r="43" spans="3:6">
+      <c r="E43" s="6" t="s">
+        <v>2220</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>2222</v>
+      </c>
+    </row>
     <row r="44" spans="3:6">
       <c r="C44" s="6" t="s">
         <v>2007</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>2008</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>2221</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>2223</v>
       </c>
     </row>
     <row r="45" spans="3:6">

--- a/MachineSettings/keys.xlsx
+++ b/MachineSettings/keys.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="2224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="2210">
   <si>
     <t>exposure</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -7621,14 +7621,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>右移文档组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>左移文档组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>下开新行</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -7641,79 +7633,849 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>ctrl /</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt shift f</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式化代码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f11</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端切换最大化</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctr i</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>向右拆分复制编辑器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签切换左</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签切换右</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建文件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建文件夹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>开新外部终端</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新所有更改链接</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接对象</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新链接到新文件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3key 0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3key -</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3key =</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩小选区</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩大选区</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift F3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮廓描边</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>变换</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择相同色边</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏边缘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏画板</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift F1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift F7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift F8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl F8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift F6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl F6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>置入</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>画板</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl F1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏参考线</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3key /</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容识别填充</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接媒体</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>guide layer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl alt g</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出选中的剪辑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列化图层</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOLO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>栅格图层</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源管理器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一旦选定cell，可以批量删除/拷贝/剪切/粘贴/运行。当你需要移动notebook的一部分时这个很有用。</t>
+  </si>
+  <si>
+    <t>Esc + F 在代码中查找、替换，忽略输出。</t>
+  </si>
+  <si>
+    <t>Esc + O 在cell和输出结果间切换。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">选择多个cell: </t>
+  </si>
+  <si>
+    <t>Shift + J 或 Shift + Down 选择下一个cell。</t>
+  </si>
+  <si>
+    <t>Shift + K 或 Shift + Up 选择上一个cell。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shift + M 合并cell. </t>
+  </si>
+  <si>
+    <t>命令模式 (按键 Esc 开启)</t>
+  </si>
+  <si>
+    <t>Enter : 转入编辑模式</t>
+  </si>
+  <si>
+    <t>Shift-Enter : 运行本单元，选中下个单元</t>
+  </si>
+  <si>
+    <t>Ctrl-Enter : 运行本单元</t>
+  </si>
+  <si>
+    <t>Alt-Enter : 运行本单元，在其下插入新单元</t>
+  </si>
+  <si>
+    <t>Y : 单元转入代码状态</t>
+  </si>
+  <si>
+    <t>M :单元转入markdown状态</t>
+  </si>
+  <si>
+    <t>R : 单元转入raw状态</t>
+  </si>
+  <si>
+    <t>1 : 设定 1 级标题</t>
+  </si>
+  <si>
+    <t>2 : 设定 2 级标题</t>
+  </si>
+  <si>
+    <t>3 : 设定 3 级标题</t>
+  </si>
+  <si>
+    <t>4 : 设定 4 级标题</t>
+  </si>
+  <si>
+    <t>5 : 设定 5 级标题</t>
+  </si>
+  <si>
+    <t>6 : 设定 6 级标题</t>
+  </si>
+  <si>
+    <t>Up : 选中上方单元</t>
+  </si>
+  <si>
+    <t>K : 选中上方单元</t>
+  </si>
+  <si>
+    <t>Down : 选中下方单元</t>
+  </si>
+  <si>
+    <t>J : 选中下方单元</t>
+  </si>
+  <si>
+    <t>Shift-K : 扩大选中上方单元</t>
+  </si>
+  <si>
+    <t>Shift-J : 扩大选中下方单元</t>
+  </si>
+  <si>
+    <t>A : 在上方插入新单元</t>
+  </si>
+  <si>
+    <t>B : 在下方插入新单元</t>
+  </si>
+  <si>
+    <t>X : 剪切选中的单元</t>
+  </si>
+  <si>
+    <t>C : 复制选中的单元</t>
+  </si>
+  <si>
+    <t>Shift-V : 粘贴到上方单元</t>
+  </si>
+  <si>
+    <t>V : 粘贴到下方单元</t>
+  </si>
+  <si>
+    <t>Z : 恢复删除的最后一个单元</t>
+  </si>
+  <si>
+    <t>D,D : 删除选中的单元</t>
+  </si>
+  <si>
+    <t>Shift-M : 合并选中的单元</t>
+  </si>
+  <si>
+    <t>Ctrl-S : 文件存盘</t>
+  </si>
+  <si>
+    <t>S : 文件存盘</t>
+  </si>
+  <si>
+    <t>L : 转换行号</t>
+  </si>
+  <si>
+    <t>O : 转换输出</t>
+  </si>
+  <si>
+    <t>Shift-O : 转换输出滚动</t>
+  </si>
+  <si>
+    <t>Esc : 关闭页面</t>
+  </si>
+  <si>
+    <t>Q : 关闭页面</t>
+  </si>
+  <si>
+    <t>H : 显示快捷键帮助</t>
+  </si>
+  <si>
+    <t>I,I : 中断Notebook内核</t>
+  </si>
+  <si>
+    <t>0,0 : 重启Notebook内核</t>
+  </si>
+  <si>
+    <t>Shift : 忽略</t>
+  </si>
+  <si>
+    <t>Shift-Space : 向上滚动</t>
+  </si>
+  <si>
+    <t>Space : 向下滚动</t>
+  </si>
+  <si>
+    <t>编辑模式 ( Enter 键启动)</t>
+  </si>
+  <si>
+    <t>Tab : 代码补全或缩进</t>
+  </si>
+  <si>
+    <t>Shift-Tab : 提示</t>
+  </si>
+  <si>
+    <t>Ctrl-] : 缩进</t>
+  </si>
+  <si>
+    <t>Ctrl-[ : 解除缩进</t>
+  </si>
+  <si>
+    <t>Ctrl-A : 全选</t>
+  </si>
+  <si>
+    <t>Ctrl-Z : 复原</t>
+  </si>
+  <si>
+    <t>Ctrl-Shift-Z : 再做</t>
+  </si>
+  <si>
+    <t>Ctrl-Y : 再做</t>
+  </si>
+  <si>
+    <t>Ctrl-Home : 跳到单元开头</t>
+  </si>
+  <si>
+    <t>Ctrl-Up : 跳到单元开头</t>
+  </si>
+  <si>
+    <t>Ctrl-End : 跳到单元末尾</t>
+  </si>
+  <si>
+    <t>Ctrl-Down : 跳到单元末尾</t>
+  </si>
+  <si>
+    <t>Ctrl-Left : 跳到左边一个字首</t>
+  </si>
+  <si>
+    <t>Ctrl-Right : 跳到右边一个字首</t>
+  </si>
+  <si>
+    <t>Ctrl-Backspace : 删除前面一个字</t>
+  </si>
+  <si>
+    <t>Ctrl-Delete : 删除后面一个字</t>
+  </si>
+  <si>
+    <t>Esc : 进入命令模式</t>
+  </si>
+  <si>
+    <t>Ctrl-M : 进入命令模式</t>
+  </si>
+  <si>
+    <t>Shift-Enter : 运行本单元，选中下一单元</t>
+  </si>
+  <si>
+    <t>Alt-Enter : 运行本单元，在下面插入一单元</t>
+  </si>
+  <si>
+    <t>Ctrl-Shift-- : 分割单元</t>
+  </si>
+  <si>
+    <t>Ctrl-Shift-Subtract : 分割单元</t>
+  </si>
+  <si>
+    <t>Up : 光标上移或转入上一单元</t>
+  </si>
+  <si>
+    <t>Down :光标下移或转入下一单元</t>
+  </si>
+  <si>
+    <t>ctrl space</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示提示完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt \</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt &lt;-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt -&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl alt \</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消所有组-合并</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt [</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt [</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳入左组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳入右组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>左移标签</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>右移标签</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt shift ctrl j</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt 2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pycharm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt 2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt 0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt 9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ipython运行窗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>document</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sciView</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>esc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>退回编辑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt -</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>折叠/展开选中块</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl +/-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>折叠/展开</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift ctrl +/-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部 折叠/展开</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下开新行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上开新行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift f3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt `</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>ctrl `</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>进入终端</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl /</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释行</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt shift f</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>格式化代码</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl 123</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>组间焦点切换</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl shift m</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题面板</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl shift u</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>调试</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl shift y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl shift c</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>拆分终端</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f11</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>终端切换最大化</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl shift 5</t>
+    <t>焦点在编辑器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦点在终端</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>侧栏显示切换</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt shift ctrl insert</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>列模式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt shift i</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上下左右</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>home/end</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>page up/down</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt ikjl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt h;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl j</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl del</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt shift del</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除到行尾</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除到行首</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>backspace</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt m</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt u</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>altl o.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shift enter/alt n</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt shift enter/alt y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jupyter 上下格</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt p/</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl b</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>源码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">alt shift u </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上下文</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl alt u</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>图表小</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt shift ctrl u</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>图表大</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl enter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt enter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>格子ipython运行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt shift n</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt shift m</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt shift ,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词快进</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>加ctrl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl del</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除到行尾</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除到行首</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt shift del</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>加shift</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>带选择</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl shift p</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt d</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt s</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt n</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt 3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>alt f3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl alt &lt;- -&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>移文档组</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -7721,829 +8483,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ctr i</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl alt u</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl alt i</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>向右拆分复制编辑器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签切换左</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签切换右</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>左移标签</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>右移标签</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建文件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建文件夹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>开新外部终端</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt shift  k</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签切换</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷新所有更改链接</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>链接对象</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>重新链接到新文件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3key 0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3key -</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3key =</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>缩小选区</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>扩大选区</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shift F3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>轮廓描边</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>变换</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择相同色边</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐藏边缘</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐藏画板</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shift F1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shift F7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shift F8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl F8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shift F6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl F6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>置入</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F9</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shift 1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>画板</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl F1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐藏参考线</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3key /</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容识别填充</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>链接媒体</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>guide layer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl alt g</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出选中的剪辑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>f7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>序列化图层</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOLO</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>栅格图层</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源管理器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一旦选定cell，可以批量删除/拷贝/剪切/粘贴/运行。当你需要移动notebook的一部分时这个很有用。</t>
-  </si>
-  <si>
-    <t>Esc + F 在代码中查找、替换，忽略输出。</t>
-  </si>
-  <si>
-    <t>Esc + O 在cell和输出结果间切换。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">选择多个cell: </t>
-  </si>
-  <si>
-    <t>Shift + J 或 Shift + Down 选择下一个cell。</t>
-  </si>
-  <si>
-    <t>Shift + K 或 Shift + Up 选择上一个cell。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shift + M 合并cell. </t>
-  </si>
-  <si>
-    <t>命令模式 (按键 Esc 开启)</t>
-  </si>
-  <si>
-    <t>Enter : 转入编辑模式</t>
-  </si>
-  <si>
-    <t>Shift-Enter : 运行本单元，选中下个单元</t>
-  </si>
-  <si>
-    <t>Ctrl-Enter : 运行本单元</t>
-  </si>
-  <si>
-    <t>Alt-Enter : 运行本单元，在其下插入新单元</t>
-  </si>
-  <si>
-    <t>Y : 单元转入代码状态</t>
-  </si>
-  <si>
-    <t>M :单元转入markdown状态</t>
-  </si>
-  <si>
-    <t>R : 单元转入raw状态</t>
-  </si>
-  <si>
-    <t>1 : 设定 1 级标题</t>
-  </si>
-  <si>
-    <t>2 : 设定 2 级标题</t>
-  </si>
-  <si>
-    <t>3 : 设定 3 级标题</t>
-  </si>
-  <si>
-    <t>4 : 设定 4 级标题</t>
-  </si>
-  <si>
-    <t>5 : 设定 5 级标题</t>
-  </si>
-  <si>
-    <t>6 : 设定 6 级标题</t>
-  </si>
-  <si>
-    <t>Up : 选中上方单元</t>
-  </si>
-  <si>
-    <t>K : 选中上方单元</t>
-  </si>
-  <si>
-    <t>Down : 选中下方单元</t>
-  </si>
-  <si>
-    <t>J : 选中下方单元</t>
-  </si>
-  <si>
-    <t>Shift-K : 扩大选中上方单元</t>
-  </si>
-  <si>
-    <t>Shift-J : 扩大选中下方单元</t>
-  </si>
-  <si>
-    <t>A : 在上方插入新单元</t>
-  </si>
-  <si>
-    <t>B : 在下方插入新单元</t>
-  </si>
-  <si>
-    <t>X : 剪切选中的单元</t>
-  </si>
-  <si>
-    <t>C : 复制选中的单元</t>
-  </si>
-  <si>
-    <t>Shift-V : 粘贴到上方单元</t>
-  </si>
-  <si>
-    <t>V : 粘贴到下方单元</t>
-  </si>
-  <si>
-    <t>Z : 恢复删除的最后一个单元</t>
-  </si>
-  <si>
-    <t>D,D : 删除选中的单元</t>
-  </si>
-  <si>
-    <t>Shift-M : 合并选中的单元</t>
-  </si>
-  <si>
-    <t>Ctrl-S : 文件存盘</t>
-  </si>
-  <si>
-    <t>S : 文件存盘</t>
-  </si>
-  <si>
-    <t>L : 转换行号</t>
-  </si>
-  <si>
-    <t>O : 转换输出</t>
-  </si>
-  <si>
-    <t>Shift-O : 转换输出滚动</t>
-  </si>
-  <si>
-    <t>Esc : 关闭页面</t>
-  </si>
-  <si>
-    <t>Q : 关闭页面</t>
-  </si>
-  <si>
-    <t>H : 显示快捷键帮助</t>
-  </si>
-  <si>
-    <t>I,I : 中断Notebook内核</t>
-  </si>
-  <si>
-    <t>0,0 : 重启Notebook内核</t>
-  </si>
-  <si>
-    <t>Shift : 忽略</t>
-  </si>
-  <si>
-    <t>Shift-Space : 向上滚动</t>
-  </si>
-  <si>
-    <t>Space : 向下滚动</t>
-  </si>
-  <si>
-    <t>编辑模式 ( Enter 键启动)</t>
-  </si>
-  <si>
-    <t>Tab : 代码补全或缩进</t>
-  </si>
-  <si>
-    <t>Shift-Tab : 提示</t>
-  </si>
-  <si>
-    <t>Ctrl-] : 缩进</t>
-  </si>
-  <si>
-    <t>Ctrl-[ : 解除缩进</t>
-  </si>
-  <si>
-    <t>Ctrl-A : 全选</t>
-  </si>
-  <si>
-    <t>Ctrl-Z : 复原</t>
-  </si>
-  <si>
-    <t>Ctrl-Shift-Z : 再做</t>
-  </si>
-  <si>
-    <t>Ctrl-Y : 再做</t>
-  </si>
-  <si>
-    <t>Ctrl-Home : 跳到单元开头</t>
-  </si>
-  <si>
-    <t>Ctrl-Up : 跳到单元开头</t>
-  </si>
-  <si>
-    <t>Ctrl-End : 跳到单元末尾</t>
-  </si>
-  <si>
-    <t>Ctrl-Down : 跳到单元末尾</t>
-  </si>
-  <si>
-    <t>Ctrl-Left : 跳到左边一个字首</t>
-  </si>
-  <si>
-    <t>Ctrl-Right : 跳到右边一个字首</t>
-  </si>
-  <si>
-    <t>Ctrl-Backspace : 删除前面一个字</t>
-  </si>
-  <si>
-    <t>Ctrl-Delete : 删除后面一个字</t>
-  </si>
-  <si>
-    <t>Esc : 进入命令模式</t>
-  </si>
-  <si>
-    <t>Ctrl-M : 进入命令模式</t>
-  </si>
-  <si>
-    <t>Shift-Enter : 运行本单元，选中下一单元</t>
-  </si>
-  <si>
-    <t>Alt-Enter : 运行本单元，在下面插入一单元</t>
-  </si>
-  <si>
-    <t>Ctrl-Shift-- : 分割单元</t>
-  </si>
-  <si>
-    <t>Ctrl-Shift-Subtract : 分割单元</t>
-  </si>
-  <si>
-    <t>Up : 光标上移或转入上一单元</t>
-  </si>
-  <si>
-    <t>Down :光标下移或转入下一单元</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ctrl space</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码提示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl space</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示提示完成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt \</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt &lt;-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt -&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl alt \</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消所有组-合并</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt [</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt [</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳入左组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳入右组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>左移标签</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>右移标签</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt shift ctrl j</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt 2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt 1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pycharm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt 1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt 2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt 0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt 9</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ipython运行窗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>document</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sciView</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>esc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>退回编辑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt -</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>折叠/展开选中块</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl +/-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>折叠/展开</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shift ctrl +/-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部 折叠/展开</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shift enter</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>下开新行</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>上开新行</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shift f3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt `</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl `</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦点在编辑器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦点在终端</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>侧栏显示切换</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl u</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl i</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt shift enter</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt shift ctrl insert</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>列模式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt shift j</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt shift i</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt shift l</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt shift k</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>上下左右</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>home/end</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>page up/down</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt ikjl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt h;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl shift p /f1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl j</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl del</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt shift del</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除到行尾</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除到行首</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>backspace</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt m</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt u</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>altl o.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shift enter/alt n</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt shift enter/alt y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>jupyter 上下格</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt p/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl d / alt d</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl l /alt s</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl b</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>源码</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt shift h;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除到行首/尾</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">alt shift u </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>上下文</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl alt u</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>图表小</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt shift ctrl u</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>图表大</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl enter</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt enter</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>格子ipython运行</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>运行</t>
+    <t xml:space="preserve"> ctrl alt shift +-0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>视图放大缩小重置</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -8551,7 +8495,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8605,13 +8549,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="萍方0"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="0" tint="-0.34998626667073579"/>
       <name val="萍方0"/>
       <family val="2"/>
       <charset val="134"/>
@@ -8699,7 +8636,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8785,9 +8722,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9460,10 +9394,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="6" t="s">
-        <v>2051</v>
+        <v>2028</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>2052</v>
+        <v>2029</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>35</v>
@@ -12988,31 +12922,31 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="18" t="s">
-        <v>2045</v>
+        <v>2022</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>2054</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="18" t="s">
-        <v>2050</v>
+        <v>2027</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>2044</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="18" t="s">
-        <v>2053</v>
+        <v>2030</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>2049</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="18" t="s">
-        <v>2046</v>
+        <v>2023</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>1597</v>
@@ -13025,10 +12959,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="18" t="s">
-        <v>2048</v>
+        <v>2025</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>2047</v>
+        <v>2024</v>
       </c>
     </row>
   </sheetData>
@@ -13167,13 +13101,13 @@
         <v>981</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>2013</v>
+        <v>1990</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>1017</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>2055</v>
+        <v>2032</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="6"/>
@@ -13185,13 +13119,13 @@
         <v>982</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>2014</v>
+        <v>1991</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>1018</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>2015</v>
+        <v>1992</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="6"/>
@@ -13334,7 +13268,7 @@
         <v>975</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>2016</v>
+        <v>1993</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>1612</v>
@@ -13352,10 +13286,10 @@
         <v>976</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>2017</v>
+        <v>1994</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>2019</v>
+        <v>1996</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="6"/>
@@ -13370,10 +13304,10 @@
         <v>963</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>2018</v>
+        <v>1995</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>2020</v>
+        <v>1997</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="6"/>
@@ -13388,10 +13322,10 @@
         <v>968</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>2042</v>
+        <v>2019</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>2043</v>
+        <v>2020</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="6"/>
@@ -13527,19 +13461,19 @@
         <v>1223</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>2027</v>
+        <v>2004</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>2029</v>
+        <v>2006</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>2028</v>
+        <v>2005</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>2040</v>
+        <v>2017</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>2041</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -13547,7 +13481,7 @@
         <v>1530</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>2026</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -13555,10 +13489,10 @@
         <v>1531</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>2025</v>
+        <v>2002</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>2023</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -13579,27 +13513,27 @@
         <v>1225</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>2022</v>
+        <v>1999</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>2036</v>
+        <v>2013</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>2034</v>
+        <v>2011</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>2035</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="C7" s="6" t="s">
-        <v>2021</v>
+        <v>1998</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>1221</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>2031</v>
+        <v>2008</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>1222</v>
@@ -13607,19 +13541,19 @@
     </row>
     <row r="8" spans="1:8">
       <c r="C8" s="7" t="s">
-        <v>2030</v>
+        <v>2007</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>2024</v>
+        <v>2001</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>2032</v>
+        <v>2009</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>1217</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>2033</v>
+        <v>2010</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>1218</v>
@@ -13633,7 +13567,7 @@
         <v>1603</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>2037</v>
+        <v>2014</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>1220</v>
@@ -13669,10 +13603,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="6" t="s">
-        <v>2038</v>
+        <v>2015</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>2039</v>
+        <v>2016</v>
       </c>
     </row>
   </sheetData>
@@ -13684,10 +13618,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13700,505 +13634,455 @@
     <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
+      <c r="A1" s="6" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1982</v>
+      </c>
       <c r="C1" s="6" t="s">
-        <v>2194</v>
+        <v>2161</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>1973</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>2195</v>
+        <v>2162</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>2197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="6" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1976</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>2146</v>
+        <v>2121</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>1970</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>2163</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="C3" s="6" t="s">
+        <v>2149</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="E4" s="6" t="s">
+        <v>2168</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="C5" s="6" t="s">
+        <v>2199</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>2169</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="C6" s="6" t="s">
+        <v>2200</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="C7" s="6" t="s">
+        <v>2202</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="C8" s="6" t="s">
+        <v>2201</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>1975</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>2159</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>2156</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>2196</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>2198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="C3" s="6" t="s">
-        <v>2178</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="C4" s="6" t="s">
+      <c r="H8" s="6" t="s">
+        <v>2197</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>2191</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="E9" s="6" t="s">
+        <v>2160</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="E10" s="6" t="s">
+        <v>2170</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="E11" s="6" t="s">
+        <v>2174</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>2192</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="C12" s="6" t="s">
+        <v>1977</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>1978</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>2195</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="C13" s="6" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="C14" s="6" t="s">
         <v>2208</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>1971</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>2201</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>2199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="C5" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>2209</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>1972</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>2202</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="C7" s="6" t="s">
-        <v>2166</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>1976</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="6" t="s">
-        <v>2177</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>1977</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>2191</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="E14" s="6" t="s">
+        <v>2187</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="E15" s="6" t="s">
         <v>2188</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="E9" s="6" t="s">
-        <v>2192</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="F15" s="6" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="E16" s="6" t="s">
+        <v>2151</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="E17" s="6" t="s">
         <v>2189</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>2212</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>2213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="C10" s="6" t="s">
-        <v>2193</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>1978</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>2203</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>2190</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="E11" s="6" t="s">
+      <c r="F17" s="6" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="E19" s="6" t="s">
+        <v>2108</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="E21" s="6" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="E22" s="6" t="s">
+        <v>2125</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="E23" s="6" t="s">
+        <v>2126</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="E24" s="6" t="s">
+        <v>2127</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="E25" s="6" t="s">
+        <v>2128</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="C26" s="6" t="s">
+        <v>2110</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>1984</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>2133</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="C27" s="6" t="s">
+        <v>2113</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="C28" s="6" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>1985</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>2135</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="C29" s="6" t="s">
+        <v>2112</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>2137</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="C30" s="6" t="s">
+        <v>2115</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>2117</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>2139</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6">
+      <c r="C31" s="6" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6">
+      <c r="C32" s="6" t="s">
         <v>2207</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>2206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="6" t="s">
-        <v>1981</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="6" t="s">
-        <v>1983</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>1984</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="E14" s="6" t="s">
-        <v>2180</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>2184</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="C15" s="6" t="s">
-        <v>1985</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>1986</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>2185</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>2186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="C16" s="6" t="s">
-        <v>1979</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>1980</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>2181</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>2187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="C17" s="6" t="s">
-        <v>1987</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>1988</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>2182</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>2183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="C18" s="6" t="s">
-        <v>1989</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="C19" s="6" t="s">
-        <v>1992</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>1991</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>2133</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>2134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="C20" s="6" t="s">
-        <v>1993</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="E21" s="6" t="s">
-        <v>2149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="C22" s="6" t="s">
-        <v>1997</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>1994</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>2150</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>2154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="C23" s="6" t="s">
-        <v>1995</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>1996</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>2151</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>2155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="E24" s="6" t="s">
-        <v>2152</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="E25" s="6" t="s">
-        <v>2153</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>2157</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="C26" s="6" t="s">
-        <v>2135</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>2002</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>2158</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>2159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="C27" s="6" t="s">
-        <v>2138</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>2139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="C28" s="6" t="s">
-        <v>2136</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>2003</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>2160</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>2161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="C29" s="6" t="s">
-        <v>2137</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>2004</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>2162</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>2163</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="C30" s="6" t="s">
-        <v>2140</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>2142</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>2164</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>2165</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="6" t="s">
-        <v>2005</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>2175</v>
-      </c>
-      <c r="C31" s="6" t="s">
+      <c r="D32" s="6" t="s">
+        <v>2119</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>2171</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>2141</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>2143</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="6" t="s">
-        <v>2006</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>2176</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>1998</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>2144</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>2204</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>2167</v>
       </c>
     </row>
     <row r="33" spans="3:6">
       <c r="C33" s="6" t="s">
-        <v>1999</v>
+        <v>1983</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>2145</v>
+        <v>2120</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>2205</v>
+        <v>2172</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>2168</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="34" spans="3:6">
       <c r="C34" s="6" t="s">
-        <v>2000</v>
+        <v>2205</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6">
-      <c r="C35" s="6" t="s">
-        <v>2001</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>1974</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="36" spans="3:6">
       <c r="E36" s="6" t="s">
-        <v>2210</v>
+        <v>2175</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>2211</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="37" spans="3:6">
       <c r="C37" s="6" t="s">
-        <v>2171</v>
+        <v>2145</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>2174</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="38" spans="3:6">
       <c r="C38" s="6" t="s">
-        <v>2148</v>
+        <v>2123</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>2172</v>
+        <v>2146</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>2214</v>
+        <v>2177</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>2215</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="39" spans="3:6">
       <c r="C39" s="6" t="s">
+        <v>2122</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>2147</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>2173</v>
-      </c>
       <c r="E39" s="6" t="s">
-        <v>2216</v>
+        <v>2179</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>2217</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="40" spans="3:6">
       <c r="C40" s="6" t="s">
-        <v>2170</v>
+        <v>2203</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>2056</v>
+        <v>1989</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>2218</v>
+        <v>2181</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>2219</v>
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6">
+      <c r="C41" s="6" t="s">
+        <v>2144</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>2033</v>
       </c>
     </row>
     <row r="43" spans="3:6">
       <c r="E43" s="6" t="s">
-        <v>2220</v>
+        <v>2183</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>2222</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="44" spans="3:6">
       <c r="C44" s="6" t="s">
-        <v>2007</v>
+        <v>2204</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>2008</v>
+        <v>1987</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>2221</v>
+        <v>2184</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>2223</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="45" spans="3:6">
       <c r="C45" s="6" t="s">
-        <v>2169</v>
+        <v>2143</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6">
-      <c r="C47" s="6" t="s">
-        <v>2011</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4">
-      <c r="C49" s="6" t="s">
-        <v>2131</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>2132</v>
+        <v>1988</v>
       </c>
     </row>
   </sheetData>
@@ -14218,480 +14102,480 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="79.5" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="29"/>
+    <col min="1" max="1" width="79.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B1" s="28"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="28" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B2" s="28"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="28" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B3" s="28"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="28" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B4" s="28"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="28" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B5" s="28"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="28" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B6" s="28"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="28" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B7" s="28"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="28"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="28"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="28" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B10" s="28"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="28" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B11" s="28"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="28" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B12" s="28"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="28" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B13" s="28"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="28" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B14" s="28"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="28" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B15" s="28"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="28" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B16" s="28"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="28" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B17" s="28"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="28" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B18" s="28"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="28" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B19" s="28"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="28" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B20" s="28"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="28" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B21" s="28"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="28" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B22" s="28"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="28" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B23" s="28"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="28" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B24" s="28"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="28" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B25" s="28"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="28" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B26" s="28"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="28" t="s">
         <v>2058</v>
       </c>
-      <c r="B1" s="29"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="29" t="s">
+      <c r="B27" s="28"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="28" t="s">
         <v>2059</v>
       </c>
-      <c r="B2" s="29"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="29" t="s">
+      <c r="B28" s="28"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="28" t="s">
         <v>2060</v>
       </c>
-      <c r="B3" s="29"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="29" t="s">
+      <c r="B29" s="28"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="28" t="s">
         <v>2061</v>
       </c>
-      <c r="B4" s="29"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="29" t="s">
+      <c r="B30" s="28"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="28" t="s">
         <v>2062</v>
       </c>
-      <c r="B5" s="29"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="29" t="s">
-        <v>2057</v>
-      </c>
-      <c r="B6" s="29"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="29" t="s">
+      <c r="B31" s="28"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="28" t="s">
         <v>2063</v>
       </c>
-      <c r="B7" s="29"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" s="29"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9" s="29"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="29" t="s">
+      <c r="B32" s="28"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="28" t="s">
         <v>2064</v>
       </c>
-      <c r="B10" s="29"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="29" t="s">
+      <c r="B33" s="28"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="28" t="s">
         <v>2065</v>
       </c>
-      <c r="B11" s="29"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="29" t="s">
+      <c r="B34" s="28"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="28" t="s">
         <v>2066</v>
       </c>
-      <c r="B12" s="29"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="29" t="s">
+      <c r="B35" s="28"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="28" t="s">
         <v>2067</v>
       </c>
-      <c r="B13" s="29"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="29" t="s">
+      <c r="B36" s="28"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="28" t="s">
         <v>2068</v>
       </c>
-      <c r="B14" s="29"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="29" t="s">
+      <c r="B37" s="28"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="28" t="s">
         <v>2069</v>
       </c>
-      <c r="B15" s="29"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="29" t="s">
+      <c r="B38" s="28"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="28" t="s">
         <v>2070</v>
       </c>
-      <c r="B16" s="29"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="29" t="s">
+      <c r="B39" s="28"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="28" t="s">
         <v>2071</v>
       </c>
-      <c r="B17" s="29"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="29" t="s">
+      <c r="B40" s="28"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="28" t="s">
         <v>2072</v>
       </c>
-      <c r="B18" s="29"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="29" t="s">
+      <c r="B41" s="28"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="28" t="s">
         <v>2073</v>
       </c>
-      <c r="B19" s="29"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="29" t="s">
+      <c r="B42" s="28"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="28" t="s">
         <v>2074</v>
       </c>
-      <c r="B20" s="29"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="29" t="s">
+      <c r="B43" s="28"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="28" t="s">
         <v>2075</v>
       </c>
-      <c r="B21" s="29"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="29" t="s">
+      <c r="B44" s="28"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="28" t="s">
         <v>2076</v>
       </c>
-      <c r="B22" s="29"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="29" t="s">
+      <c r="B45" s="28"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="28" t="s">
         <v>2077</v>
       </c>
-      <c r="B23" s="29"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="29" t="s">
+      <c r="B46" s="28"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="28" t="s">
         <v>2078</v>
       </c>
-      <c r="B24" s="29"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="29" t="s">
+      <c r="B47" s="28"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="28" t="s">
         <v>2079</v>
       </c>
-      <c r="B25" s="29"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="29" t="s">
+      <c r="B48" s="28"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="28" t="s">
         <v>2080</v>
       </c>
-      <c r="B26" s="29"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="29" t="s">
+      <c r="B49" s="28"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="28" t="s">
         <v>2081</v>
       </c>
-      <c r="B27" s="29"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="29" t="s">
+      <c r="B50" s="28"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="28" t="s">
         <v>2082</v>
       </c>
-      <c r="B28" s="29"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="29" t="s">
+      <c r="B51" s="28"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="B52" s="28"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="28" t="s">
         <v>2083</v>
       </c>
-      <c r="B29" s="29"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="29" t="s">
+      <c r="B53" s="28"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="28" t="s">
         <v>2084</v>
       </c>
-      <c r="B30" s="29"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="29" t="s">
+      <c r="B54" s="28"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="28" t="s">
         <v>2085</v>
       </c>
-      <c r="B31" s="29"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="29" t="s">
+      <c r="B55" s="28"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="28" t="s">
         <v>2086</v>
       </c>
-      <c r="B32" s="29"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="29" t="s">
+      <c r="B56" s="28"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="28" t="s">
         <v>2087</v>
       </c>
-      <c r="B33" s="29"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="29" t="s">
+      <c r="B57" s="28"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="28" t="s">
         <v>2088</v>
       </c>
-      <c r="B34" s="29"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="29" t="s">
+      <c r="B58" s="28"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="28" t="s">
         <v>2089</v>
       </c>
-      <c r="B35" s="29"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="29" t="s">
+      <c r="B59" s="28"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="28" t="s">
         <v>2090</v>
       </c>
-      <c r="B36" s="29"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="29" t="s">
+      <c r="B60" s="28"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="28" t="s">
         <v>2091</v>
       </c>
-      <c r="B37" s="29"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="29" t="s">
+      <c r="B61" s="28"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="28" t="s">
         <v>2092</v>
       </c>
-      <c r="B38" s="29"/>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="29" t="s">
+      <c r="B62" s="28"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="28" t="s">
         <v>2093</v>
       </c>
-      <c r="B39" s="29"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="29" t="s">
+      <c r="B63" s="28"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="28" t="s">
         <v>2094</v>
       </c>
-      <c r="B40" s="29"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="29" t="s">
+      <c r="B64" s="28"/>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="28" t="s">
         <v>2095</v>
       </c>
-      <c r="B41" s="29"/>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="29" t="s">
+      <c r="B65" s="28"/>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="28" t="s">
         <v>2096</v>
       </c>
-      <c r="B42" s="29"/>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="29" t="s">
+      <c r="B66" s="28"/>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="28" t="s">
         <v>2097</v>
       </c>
-      <c r="B43" s="29"/>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="29" t="s">
+      <c r="B67" s="28"/>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="28" t="s">
         <v>2098</v>
       </c>
-      <c r="B44" s="29"/>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="29" t="s">
+      <c r="B68" s="28"/>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="28" t="s">
         <v>2099</v>
       </c>
-      <c r="B45" s="29"/>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="29" t="s">
+      <c r="B69" s="28"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="28" t="s">
         <v>2100</v>
       </c>
-      <c r="B46" s="29"/>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="29" t="s">
+      <c r="B70" s="28"/>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="28" t="s">
         <v>2101</v>
       </c>
-      <c r="B47" s="29"/>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="29" t="s">
+      <c r="B71" s="28"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="28" t="s">
         <v>2102</v>
       </c>
-      <c r="B48" s="29"/>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="29" t="s">
+      <c r="B72" s="28"/>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="28" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B73" s="28"/>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="28" t="s">
         <v>2103</v>
       </c>
-      <c r="B49" s="29"/>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="29" t="s">
+      <c r="B74" s="28"/>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="28" t="s">
         <v>2104</v>
       </c>
-      <c r="B50" s="29"/>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="29" t="s">
+      <c r="B75" s="28"/>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="28" t="s">
         <v>2105</v>
       </c>
-      <c r="B51" s="29"/>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="B52" s="29"/>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="29" t="s">
+      <c r="B76" s="28"/>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="28" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B77" s="28"/>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="28" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B78" s="28"/>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="28" t="s">
         <v>2106</v>
       </c>
-      <c r="B53" s="29"/>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="29" t="s">
+      <c r="B79" s="28"/>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="28" t="s">
         <v>2107</v>
       </c>
-      <c r="B54" s="29"/>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="29" t="s">
-        <v>2108</v>
-      </c>
-      <c r="B55" s="29"/>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="29" t="s">
-        <v>2109</v>
-      </c>
-      <c r="B56" s="29"/>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="29" t="s">
-        <v>2110</v>
-      </c>
-      <c r="B57" s="29"/>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="29" t="s">
-        <v>2111</v>
-      </c>
-      <c r="B58" s="29"/>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="29" t="s">
-        <v>2112</v>
-      </c>
-      <c r="B59" s="29"/>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="29" t="s">
-        <v>2113</v>
-      </c>
-      <c r="B60" s="29"/>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="29" t="s">
-        <v>2114</v>
-      </c>
-      <c r="B61" s="29"/>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="29" t="s">
-        <v>2115</v>
-      </c>
-      <c r="B62" s="29"/>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="29" t="s">
-        <v>2116</v>
-      </c>
-      <c r="B63" s="29"/>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="29" t="s">
-        <v>2117</v>
-      </c>
-      <c r="B64" s="29"/>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="29" t="s">
-        <v>2118</v>
-      </c>
-      <c r="B65" s="29"/>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="29" t="s">
-        <v>2119</v>
-      </c>
-      <c r="B66" s="29"/>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="29" t="s">
-        <v>2120</v>
-      </c>
-      <c r="B67" s="29"/>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="29" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B68" s="29"/>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="29" t="s">
-        <v>2122</v>
-      </c>
-      <c r="B69" s="29"/>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="29" t="s">
-        <v>2123</v>
-      </c>
-      <c r="B70" s="29"/>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="29" t="s">
-        <v>2124</v>
-      </c>
-      <c r="B71" s="29"/>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="29" t="s">
-        <v>2125</v>
-      </c>
-      <c r="B72" s="29"/>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="29" t="s">
-        <v>2067</v>
-      </c>
-      <c r="B73" s="29"/>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="29" t="s">
-        <v>2126</v>
-      </c>
-      <c r="B74" s="29"/>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="29" t="s">
-        <v>2127</v>
-      </c>
-      <c r="B75" s="29"/>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="29" t="s">
-        <v>2128</v>
-      </c>
-      <c r="B76" s="29"/>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="29" t="s">
-        <v>2093</v>
-      </c>
-      <c r="B77" s="29"/>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="29" t="s">
-        <v>2103</v>
-      </c>
-      <c r="B78" s="29"/>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="29" t="s">
-        <v>2129</v>
-      </c>
-      <c r="B79" s="29"/>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="29" t="s">
-        <v>2130</v>
-      </c>
-      <c r="B80" s="29"/>
+      <c r="B80" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
